--- a/collector.xlsx
+++ b/collector.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45753352-23C3-496B-956B-E1016027BA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBC36A5-19FB-4448-9188-662528F8C8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13710" yWindow="60" windowWidth="15090" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="13095" yWindow="195" windowWidth="15510" windowHeight="16095" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>7011</t>
     <phoneticPr fontId="1"/>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6578</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5803</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -196,6 +192,28 @@
   </si>
   <si>
     <t>4005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6501</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6981</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前日比</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンジツヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出来高</t>
+    <rPh sb="0" eb="3">
+      <t>デキダカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -206,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +288,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -320,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +394,9 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -389,27 +417,275 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.ab786116886b4c8facdeb9123483c446">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>-91</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G15" s="1"/>
+      </tp>
+      <tp>
+        <v>-23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G16" s="1"/>
+      </tp>
+      <tp>
+        <v>-18</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日比</stp>
+        <tr r="G14" s="1"/>
+      </tp>
+      <tp>
+        <v>11.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>-75</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>-20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日比</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日比</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>-38</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>-33.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.7</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>-4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>-5.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.7</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>-101</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
         <stp>現在日付</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
         <stp>現在日付</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
+        <tr r="C19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -417,19 +693,561 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.ab786116886b4c8facdeb9123483c446">
-      <tp t="s">
-        <v/>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
+        <stp>現在日付</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日比</stp>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>-10.3</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日比</stp>
+        <tr r="G20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G19" s="1"/>
+      </tp>
+      <tp>
+        <v>-39.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G17" s="1"/>
+      </tp>
+      <tp>
+        <v>7</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>6117600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>8199600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>出来高</stp>
+        <tr r="H14" s="1"/>
+      </tp>
+      <tp>
+        <v>30735400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>13796500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>13391800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>出来高</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>13385500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>出来高</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>31881900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H15" s="1"/>
+      </tp>
+      <tp>
+        <v>80814500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp>
+        <v>7415100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>14611500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>30777000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>6660700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>9937400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>13118700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>18166700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>16325300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H19" s="1"/>
+      </tp>
+      <tp>
+        <v>41355800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp>
+        <v>46602400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>71073300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H22" s="1"/>
+      </tp>
+      <tp>
+        <v>140423100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>出来高</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>5254800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>出来高</stp>
+        <tr r="H20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>2063.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値</stp>
+        <tr r="E14" s="1"/>
+      </tp>
+      <tp>
+        <v>1483</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値</stp>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>1932.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値</stp>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>2683</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>3990</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>2502.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E16" s="1"/>
+      </tp>
+      <tp>
+        <v>3450</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E15" s="1"/>
+      </tp>
+      <tp>
+        <v>342.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>538.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>806.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>1351.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>6860</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>726.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>2732.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>2690</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>1389</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E19" s="1"/>
+      </tp>
+      <tp>
+        <v>1957.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E18" s="1"/>
+      </tp>
+      <tp>
+        <v>2813.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E17" s="1"/>
+      </tp>
+      <tp>
+        <v>2023</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値</stp>
+        <tr r="E20" s="1"/>
+      </tp>
+      <tp>
+        <v>217.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>445.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B18" s="1"/>
+      </tp>
+      <tp>
+        <v>1391</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F19" s="1"/>
+      </tp>
+      <tp>
+        <v>6898</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -438,20 +1256,224 @@
         <tr r="D2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ab786116886b4c8facdeb9123483c446">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ＥＮＥＯＳホールディングス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>住友化学</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp>
+        <v>2081.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>川崎汽船</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
         <stp>現在値詳細時刻</stp>
-        <tr r="D17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ab786116886b4c8facdeb9123483c446">
-      <tp t="s">
-        <v/>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>ＬＩＮＥヤフー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>楽天グループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>パナソニックホールディンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ルネサスエレクトロニクス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソフトバンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -459,61 +1481,272 @@
         <stp>銘柄名称</stp>
         <tr r="B2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.ab786116886b4c8facdeb9123483c446">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
+      <tp t="s">
+        <v>日本製鉄</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日立</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>東京電力ＨＤ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>アステラス製薬</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp>
+        <v>2525.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>1950.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>3541</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>343.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>728.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>2853</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ab786116886b4c8facdeb9123483c446">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ab786116886b4c8facdeb9123483c446">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ab786116886b4c8facdeb9123483c446">
-      <tp t="s">
-        <v/>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>フジクラ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp>
+        <v>2025</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>村田製作所</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+      <tp>
+        <v>541.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>1935</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>1503</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>812.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp>
+        <v>2766</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>2791</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -521,23 +1754,50 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
+      <tp>
+        <v>220</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
         <stp>前日終値</stp>
-        <tr r="F15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>4065</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
         <stp>前日終値</stp>
-        <tr r="F17" s="1"/>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>456.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>1355.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2671.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
       </tp>
     </main>
   </volType>
@@ -861,11 +2121,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EB8444-48DA-48DA-A81F-4EF7D3D3E7A0}">
-  <dimension ref="A1:F24"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
@@ -875,10 +2136,12 @@
     <col min="3" max="3" width="14.625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="7" max="7" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -897,223 +2160,734 @@
       <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="G1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>_xll.RssMarket($A2, B$1)</f>
-        <v/>
+        <v>ディー・エヌ・エー</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v/>
+        <v>2025/06/20</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v/>
-      </c>
-      <c r="E2" s="8" t="str">
+        <v>15:30:00</v>
+      </c>
+      <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v/>
-      </c>
-      <c r="F2" s="8" t="str">
+        <v>2690</v>
+      </c>
+      <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v/>
+        <v>2791</v>
+      </c>
+      <c r="G2" s="8">
+        <f>_xll.RssMarket($A2, G$1)</f>
+        <v>-101</v>
+      </c>
+      <c r="H2" s="8">
+        <f>_xll.RssMarket($A2, H$1)</f>
+        <v>6117600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f>_xll.RssMarket($A3, B$1)</f>
+        <v>住友化学</v>
+      </c>
+      <c r="C3" s="7" t="str">
+        <f>_xll.RssMarket($A3, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>_xll.RssMarket($A3, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E3" s="8">
+        <f>_xll.RssMarket($A3, E$1)</f>
+        <v>342.4</v>
+      </c>
+      <c r="F3" s="8">
+        <f>_xll.RssMarket($A3, F$1)</f>
+        <v>343.1</v>
+      </c>
+      <c r="G3" s="8">
+        <f>_xll.RssMarket($A3, G$1)</f>
+        <v>-0.7</v>
+      </c>
+      <c r="H3" s="8">
+        <f>_xll.RssMarket($A3, H$1)</f>
+        <v>6660700</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <f>_xll.RssMarket($A4, B$1)</f>
+        <v>アステラス製薬</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f>_xll.RssMarket($A4, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f>_xll.RssMarket($A4, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E4" s="8">
+        <f>_xll.RssMarket($A4, E$1)</f>
+        <v>1351.5</v>
+      </c>
+      <c r="F4" s="8">
+        <f>_xll.RssMarket($A4, F$1)</f>
+        <v>1355.5</v>
+      </c>
+      <c r="G4" s="8">
+        <f>_xll.RssMarket($A4, G$1)</f>
+        <v>-4</v>
+      </c>
+      <c r="H4" s="8">
+        <f>_xll.RssMarket($A4, H$1)</f>
+        <v>7415100</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f>_xll.RssMarket($A5, B$1)</f>
+        <v>ＬＩＮＥヤフー</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <f>_xll.RssMarket($A5, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>_xll.RssMarket($A5, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E5" s="8">
+        <f>_xll.RssMarket($A5, E$1)</f>
+        <v>538.4</v>
+      </c>
+      <c r="F5" s="8">
+        <f>_xll.RssMarket($A5, F$1)</f>
+        <v>541.5</v>
+      </c>
+      <c r="G5" s="8">
+        <f>_xll.RssMarket($A5, G$1)</f>
+        <v>-3.1</v>
+      </c>
+      <c r="H5" s="8">
+        <f>_xll.RssMarket($A5, H$1)</f>
+        <v>30777000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="str">
+        <f>_xll.RssMarket($A6, B$1)</f>
+        <v>楽天グループ</v>
+      </c>
+      <c r="C6" s="7" t="str">
+        <f>_xll.RssMarket($A6, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f>_xll.RssMarket($A6, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E6" s="8">
+        <f>_xll.RssMarket($A6, E$1)</f>
+        <v>806.8</v>
+      </c>
+      <c r="F6" s="8">
+        <f>_xll.RssMarket($A6, F$1)</f>
+        <v>812.6</v>
+      </c>
+      <c r="G6" s="8">
+        <f>_xll.RssMarket($A6, G$1)</f>
+        <v>-5.8</v>
+      </c>
+      <c r="H6" s="8">
+        <f>_xll.RssMarket($A6, H$1)</f>
+        <v>14611500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="B7" s="6" t="str">
+        <f>_xll.RssMarket($A7, B$1)</f>
+        <v>ＥＮＥＯＳホールディングス</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>_xll.RssMarket($A7, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>_xll.RssMarket($A7, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E7" s="8">
+        <f>_xll.RssMarket($A7, E$1)</f>
+        <v>726.4</v>
+      </c>
+      <c r="F7" s="8">
+        <f>_xll.RssMarket($A7, F$1)</f>
+        <v>728.1</v>
+      </c>
+      <c r="G7" s="8">
+        <f>_xll.RssMarket($A7, G$1)</f>
+        <v>-1.7</v>
+      </c>
+      <c r="H7" s="8">
+        <f>_xll.RssMarket($A7, H$1)</f>
+        <v>18166700</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="6" t="str">
+        <f>_xll.RssMarket($A8, B$1)</f>
+        <v>日本製鉄</v>
+      </c>
+      <c r="C8" s="7" t="str">
+        <f>_xll.RssMarket($A8, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f>_xll.RssMarket($A8, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E8" s="8">
+        <f>_xll.RssMarket($A8, E$1)</f>
+        <v>2732.5</v>
+      </c>
+      <c r="F8" s="8">
+        <f>_xll.RssMarket($A8, F$1)</f>
+        <v>2766</v>
+      </c>
+      <c r="G8" s="8">
+        <f>_xll.RssMarket($A8, G$1)</f>
+        <v>-33.5</v>
+      </c>
+      <c r="H8" s="8">
+        <f>_xll.RssMarket($A8, H$1)</f>
+        <v>13118700</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f>_xll.RssMarket($A9, B$1)</f>
+        <v>フジクラ</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f>_xll.RssMarket($A9, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>_xll.RssMarket($A9, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E9" s="8">
+        <f>_xll.RssMarket($A9, E$1)</f>
+        <v>6860</v>
+      </c>
+      <c r="F9" s="8">
+        <f>_xll.RssMarket($A9, F$1)</f>
+        <v>6898</v>
+      </c>
+      <c r="G9" s="8">
+        <f>_xll.RssMarket($A9, G$1)</f>
+        <v>-38</v>
+      </c>
+      <c r="H9" s="8">
+        <f>_xll.RssMarket($A9, H$1)</f>
+        <v>9937400</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f>_xll.RssMarket($A10, B$1)</f>
+        <v>日立</v>
+      </c>
+      <c r="C10" s="7" t="str">
+        <f>_xll.RssMarket($A10, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f>_xll.RssMarket($A10, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E10" s="8">
+        <f>_xll.RssMarket($A10, E$1)</f>
+        <v>3990</v>
+      </c>
+      <c r="F10" s="8">
+        <f>_xll.RssMarket($A10, F$1)</f>
+        <v>4065</v>
+      </c>
+      <c r="G10" s="8">
+        <f>_xll.RssMarket($A10, G$1)</f>
+        <v>-75</v>
+      </c>
+      <c r="H10" s="8">
+        <f>_xll.RssMarket($A10, H$1)</f>
+        <v>13796500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="B11" s="6" t="str">
+        <f>_xll.RssMarket($A11, B$1)</f>
+        <v>ソシオネクスト</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>_xll.RssMarket($A11, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f>_xll.RssMarket($A11, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E11" s="8">
+        <f>_xll.RssMarket($A11, E$1)</f>
+        <v>2683</v>
+      </c>
+      <c r="F11" s="8">
+        <f>_xll.RssMarket($A11, F$1)</f>
+        <v>2671.5</v>
+      </c>
+      <c r="G11" s="8">
+        <f>_xll.RssMarket($A11, G$1)</f>
+        <v>11.5</v>
+      </c>
+      <c r="H11" s="8">
+        <f>_xll.RssMarket($A11, H$1)</f>
+        <v>30735400</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="6" t="str">
+        <f>_xll.RssMarket($A12, B$1)</f>
+        <v>ルネサスエレクトロニクス</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>_xll.RssMarket($A12, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f>_xll.RssMarket($A12, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E12" s="8">
+        <f>_xll.RssMarket($A12, E$1)</f>
+        <v>1932.5</v>
+      </c>
+      <c r="F12" s="8">
+        <f>_xll.RssMarket($A12, F$1)</f>
+        <v>1935</v>
+      </c>
+      <c r="G12" s="8">
+        <f>_xll.RssMarket($A12, G$1)</f>
+        <v>-2.5</v>
+      </c>
+      <c r="H12" s="8">
+        <f>_xll.RssMarket($A12, H$1)</f>
+        <v>13391800</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f>_xll.RssMarket($A13, B$1)</f>
+        <v>パナソニックホールディンク</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f>_xll.RssMarket($A13, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>_xll.RssMarket($A13, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E13" s="8">
+        <f>_xll.RssMarket($A13, E$1)</f>
+        <v>1483</v>
+      </c>
+      <c r="F13" s="8">
+        <f>_xll.RssMarket($A13, F$1)</f>
+        <v>1503</v>
+      </c>
+      <c r="G13" s="8">
+        <f>_xll.RssMarket($A13, G$1)</f>
+        <v>-20</v>
+      </c>
+      <c r="H13" s="8">
+        <f>_xll.RssMarket($A13, H$1)</f>
+        <v>13385500</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f>_xll.RssMarket($A14, B$1)</f>
+        <v>村田製作所</v>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f>_xll.RssMarket($A14, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f>_xll.RssMarket($A14, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E14" s="8">
+        <f>_xll.RssMarket($A14, E$1)</f>
+        <v>2063.5</v>
+      </c>
+      <c r="F14" s="8">
+        <f>_xll.RssMarket($A14, F$1)</f>
+        <v>2081.5</v>
+      </c>
+      <c r="G14" s="8">
+        <f>_xll.RssMarket($A14, G$1)</f>
+        <v>-18</v>
+      </c>
+      <c r="H14" s="8">
+        <f>_xll.RssMarket($A14, H$1)</f>
+        <v>8199600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="B15" s="6" t="str">
         <f>_xll.RssMarket($A15, B$1)</f>
-        <v/>
+        <v>三菱重工業</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.RssMarket($A15, C$1)</f>
-        <v/>
+        <v>2025/06/20</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>_xll.RssMarket($A15, D$1)</f>
-        <v/>
-      </c>
-      <c r="E15" s="8" t="str">
+        <v>15:30:00</v>
+      </c>
+      <c r="E15" s="8">
         <f>_xll.RssMarket($A15, E$1)</f>
-        <v/>
-      </c>
-      <c r="F15" s="8" t="str">
+        <v>3450</v>
+      </c>
+      <c r="F15" s="8">
         <f>_xll.RssMarket($A15, F$1)</f>
-        <v/>
+        <v>3541</v>
+      </c>
+      <c r="G15" s="8">
+        <f>_xll.RssMarket($A15, G$1)</f>
+        <v>-91</v>
+      </c>
+      <c r="H15" s="8">
+        <f>_xll.RssMarket($A15, H$1)</f>
+        <v>31881900</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="str">
+        <f>_xll.RssMarket($A16, B$1)</f>
+        <v>トヨタ自動車</v>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f>_xll.RssMarket($A16, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f>_xll.RssMarket($A16, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E16" s="8">
+        <f>_xll.RssMarket($A16, E$1)</f>
+        <v>2502.5</v>
+      </c>
+      <c r="F16" s="8">
+        <f>_xll.RssMarket($A16, F$1)</f>
+        <v>2525.5</v>
+      </c>
+      <c r="G16" s="8">
+        <f>_xll.RssMarket($A16, G$1)</f>
+        <v>-23</v>
+      </c>
+      <c r="H16" s="8">
+        <f>_xll.RssMarket($A16, H$1)</f>
+        <v>80814500</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="str">
         <f>_xll.RssMarket($A17, B$1)</f>
-        <v/>
+        <v>三菱商事</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.RssMarket($A17, C$1)</f>
-        <v/>
+        <v>2025/06/20</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>_xll.RssMarket($A17, D$1)</f>
-        <v/>
-      </c>
-      <c r="E17" s="8" t="str">
+        <v>15:30:00</v>
+      </c>
+      <c r="E17" s="8">
         <f>_xll.RssMarket($A17, E$1)</f>
-        <v/>
-      </c>
-      <c r="F17" s="8" t="str">
+        <v>2813.5</v>
+      </c>
+      <c r="F17" s="8">
         <f>_xll.RssMarket($A17, F$1)</f>
-        <v/>
+        <v>2853</v>
+      </c>
+      <c r="G17" s="8">
+        <f>_xll.RssMarket($A17, G$1)</f>
+        <v>-39.5</v>
+      </c>
+      <c r="H17" s="8">
+        <f>_xll.RssMarket($A17, H$1)</f>
+        <v>41355800</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B18" s="6" t="str">
+        <f>_xll.RssMarket($A18, B$1)</f>
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f>_xll.RssMarket($A18, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f>_xll.RssMarket($A18, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E18" s="8">
+        <f>_xll.RssMarket($A18, E$1)</f>
+        <v>1957.5</v>
+      </c>
+      <c r="F18" s="8">
+        <f>_xll.RssMarket($A18, F$1)</f>
+        <v>1950.5</v>
+      </c>
+      <c r="G18" s="8">
+        <f>_xll.RssMarket($A18, G$1)</f>
+        <v>7</v>
+      </c>
+      <c r="H18" s="8">
+        <f>_xll.RssMarket($A18, H$1)</f>
+        <v>46602400</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="str">
+        <f>_xll.RssMarket($A19, B$1)</f>
+        <v>三井不動産</v>
+      </c>
+      <c r="C19" s="7" t="str">
+        <f>_xll.RssMarket($A19, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f>_xll.RssMarket($A19, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E19" s="8">
+        <f>_xll.RssMarket($A19, E$1)</f>
+        <v>1389</v>
+      </c>
+      <c r="F19" s="8">
+        <f>_xll.RssMarket($A19, F$1)</f>
+        <v>1391</v>
+      </c>
+      <c r="G19" s="8">
+        <f>_xll.RssMarket($A19, G$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="H19" s="8">
+        <f>_xll.RssMarket($A19, H$1)</f>
+        <v>16325300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="B20" s="6" t="str">
+        <f>_xll.RssMarket($A20, B$1)</f>
+        <v>川崎汽船</v>
+      </c>
+      <c r="C20" s="7" t="str">
+        <f>_xll.RssMarket($A20, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D20" s="7" t="str">
+        <f>_xll.RssMarket($A20, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E20" s="8">
+        <f>_xll.RssMarket($A20, E$1)</f>
+        <v>2023</v>
+      </c>
+      <c r="F20" s="8">
+        <f>_xll.RssMarket($A20, F$1)</f>
+        <v>2025</v>
+      </c>
+      <c r="G20" s="8">
+        <f>_xll.RssMarket($A20, G$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="H20" s="8">
+        <f>_xll.RssMarket($A20, H$1)</f>
+        <v>5254800</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+      <c r="B21" s="6" t="str">
+        <f>_xll.RssMarket($A21, B$1)</f>
+        <v>ソフトバンク</v>
+      </c>
+      <c r="C21" s="7" t="str">
+        <f>_xll.RssMarket($A21, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f>_xll.RssMarket($A21, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E21" s="8">
+        <f>_xll.RssMarket($A21, E$1)</f>
+        <v>217.5</v>
+      </c>
+      <c r="F21" s="8">
+        <f>_xll.RssMarket($A21, F$1)</f>
+        <v>220</v>
+      </c>
+      <c r="G21" s="8">
+        <f>_xll.RssMarket($A21, G$1)</f>
+        <v>-2.5</v>
+      </c>
+      <c r="H21" s="8">
+        <f>_xll.RssMarket($A21, H$1)</f>
+        <v>140423100</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="B22" s="6" t="str">
+        <f>_xll.RssMarket($A22, B$1)</f>
+        <v>東京電力ＨＤ</v>
+      </c>
+      <c r="C22" s="7" t="str">
+        <f>_xll.RssMarket($A22, C$1)</f>
+        <v>2025/06/20</v>
+      </c>
+      <c r="D22" s="7" t="str">
+        <f>_xll.RssMarket($A22, D$1)</f>
+        <v>15:30:00</v>
+      </c>
+      <c r="E22" s="8">
+        <f>_xll.RssMarket($A22, E$1)</f>
+        <v>445.8</v>
+      </c>
+      <c r="F22" s="8">
+        <f>_xll.RssMarket($A22, F$1)</f>
+        <v>456.1</v>
+      </c>
+      <c r="G22" s="8">
+        <f>_xll.RssMarket($A22, G$1)</f>
+        <v>-10.3</v>
+      </c>
+      <c r="H22" s="8">
+        <f>_xll.RssMarket($A22, H$1)</f>
+        <v>71073300</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="G23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="15"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBC36A5-19FB-4448-9188-662528F8C8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E50EB-165C-4C7A-9A2B-9B6B50C10EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="195" windowWidth="15510" windowHeight="16095" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="345" yWindow="630" windowWidth="15090" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -417,9 +417,268 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>-91</v>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp>
+        <v>0.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日比</stp>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>-18.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>13.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日比</stp>
+        <tr r="G20" s="1"/>
+      </tp>
+      <tp>
+        <v>8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G19" s="1"/>
+      </tp>
+      <tp>
+        <v>-15</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G17" s="1"/>
+      </tp>
+      <tp>
+        <v>-17</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G18" s="1"/>
+      </tp>
+      <tp>
+        <v>1</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -428,7 +687,7 @@
         <tr r="G15" s="1"/>
       </tp>
       <tp>
-        <v>-23</v>
+        <v>-13</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -446,7 +705,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>11.5</v>
+        <v>87.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -455,7 +714,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>-75</v>
+        <v>-65</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -464,7 +723,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>-20</v>
+        <v>-14</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -473,7 +732,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>-2.5</v>
+        <v>18</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -481,10 +740,8 @@
         <stp>前日比</stp>
         <tr r="G12" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>-38</v>
+      <tp>
+        <v>-155</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -493,7 +750,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>-33.5</v>
+        <v>-56</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -502,7 +759,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>-1.7</v>
+        <v>-6.3</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -510,10 +767,8 @@
         <stp>前日比</stp>
         <tr r="G7" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>-4</v>
+      <tp>
+        <v>5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -522,7 +777,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>-3.1</v>
+        <v>-12.4</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -531,7 +786,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>-5.8</v>
+        <v>-14.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -540,7 +795,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>-0.7</v>
+        <v>-5.7</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -548,10 +803,8 @@
         <stp>前日比</stp>
         <tr r="G3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>-101</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -559,265 +812,261 @@
         <stp>前日比</stp>
         <tr r="G2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>15:24:57</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>15:24:57</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:57</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>69810.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp>
+        <v>5011200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
+        <stp>出来高</stp>
+        <tr r="H19" s="1"/>
+      </tp>
+      <tp>
+        <v>6726100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp>
+        <v>29875900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>42871500</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>95010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
+        <stp>出来高</stp>
+        <tr r="H22" s="1"/>
+      </tp>
+      <tp>
+        <v>35458100</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>94340.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
+        <stp>出来高</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>2826900</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>91070.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日比</stp>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>-10.3</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-      <tp>
-        <v>-2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日比</stp>
-        <tr r="G20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>-2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G19" s="1"/>
-      </tp>
-      <tp>
-        <v>-39.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G17" s="1"/>
-      </tp>
-      <tp>
-        <v>7</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>6117600</v>
+        <stp>出来高</stp>
+        <tr r="H20" s="1"/>
+      </tp>
+      <tp>
+        <v>3673600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -825,10 +1074,8 @@
         <stp>出来高</stp>
         <tr r="H2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>8199600</v>
+      <tp>
+        <v>4113100</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -837,7 +1084,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>30735400</v>
+        <v>22036100</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -846,7 +1093,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>13796500</v>
+        <v>6609600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -855,7 +1102,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>13391800</v>
+        <v>9936600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -864,7 +1111,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>13385500</v>
+        <v>2856500</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -873,7 +1120,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>31881900</v>
+        <v>49680300</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -882,7 +1129,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>80814500</v>
+        <v>15291800</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -891,7 +1138,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>7415100</v>
+        <v>3071500</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -900,7 +1147,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>14611500</v>
+        <v>13432500</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -909,7 +1156,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>30777000</v>
+        <v>6756800</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -918,7 +1165,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>6660700</v>
+        <v>6714700</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -927,7 +1174,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>9937400</v>
+        <v>10088100</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -936,7 +1183,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>13118700</v>
+        <v>6489300</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -945,7 +1192,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>18166700</v>
+        <v>10123500</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -954,65 +1201,270 @@
         <tr r="H7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>16325300</v>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp>
+        <v>1389</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H19" s="1"/>
-      </tp>
-      <tp>
-        <v>41355800</v>
+        <stp>前日終値</stp>
+        <tr r="F19" s="1"/>
+      </tp>
+      <tp>
+        <v>6860</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>三菱商事</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H17" s="1"/>
-      </tp>
-      <tp>
-        <v>46602400</v>
+        <stp>銘柄名称</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ＥＮＥＯＳホールディングス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>住友化学</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp>
+        <v>2063.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>川崎汽船</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>ＬＩＮＥヤフー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>楽天グループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>パナソニックホールディンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ルネサスエレクトロニクス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp>
+        <v>1397</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E19" s="1"/>
+      </tp>
+      <tp>
+        <v>1940.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H18" s="1"/>
-      </tp>
-      <tp>
-        <v>71073300</v>
+        <stp>現在値</stp>
+        <tr r="E18" s="1"/>
+      </tp>
+      <tp>
+        <v>2798.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>ソフトバンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日本製鉄</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp>
+        <v>2036.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値</stp>
+        <tr r="E20" s="1"/>
+      </tp>
+      <tp>
+        <v>218</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>427</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>95010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H22" s="1"/>
-      </tp>
-      <tp>
-        <v>140423100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>出来高</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>5254800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>出来高</stp>
-        <tr r="H20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>2063.5</v>
+        <stp>現在値</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>東京電力ＨＤ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日立</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>アステラス製薬</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp>
+        <v>2045.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1021,7 +1473,16 @@
         <tr r="E14" s="1"/>
       </tp>
       <tp>
-        <v>1483</v>
+        <v>2502.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F16" s="1"/>
+      </tp>
+      <tp>
+        <v>1469</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1030,7 +1491,7 @@
         <tr r="E13" s="1"/>
       </tp>
       <tp>
-        <v>1932.5</v>
+        <v>1950.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1039,7 +1500,7 @@
         <tr r="E12" s="1"/>
       </tp>
       <tp>
-        <v>2683</v>
+        <v>2770.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1048,7 +1509,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>3990</v>
+        <v>3925</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1057,9 +1518,9 @@
         <tr r="E10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>2502.5</v>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp>
+        <v>2489.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1068,7 +1529,16 @@
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>3450</v>
+        <v>1957.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F18" s="1"/>
+      </tp>
+      <tp>
+        <v>3451</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1076,8 +1546,28 @@
         <stp>現在値</stp>
         <tr r="E15" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
       <tp>
         <v>342.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3450</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>336.7</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1086,7 +1576,16 @@
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>538.4</v>
+        <v>726.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>526</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1095,7 +1594,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>806.8</v>
+        <v>792.3</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1104,7 +1603,16 @@
         <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>1351.5</v>
+        <v>2813.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F17" s="1"/>
+      </tp>
+      <tp>
+        <v>1356.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1112,8 +1620,30 @@
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
       </tp>
-      <tp>
-        <v>6860</v>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>フジクラ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp>
+        <v>6705</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1122,7 +1652,16 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>726.4</v>
+        <v>2023</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F20" s="1"/>
+      </tp>
+      <tp>
+        <v>720.1</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1131,7 +1670,7 @@
         <tr r="E7" s="1"/>
       </tp>
       <tp>
-        <v>2732.5</v>
+        <v>2676.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1139,8 +1678,28 @@
         <stp>現在値</stp>
         <tr r="E8" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
+      <tp t="s">
+        <v>村田製作所</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp>
+        <v>538.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
       <tp>
         <v>2690</v>
         <stp/>
@@ -1151,564 +1710,9 @@
         <tr r="E2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>1389</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E19" s="1"/>
-      </tp>
-      <tp>
-        <v>1957.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E18" s="1"/>
-      </tp>
-      <tp>
-        <v>2813.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E17" s="1"/>
-      </tp>
-      <tp>
-        <v>2023</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値</stp>
-        <tr r="E20" s="1"/>
-      </tp>
-      <tp>
-        <v>217.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>445.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B18" s="1"/>
-      </tp>
-      <tp>
-        <v>1391</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F19" s="1"/>
-      </tp>
-      <tp>
-        <v>6898</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ＥＮＥＯＳホールディングス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>住友化学</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp>
-        <v>2081.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>川崎汽船</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>ＬＩＮＥヤフー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>楽天グループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>パナソニックホールディンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ルネサスエレクトロニクス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソフトバンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日本製鉄</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日立</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>東京電力ＨＤ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>アステラス製薬</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp>
-        <v>2525.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>1950.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>3541</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F15" s="1"/>
-      </tp>
-      <tp>
-        <v>343.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>728.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>2853</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>フジクラ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp>
-        <v>2025</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>村田製作所</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-      <tp>
-        <v>541.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>1935</v>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp>
+        <v>1932.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1717,7 +1721,7 @@
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>1503</v>
+        <v>1483</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1726,7 +1730,7 @@
         <tr r="F13" s="1"/>
       </tp>
       <tp>
-        <v>812.6</v>
+        <v>806.8</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1735,9 +1739,9 @@
         <tr r="F6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.7bc058badca24e7098ab64893053bb04">
-      <tp>
-        <v>2766</v>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp>
+        <v>2732.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1746,7 +1750,7 @@
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>2791</v>
+        <v>2690</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1755,7 +1759,7 @@
         <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>220</v>
+        <v>217.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1763,8 +1767,19 @@
         <stp>前日終値</stp>
         <tr r="F21" s="1"/>
       </tp>
-      <tp>
-        <v>4065</v>
+    </main>
+    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+      <tp>
+        <v>445.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>3990</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1773,16 +1788,7 @@
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>456.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>1355.5</v>
+        <v>1351.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1791,7 +1797,7 @@
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>2671.5</v>
+        <v>2683</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -2177,11 +2183,11 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
@@ -2189,15 +2195,15 @@
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2791</v>
+        <v>2690</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-101</v>
+        <v>0</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>6117600</v>
+        <v>3673600</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -2210,27 +2216,27 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:58</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>342.4</v>
+        <v>336.7</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>343.1</v>
+        <v>342.4</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>-0.7</v>
+        <v>-5.7</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>6660700</v>
+        <v>6714700</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -2243,27 +2249,27 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1351.5</v>
+        <v>1356.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1355.5</v>
+        <v>1351.5</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>7415100</v>
+        <v>3071500</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2276,27 +2282,27 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:57</v>
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>538.4</v>
+        <v>526</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>541.5</v>
+        <v>538.4</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>-3.1</v>
+        <v>-12.4</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>30777000</v>
+        <v>6756800</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2309,27 +2315,27 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>806.8</v>
+        <v>792.3</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>812.6</v>
+        <v>806.8</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>-5.8</v>
+        <v>-14.5</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>14611500</v>
+        <v>13432500</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2342,27 +2348,27 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>726.4</v>
+        <v>720.1</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>728.1</v>
+        <v>726.4</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>-1.7</v>
+        <v>-6.3</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>18166700</v>
+        <v>10123500</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2375,27 +2381,27 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>2732.5</v>
+        <v>2676.5</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>2766</v>
+        <v>2732.5</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>-33.5</v>
+        <v>-56</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>13118700</v>
+        <v>6489300</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2408,27 +2414,27 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>6860</v>
+        <v>6705</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>6898</v>
+        <v>6860</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>-38</v>
+        <v>-155</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>9937400</v>
+        <v>10088100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2441,27 +2447,27 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>3990</v>
+        <v>3925</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>4065</v>
+        <v>3990</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>-75</v>
+        <v>-65</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>13796500</v>
+        <v>6609600</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2474,27 +2480,27 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>2683</v>
+        <v>2770.5</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>2671.5</v>
+        <v>2683</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>11.5</v>
+        <v>87.5</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>30735400</v>
+        <v>22036100</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2507,27 +2513,27 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.RssMarket($A12, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>_xll.RssMarket($A12, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E12" s="8">
         <f>_xll.RssMarket($A12, E$1)</f>
-        <v>1932.5</v>
+        <v>1950.5</v>
       </c>
       <c r="F12" s="8">
         <f>_xll.RssMarket($A12, F$1)</f>
-        <v>1935</v>
+        <v>1932.5</v>
       </c>
       <c r="G12" s="8">
         <f>_xll.RssMarket($A12, G$1)</f>
-        <v>-2.5</v>
+        <v>18</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.RssMarket($A12, H$1)</f>
-        <v>13391800</v>
+        <v>9936600</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2540,27 +2546,27 @@
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.RssMarket($A13, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>_xll.RssMarket($A13, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E13" s="8">
         <f>_xll.RssMarket($A13, E$1)</f>
-        <v>1483</v>
+        <v>1469</v>
       </c>
       <c r="F13" s="8">
         <f>_xll.RssMarket($A13, F$1)</f>
-        <v>1503</v>
+        <v>1483</v>
       </c>
       <c r="G13" s="8">
         <f>_xll.RssMarket($A13, G$1)</f>
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.RssMarket($A13, H$1)</f>
-        <v>13385500</v>
+        <v>2856500</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2573,19 +2579,19 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.RssMarket($A14, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>_xll.RssMarket($A14, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E14" s="8">
         <f>_xll.RssMarket($A14, E$1)</f>
-        <v>2063.5</v>
+        <v>2045.5</v>
       </c>
       <c r="F14" s="8">
         <f>_xll.RssMarket($A14, F$1)</f>
-        <v>2081.5</v>
+        <v>2063.5</v>
       </c>
       <c r="G14" s="8">
         <f>_xll.RssMarket($A14, G$1)</f>
@@ -2593,7 +2599,7 @@
       </c>
       <c r="H14" s="8">
         <f>_xll.RssMarket($A14, H$1)</f>
-        <v>8199600</v>
+        <v>4113100</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2606,27 +2612,27 @@
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.RssMarket($A15, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>_xll.RssMarket($A15, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E15" s="8">
         <f>_xll.RssMarket($A15, E$1)</f>
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="F15" s="8">
         <f>_xll.RssMarket($A15, F$1)</f>
-        <v>3541</v>
+        <v>3450</v>
       </c>
       <c r="G15" s="8">
         <f>_xll.RssMarket($A15, G$1)</f>
-        <v>-91</v>
+        <v>1</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.RssMarket($A15, H$1)</f>
-        <v>31881900</v>
+        <v>49680300</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2639,27 +2645,27 @@
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.RssMarket($A16, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>_xll.RssMarket($A16, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E16" s="8">
         <f>_xll.RssMarket($A16, E$1)</f>
-        <v>2502.5</v>
+        <v>2489.5</v>
       </c>
       <c r="F16" s="8">
         <f>_xll.RssMarket($A16, F$1)</f>
-        <v>2525.5</v>
+        <v>2502.5</v>
       </c>
       <c r="G16" s="8">
         <f>_xll.RssMarket($A16, G$1)</f>
-        <v>-23</v>
+        <v>-13</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.RssMarket($A16, H$1)</f>
-        <v>80814500</v>
+        <v>15291800</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2672,27 +2678,27 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.RssMarket($A17, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>_xll.RssMarket($A17, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E17" s="8">
         <f>_xll.RssMarket($A17, E$1)</f>
-        <v>2813.5</v>
+        <v>2798.5</v>
       </c>
       <c r="F17" s="8">
         <f>_xll.RssMarket($A17, F$1)</f>
-        <v>2853</v>
+        <v>2813.5</v>
       </c>
       <c r="G17" s="8">
         <f>_xll.RssMarket($A17, G$1)</f>
-        <v>-39.5</v>
+        <v>-15</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.RssMarket($A17, H$1)</f>
-        <v>41355800</v>
+        <v>6726100</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2705,27 +2711,27 @@
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.RssMarket($A18, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>_xll.RssMarket($A18, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E18" s="8">
         <f>_xll.RssMarket($A18, E$1)</f>
-        <v>1957.5</v>
+        <v>1940.5</v>
       </c>
       <c r="F18" s="8">
         <f>_xll.RssMarket($A18, F$1)</f>
-        <v>1950.5</v>
+        <v>1957.5</v>
       </c>
       <c r="G18" s="8">
         <f>_xll.RssMarket($A18, G$1)</f>
-        <v>7</v>
+        <v>-17</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.RssMarket($A18, H$1)</f>
-        <v>46602400</v>
+        <v>29875900</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2738,27 +2744,27 @@
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.RssMarket($A19, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>_xll.RssMarket($A19, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:57</v>
       </c>
       <c r="E19" s="8">
         <f>_xll.RssMarket($A19, E$1)</f>
-        <v>1389</v>
+        <v>1397</v>
       </c>
       <c r="F19" s="8">
         <f>_xll.RssMarket($A19, F$1)</f>
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="G19" s="8">
         <f>_xll.RssMarket($A19, G$1)</f>
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.RssMarket($A19, H$1)</f>
-        <v>16325300</v>
+        <v>5011200</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2771,27 +2777,27 @@
       </c>
       <c r="C20" s="7" t="str">
         <f>_xll.RssMarket($A20, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>_xll.RssMarket($A20, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:57</v>
       </c>
       <c r="E20" s="8">
         <f>_xll.RssMarket($A20, E$1)</f>
-        <v>2023</v>
+        <v>2036.5</v>
       </c>
       <c r="F20" s="8">
         <f>_xll.RssMarket($A20, F$1)</f>
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="G20" s="8">
         <f>_xll.RssMarket($A20, G$1)</f>
-        <v>-2</v>
+        <v>13.5</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.RssMarket($A20, H$1)</f>
-        <v>5254800</v>
+        <v>2826900</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2804,27 +2810,27 @@
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.RssMarket($A21, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>_xll.RssMarket($A21, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E21" s="8">
         <f>_xll.RssMarket($A21, E$1)</f>
-        <v>217.5</v>
+        <v>218</v>
       </c>
       <c r="F21" s="8">
         <f>_xll.RssMarket($A21, F$1)</f>
-        <v>220</v>
+        <v>217.5</v>
       </c>
       <c r="G21" s="8">
         <f>_xll.RssMarket($A21, G$1)</f>
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.RssMarket($A21, H$1)</f>
-        <v>140423100</v>
+        <v>35458100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2837,27 +2843,27 @@
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.RssMarket($A22, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>_xll.RssMarket($A22, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E22" s="8">
         <f>_xll.RssMarket($A22, E$1)</f>
-        <v>445.8</v>
+        <v>427</v>
       </c>
       <c r="F22" s="8">
         <f>_xll.RssMarket($A22, F$1)</f>
-        <v>456.1</v>
+        <v>445.8</v>
       </c>
       <c r="G22" s="8">
         <f>_xll.RssMarket($A22, G$1)</f>
-        <v>-10.3</v>
+        <v>-18.8</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.RssMarket($A22, H$1)</f>
-        <v>71073300</v>
+        <v>42871500</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E50EB-165C-4C7A-9A2B-9B6B50C10EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD478E42-7758-4967-A8B8-230992ADC5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="630" windowWidth="15090" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="13710" yWindow="180" windowWidth="15090" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -417,9 +417,206 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>2025/06/23</v>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp>
+        <v>28</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+      <tp>
+        <v>377</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>-16.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>3.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>29.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>-5.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>-4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G15" s="1"/>
+      </tp>
+      <tp>
+        <v>-18</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp>
+        <v>15.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日比</stp>
+        <tr r="G14" s="1"/>
+      </tp>
+      <tp>
+        <v>-45.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>-25</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日比</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日比</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp>
+        <v>-30.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日比</stp>
+        <tr r="G20" s="1"/>
+      </tp>
+      <tp>
+        <v>2.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日比</stp>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>16.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp>
+        <v>-11</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G19" s="1"/>
+      </tp>
+      <tp>
+        <v>-17</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G17" s="1"/>
+      </tp>
+      <tp>
+        <v>26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -428,7 +625,7 @@
         <tr r="C14" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -437,7 +634,7 @@
         <tr r="C19" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -446,9 +643,98 @@
         <tr r="C9" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>2025/06/23</v>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>2025/06/24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>2025/06/24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>2025/06/24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>2025/06/24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>2025/06/24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -457,27 +743,7 @@
         <tr r="C12" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/23</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/23</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -485,8 +751,19 @@
         <stp>現在日付</stp>
         <tr r="C5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/06/23</v>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>2025/06/24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -495,16 +772,7 @@
         <tr r="C22" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/23</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -513,7 +781,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -521,10 +789,8 @@
         <stp>現在日付</stp>
         <tr r="C11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>2025/06/23</v>
+      <tp t="s">
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -533,7 +799,7 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -542,7 +808,7 @@
         <tr r="C21" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -550,272 +816,925 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
+      <tp>
+        <v>5430500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>3780400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>9616800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>9713300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>18582700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>9227500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>4218200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>4375200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>出来高</stp>
+        <tr r="H14" s="1"/>
+      </tp>
+      <tp>
+        <v>27347000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>5813700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>4636400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>出来高</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>8652700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>出来高</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>33047900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H15" s="1"/>
+      </tp>
+      <tp>
+        <v>15889800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp>
+        <v>2574100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+      <tp>
+        <v>3404000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H19" s="1"/>
+      </tp>
+      <tp>
+        <v>5440600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp>
+        <v>24261500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>5579100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>出来高</stp>
+        <tr r="H20" s="1"/>
+      </tp>
+      <tp>
+        <v>50490200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H22" s="1"/>
+      </tp>
+      <tp>
+        <v>40497600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>出来高</stp>
+        <tr r="H21" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>2025/06/23</v>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>ＬＩＮＥヤフー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>ルネサスエレクトロニクス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>楽天グループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>パナソニックホールディンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソフトバンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日本製鉄</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp>
+        <v>2713</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日立</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>東京電力ＨＤ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>アステラス製薬</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+      <tp>
+        <v>519.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>791.7</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>1388</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>340.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C18" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B18" s="1"/>
+      </tp>
+      <tp>
+        <v>7090</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>2699</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>704.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ＥＮＥＯＳホールディングス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>住友化学</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+      <tp>
+        <v>2066</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値</stp>
+        <tr r="E14" s="1"/>
+      </tp>
+      <tp>
+        <v>1930</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値</stp>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>1492</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値</stp>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>2732.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>3983</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>1397</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F19" s="1"/>
+      </tp>
+      <tp>
+        <v>6713</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>川崎汽船</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B20" s="1"/>
+      </tp>
+      <tp>
+        <v>2050.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F14" s="1"/>
+      </tp>
+      <tp>
+        <v>2475.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E16" s="1"/>
+      </tp>
+      <tp>
+        <v>3440</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E15" s="1"/>
+      </tp>
+      <tp>
+        <v>524.9</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp>
+        <v>1386</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E19" s="1"/>
+      </tp>
+      <tp>
+        <v>1965.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E18" s="1"/>
+      </tp>
+      <tp>
+        <v>2791</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E17" s="1"/>
+      </tp>
+      <tp>
+        <v>1473</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>791.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp>
+        <v>220.3</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>443.7</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>1955</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>2008.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値</stp>
+        <tr r="E20" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>2025/06/23</v>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp>
+        <v>2673</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>2685</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>217.7</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>3925</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>427.2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>1358.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2778</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp>
+        <v>2493.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C16" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F16" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>2025/06/23</v>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp>
+        <v>1939.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>フジクラ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp>
+        <v>2808</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F17" s="1"/>
+      </tp>
+      <tp>
+        <v>336.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3444</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>721</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>村田製作所</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+      <tp>
+        <v>2039</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>91070.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C20" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F20" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>2025/06/23</v>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/23</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:57</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>40050.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/23</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>50200.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/23</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C17" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp>
-        <v>0.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日比</stp>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>-18.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-      <tp>
-        <v>13.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日比</stp>
-        <tr r="G20" s="1"/>
-      </tp>
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G19" s="1"/>
-      </tp>
-      <tp>
-        <v>-15</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G17" s="1"/>
-      </tp>
-      <tp>
-        <v>-17</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G18" s="1"/>
-      </tp>
-      <tp>
-        <v>1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G15" s="1"/>
-      </tp>
-      <tp>
-        <v>-13</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G16" s="1"/>
-      </tp>
-      <tp>
-        <v>-18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日比</stp>
-        <tr r="G14" s="1"/>
-      </tp>
-      <tp>
-        <v>87.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>-65</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>-14</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日比</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日比</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>-155</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp>
-        <v>-56</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>-6.3</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>-12.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>-14.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>-5.7</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24320.T</stp>
-        <stp>前日比</stp>
-        <tr r="G2" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>15:24:57</v>
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -842,7 +1761,25 @@
         <tr r="D17" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
+    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D22" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:24:57</v>
         <stp/>
@@ -851,959 +1788,6 @@
         <stp>91070.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:57</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-      <tp>
-        <v>5011200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H19" s="1"/>
-      </tp>
-      <tp>
-        <v>6726100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H17" s="1"/>
-      </tp>
-      <tp>
-        <v>29875900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H18" s="1"/>
-      </tp>
-      <tp>
-        <v>42871500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H22" s="1"/>
-      </tp>
-      <tp>
-        <v>35458100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>出来高</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>2826900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>出来高</stp>
-        <tr r="H20" s="1"/>
-      </tp>
-      <tp>
-        <v>3673600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-      <tp>
-        <v>4113100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>出来高</stp>
-        <tr r="H14" s="1"/>
-      </tp>
-      <tp>
-        <v>22036100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>6609600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>9936600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>出来高</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>2856500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>出来高</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>49680300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H15" s="1"/>
-      </tp>
-      <tp>
-        <v>15291800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H16" s="1"/>
-      </tp>
-      <tp>
-        <v>3071500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>13432500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>6756800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>6714700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>出来高</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>10088100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>6489300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>10123500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp>
-        <v>1389</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F19" s="1"/>
-      </tp>
-      <tp>
-        <v>6860</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ＥＮＥＯＳホールディングス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>住友化学</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp>
-        <v>2063.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>川崎汽船</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>ＬＩＮＥヤフー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>楽天グループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>パナソニックホールディンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ルネサスエレクトロニクス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp>
-        <v>1397</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E19" s="1"/>
-      </tp>
-      <tp>
-        <v>1940.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E18" s="1"/>
-      </tp>
-      <tp>
-        <v>2798.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>ソフトバンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日本製鉄</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp>
-        <v>2036.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値</stp>
-        <tr r="E20" s="1"/>
-      </tp>
-      <tp>
-        <v>218</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>427</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>東京電力ＨＤ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日立</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>アステラス製薬</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp>
-        <v>2045.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-      <tp>
-        <v>2502.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F16" s="1"/>
-      </tp>
-      <tp>
-        <v>1469</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-      <tp>
-        <v>1950.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>2770.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>3925</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp>
-        <v>2489.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E16" s="1"/>
-      </tp>
-      <tp>
-        <v>1957.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F18" s="1"/>
-      </tp>
-      <tp>
-        <v>3451</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp>
-        <v>342.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3450</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F15" s="1"/>
-      </tp>
-      <tp>
-        <v>336.7</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>726.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>526</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>792.3</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>2813.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F17" s="1"/>
-      </tp>
-      <tp>
-        <v>1356.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>フジクラ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp>
-        <v>6705</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>2023</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F20" s="1"/>
-      </tp>
-      <tp>
-        <v>720.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>2676.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>村田製作所</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp>
-        <v>538.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp>
-        <v>2690</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp>
-        <v>1932.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>1483</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F13" s="1"/>
-      </tp>
-      <tp>
-        <v>806.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp>
-        <v>2732.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp>
-        <v>2690</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>217.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ffd5f279668c43388370dff6d87267e4">
-      <tp>
-        <v>445.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>3990</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>1351.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2683</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2183,7 +2167,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -2191,19 +2175,19 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2690</v>
+        <v>2713</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2690</v>
+        <v>2685</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>3673600</v>
+        <v>2574100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -2216,27 +2200,27 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>336.7</v>
+        <v>340.6</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>342.4</v>
+        <v>336.8</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>-5.7</v>
+        <v>3.8</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>6714700</v>
+        <v>5430500</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -2249,27 +2233,27 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:57</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1356.5</v>
+        <v>1388</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1351.5</v>
+        <v>1358.5</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>5</v>
+        <v>29.5</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>3071500</v>
+        <v>3780400</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2282,27 +2266,27 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
-        <v>15:24:57</v>
+        <v>15:24:58</v>
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>526</v>
+        <v>519.1</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>538.4</v>
+        <v>524.9</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>-12.4</v>
+        <v>-5.8</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>6756800</v>
+        <v>9713300</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2315,7 +2299,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
@@ -2323,19 +2307,19 @@
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>792.3</v>
+        <v>791.7</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>806.8</v>
+        <v>791.5</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>-14.5</v>
+        <v>0.2</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>13432500</v>
+        <v>9616800</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2348,7 +2332,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -2356,19 +2340,19 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>720.1</v>
+        <v>704.5</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>726.4</v>
+        <v>721</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>-6.3</v>
+        <v>-16.5</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>10123500</v>
+        <v>9227500</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2381,7 +2365,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
@@ -2389,19 +2373,19 @@
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>2676.5</v>
+        <v>2699</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>2732.5</v>
+        <v>2673</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>-56</v>
+        <v>26</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>6489300</v>
+        <v>4218200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2414,27 +2398,27 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>6705</v>
+        <v>7090</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>6860</v>
+        <v>6713</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>-155</v>
+        <v>377</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>10088100</v>
+        <v>18582700</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2447,7 +2431,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
@@ -2455,19 +2439,19 @@
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>3925</v>
+        <v>3983</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>3990</v>
+        <v>3925</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>-65</v>
+        <v>58</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>6609600</v>
+        <v>5813700</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2480,7 +2464,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
@@ -2488,19 +2472,19 @@
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>2770.5</v>
+        <v>2732.5</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>2683</v>
+        <v>2778</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>87.5</v>
+        <v>-45.5</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>22036100</v>
+        <v>27347000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2513,7 +2497,7 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.RssMarket($A12, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>_xll.RssMarket($A12, D$1)</f>
@@ -2521,19 +2505,19 @@
       </c>
       <c r="E12" s="8">
         <f>_xll.RssMarket($A12, E$1)</f>
-        <v>1950.5</v>
+        <v>1930</v>
       </c>
       <c r="F12" s="8">
         <f>_xll.RssMarket($A12, F$1)</f>
-        <v>1932.5</v>
+        <v>1955</v>
       </c>
       <c r="G12" s="8">
         <f>_xll.RssMarket($A12, G$1)</f>
-        <v>18</v>
+        <v>-25</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.RssMarket($A12, H$1)</f>
-        <v>9936600</v>
+        <v>8652700</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2546,7 +2530,7 @@
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.RssMarket($A13, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>_xll.RssMarket($A13, D$1)</f>
@@ -2554,19 +2538,19 @@
       </c>
       <c r="E13" s="8">
         <f>_xll.RssMarket($A13, E$1)</f>
-        <v>1469</v>
+        <v>1492</v>
       </c>
       <c r="F13" s="8">
         <f>_xll.RssMarket($A13, F$1)</f>
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="G13" s="8">
         <f>_xll.RssMarket($A13, G$1)</f>
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.RssMarket($A13, H$1)</f>
-        <v>2856500</v>
+        <v>4636400</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2579,7 +2563,7 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.RssMarket($A14, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>_xll.RssMarket($A14, D$1)</f>
@@ -2587,19 +2571,19 @@
       </c>
       <c r="E14" s="8">
         <f>_xll.RssMarket($A14, E$1)</f>
-        <v>2045.5</v>
+        <v>2066</v>
       </c>
       <c r="F14" s="8">
         <f>_xll.RssMarket($A14, F$1)</f>
-        <v>2063.5</v>
+        <v>2050.5</v>
       </c>
       <c r="G14" s="8">
         <f>_xll.RssMarket($A14, G$1)</f>
-        <v>-18</v>
+        <v>15.5</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.RssMarket($A14, H$1)</f>
-        <v>4113100</v>
+        <v>4375200</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2612,7 +2596,7 @@
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.RssMarket($A15, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>_xll.RssMarket($A15, D$1)</f>
@@ -2620,19 +2604,19 @@
       </c>
       <c r="E15" s="8">
         <f>_xll.RssMarket($A15, E$1)</f>
-        <v>3451</v>
+        <v>3440</v>
       </c>
       <c r="F15" s="8">
         <f>_xll.RssMarket($A15, F$1)</f>
-        <v>3450</v>
+        <v>3444</v>
       </c>
       <c r="G15" s="8">
         <f>_xll.RssMarket($A15, G$1)</f>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.RssMarket($A15, H$1)</f>
-        <v>49680300</v>
+        <v>33047900</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2645,7 +2629,7 @@
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.RssMarket($A16, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>_xll.RssMarket($A16, D$1)</f>
@@ -2653,19 +2637,19 @@
       </c>
       <c r="E16" s="8">
         <f>_xll.RssMarket($A16, E$1)</f>
-        <v>2489.5</v>
+        <v>2475.5</v>
       </c>
       <c r="F16" s="8">
         <f>_xll.RssMarket($A16, F$1)</f>
-        <v>2502.5</v>
+        <v>2493.5</v>
       </c>
       <c r="G16" s="8">
         <f>_xll.RssMarket($A16, G$1)</f>
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.RssMarket($A16, H$1)</f>
-        <v>15291800</v>
+        <v>15889800</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2678,7 +2662,7 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.RssMarket($A17, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>_xll.RssMarket($A17, D$1)</f>
@@ -2686,19 +2670,19 @@
       </c>
       <c r="E17" s="8">
         <f>_xll.RssMarket($A17, E$1)</f>
-        <v>2798.5</v>
+        <v>2791</v>
       </c>
       <c r="F17" s="8">
         <f>_xll.RssMarket($A17, F$1)</f>
-        <v>2813.5</v>
+        <v>2808</v>
       </c>
       <c r="G17" s="8">
         <f>_xll.RssMarket($A17, G$1)</f>
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.RssMarket($A17, H$1)</f>
-        <v>6726100</v>
+        <v>5440600</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2711,7 +2695,7 @@
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.RssMarket($A18, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>_xll.RssMarket($A18, D$1)</f>
@@ -2719,19 +2703,19 @@
       </c>
       <c r="E18" s="8">
         <f>_xll.RssMarket($A18, E$1)</f>
-        <v>1940.5</v>
+        <v>1965.5</v>
       </c>
       <c r="F18" s="8">
         <f>_xll.RssMarket($A18, F$1)</f>
-        <v>1957.5</v>
+        <v>1939.5</v>
       </c>
       <c r="G18" s="8">
         <f>_xll.RssMarket($A18, G$1)</f>
-        <v>-17</v>
+        <v>26</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.RssMarket($A18, H$1)</f>
-        <v>29875900</v>
+        <v>24261500</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2744,27 +2728,27 @@
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.RssMarket($A19, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>_xll.RssMarket($A19, D$1)</f>
-        <v>15:24:57</v>
+        <v>15:24:58</v>
       </c>
       <c r="E19" s="8">
         <f>_xll.RssMarket($A19, E$1)</f>
-        <v>1397</v>
+        <v>1386</v>
       </c>
       <c r="F19" s="8">
         <f>_xll.RssMarket($A19, F$1)</f>
-        <v>1389</v>
+        <v>1397</v>
       </c>
       <c r="G19" s="8">
         <f>_xll.RssMarket($A19, G$1)</f>
-        <v>8</v>
+        <v>-11</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.RssMarket($A19, H$1)</f>
-        <v>5011200</v>
+        <v>3404000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2777,7 +2761,7 @@
       </c>
       <c r="C20" s="7" t="str">
         <f>_xll.RssMarket($A20, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>_xll.RssMarket($A20, D$1)</f>
@@ -2785,19 +2769,19 @@
       </c>
       <c r="E20" s="8">
         <f>_xll.RssMarket($A20, E$1)</f>
-        <v>2036.5</v>
+        <v>2008.5</v>
       </c>
       <c r="F20" s="8">
         <f>_xll.RssMarket($A20, F$1)</f>
-        <v>2023</v>
+        <v>2039</v>
       </c>
       <c r="G20" s="8">
         <f>_xll.RssMarket($A20, G$1)</f>
-        <v>13.5</v>
+        <v>-30.5</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.RssMarket($A20, H$1)</f>
-        <v>2826900</v>
+        <v>5579100</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2810,7 +2794,7 @@
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.RssMarket($A21, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>_xll.RssMarket($A21, D$1)</f>
@@ -2818,19 +2802,19 @@
       </c>
       <c r="E21" s="8">
         <f>_xll.RssMarket($A21, E$1)</f>
-        <v>218</v>
+        <v>220.3</v>
       </c>
       <c r="F21" s="8">
         <f>_xll.RssMarket($A21, F$1)</f>
-        <v>217.5</v>
+        <v>217.7</v>
       </c>
       <c r="G21" s="8">
         <f>_xll.RssMarket($A21, G$1)</f>
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.RssMarket($A21, H$1)</f>
-        <v>35458100</v>
+        <v>40497600</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2843,7 +2827,7 @@
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.RssMarket($A22, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>_xll.RssMarket($A22, D$1)</f>
@@ -2851,19 +2835,19 @@
       </c>
       <c r="E22" s="8">
         <f>_xll.RssMarket($A22, E$1)</f>
-        <v>427</v>
+        <v>443.7</v>
       </c>
       <c r="F22" s="8">
         <f>_xll.RssMarket($A22, F$1)</f>
-        <v>445.8</v>
+        <v>427.2</v>
       </c>
       <c r="G22" s="8">
         <f>_xll.RssMarket($A22, G$1)</f>
-        <v>-18.8</v>
+        <v>16.5</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.RssMarket($A22, H$1)</f>
-        <v>42871500</v>
+        <v>50490200</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD478E42-7758-4967-A8B8-230992ADC5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F21A562-5441-4E96-BDA6-C5A7BE2501DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13710" yWindow="180" windowWidth="15090" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -417,9 +417,225 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp>
-        <v>28</v>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp>
+        <v>83</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G17" s="1"/>
+      </tp>
+      <tp>
+        <v>11.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G18" s="1"/>
+      </tp>
+      <tp>
+        <v>6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp>
+        <v>15.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日比</stp>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>18.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日比</stp>
+        <tr r="G20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+      <tp>
+        <v>-21.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -428,7 +644,61 @@
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>377</v>
+        <v>2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>7.7</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>1.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>2.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>-5.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>10.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>258</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -436,62 +706,80 @@
         <stp>前日比</stp>
         <tr r="G9" s="1"/>
       </tp>
-      <tp>
-        <v>-16.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp>
+        <v>48</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
         <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>37</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
         <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>3.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>-9.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
         <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>29.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>-236</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
         <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>-5.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
         <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>-4</v>
+        <tr r="G14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+      <tp>
+        <v>113</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -500,7 +788,7 @@
         <tr r="G15" s="1"/>
       </tp>
       <tp>
-        <v>-18</v>
+        <v>-4</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -509,315 +797,117 @@
         <tr r="G16" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp>
-        <v>15.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日比</stp>
-        <tr r="G14" s="1"/>
-      </tp>
-      <tp>
-        <v>-45.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>-25</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日比</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>19</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日比</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp>
-        <v>-30.5</v>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp>
+        <v>90073300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>出来高</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>50991800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H22" s="1"/>
+      </tp>
+      <tp>
+        <v>4581500</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>91070.T</stp>
-        <stp>前日比</stp>
-        <tr r="G20" s="1"/>
-      </tp>
-      <tp>
-        <v>2.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日比</stp>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>16.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp>
-        <v>-11</v>
+        <stp>出来高</stp>
+        <tr r="H20" s="1"/>
+      </tp>
+      <tp>
+        <v>11257600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp>
+        <v>30161700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>6053500</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G19" s="1"/>
-      </tp>
-      <tp>
-        <v>-17</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G17" s="1"/>
-      </tp>
-      <tp>
-        <v>26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
+        <stp>出来高</stp>
+        <tr r="H19" s="1"/>
+      </tp>
+      <tp>
+        <v>6535500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>9923600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>17765600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>58030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>2025/06/24</v>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>3986000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>10960900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>12933400</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>47550.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp>
-        <v>5430500</v>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>5852400</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -826,61 +916,61 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>3780400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
+        <v>38876600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
         <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>9616800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
+        <tr r="H15" s="1"/>
+      </tp>
+      <tp>
+        <v>27545800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
         <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>9713300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp>
+        <v>23658600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
         <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>18582700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>11924200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
         <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>9227500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>49840800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
         <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>4218200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>6626300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
         <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>4375200</v>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>6121400</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -889,61 +979,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>27347000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>5813700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>4636400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>出来高</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>8652700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>出来高</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>33047900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H15" s="1"/>
-      </tp>
-      <tp>
-        <v>15889800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H16" s="1"/>
-      </tp>
-      <tp>
-        <v>2574100</v>
+        <v>2945600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -952,61 +988,715 @@
         <tr r="H2" s="1"/>
       </tp>
       <tp>
-        <v>3404000</v>
+        <v>2037</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値</stp>
+        <tr r="E20" s="1"/>
+      </tp>
+      <tp>
+        <v>443</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>216.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp>
+        <v>1976.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E18" s="1"/>
+      </tp>
+      <tp>
+        <v>2854</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp>
+        <v>1380</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H19" s="1"/>
-      </tp>
-      <tp>
-        <v>5440600</v>
+        <stp>現在値</stp>
+        <tr r="E19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp>
+        <v>2697</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp>
+        <v>712.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>2692.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>7445</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp>
+        <v>341.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>785.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>515.20000000000005</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>1385</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp>
+        <v>2456.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E16" s="1"/>
+      </tp>
+      <tp>
+        <v>3548</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp>
+        <v>1503</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値</stp>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>1735.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値</stp>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>2795.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>4095</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>2118</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値</stp>
+        <tr r="E14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp>
+        <v>1965</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp>
+        <v>2460.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp>
+        <v>2018.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>村田製作所</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+      <tp>
+        <v>3435</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>338.9</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>701.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>2771</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H17" s="1"/>
-      </tp>
-      <tp>
-        <v>24261500</v>
+        <stp>前日終値</stp>
+        <tr r="F17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>フジクラ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp>
+        <v>1971.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>777.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp>
+        <v>1512.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>513.79999999999995</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp>
+        <v>427.2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>4058</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>1383</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2747.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D21" s="1"/>
+      </tp>
+      <tp>
+        <v>2698</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>216.7</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>2718.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H18" s="1"/>
-      </tp>
-      <tp>
-        <v>5579100</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+      <tp>
+        <v>2094</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>川崎汽船</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>91070.T</stp>
-        <stp>出来高</stp>
-        <tr r="H20" s="1"/>
-      </tp>
-      <tp>
-        <v>50490200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H22" s="1"/>
-      </tp>
-      <tp>
-        <v>40497600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>出来高</stp>
-        <tr r="H21" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B20" s="1"/>
+      </tp>
+      <tp>
+        <v>1374</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F19" s="1"/>
+      </tp>
+      <tp>
+        <v>7187</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ＥＮＥＯＳホールディングス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>住友化学</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp t="s">
+        <v>パナソニックホールディンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>楽天グループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ルネサスエレクトロニクス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
       <tp t="s">
         <v>ＬＩＮＥヤフー</v>
         <stp/>
@@ -1017,33 +1707,53 @@
         <tr r="B5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>ルネサスエレクトロニクス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>楽天グループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>東京電力ＨＤ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>パナソニックホールディンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日立</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B13" s="1"/>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>アステラス製薬</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
       </tp>
       <tp t="s">
         <v>ソフトバンク</v>
@@ -1055,15 +1765,6 @@
         <tr r="B21" s="1"/>
       </tp>
       <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
         <v>日本製鉄</v>
         <stp/>
         <stp>Market</stp>
@@ -1071,723 +1772,6 @@
         <stp>54010.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B8" s="1"/>
-      </tp>
-      <tp>
-        <v>2713</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日立</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>東京電力ＨＤ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>アステラス製薬</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B16" s="1"/>
-      </tp>
-      <tp>
-        <v>519.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>791.7</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>1388</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>340.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B18" s="1"/>
-      </tp>
-      <tp>
-        <v>7090</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>2699</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>704.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ＥＮＥＯＳホールディングス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>住友化学</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B17" s="1"/>
-      </tp>
-      <tp>
-        <v>2066</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-      <tp>
-        <v>1930</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>1492</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-      <tp>
-        <v>2732.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>3983</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>1397</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F19" s="1"/>
-      </tp>
-      <tp>
-        <v>6713</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>川崎汽船</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B20" s="1"/>
-      </tp>
-      <tp>
-        <v>2050.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F14" s="1"/>
-      </tp>
-      <tp>
-        <v>2475.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E16" s="1"/>
-      </tp>
-      <tp>
-        <v>3440</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E15" s="1"/>
-      </tp>
-      <tp>
-        <v>524.9</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp>
-        <v>1386</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E19" s="1"/>
-      </tp>
-      <tp>
-        <v>1965.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E18" s="1"/>
-      </tp>
-      <tp>
-        <v>2791</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E17" s="1"/>
-      </tp>
-      <tp>
-        <v>1473</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F13" s="1"/>
-      </tp>
-      <tp>
-        <v>791.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp>
-        <v>220.3</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>443.7</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>1955</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>2008.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値</stp>
-        <tr r="E20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp>
-        <v>2673</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp>
-        <v>2685</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>217.7</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>3925</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>427.2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>1358.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2778</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp>
-        <v>2493.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp>
-        <v>1939.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>フジクラ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp>
-        <v>2808</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F17" s="1"/>
-      </tp>
-      <tp>
-        <v>336.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3444</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F15" s="1"/>
-      </tp>
-      <tp>
-        <v>721</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>村田製作所</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-      <tp>
-        <v>2039</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:57</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a31dcc70a7204c07bc75ad7b8d744809">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:57</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D20" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2116,7 +2100,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
@@ -2167,27 +2151,27 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2713</v>
+        <v>2697</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2685</v>
+        <v>2718.5</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>28</v>
+        <v>-21.5</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>2574100</v>
+        <v>2945600</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -2200,27 +2184,27 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>340.6</v>
+        <v>341.4</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>336.8</v>
+        <v>338.9</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>5430500</v>
+        <v>5852400</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -2233,27 +2217,27 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:57</v>
+        <v>15:30:00</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1358.5</v>
+        <v>1383</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>29.5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>3780400</v>
+        <v>3986000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2266,27 +2250,27 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:30:00</v>
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>519.1</v>
+        <v>515.20000000000005</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>524.9</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>-5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>9713300</v>
+        <v>10960900</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2299,27 +2283,27 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>791.7</v>
+        <v>785.5</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>791.5</v>
+        <v>777.8</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>0.2</v>
+        <v>7.7</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>9616800</v>
+        <v>12933400</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2332,27 +2316,27 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>704.5</v>
+        <v>712.1</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>721</v>
+        <v>701.5</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>-16.5</v>
+        <v>10.6</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>9227500</v>
+        <v>9923600</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2365,27 +2349,27 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>2699</v>
+        <v>2692.5</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>2673</v>
+        <v>2698</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>26</v>
+        <v>-5.5</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>4218200</v>
+        <v>6535500</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2398,27 +2382,27 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:30:00</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>7090</v>
+        <v>7445</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>6713</v>
+        <v>7187</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>377</v>
+        <v>258</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>18582700</v>
+        <v>17765600</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2431,27 +2415,27 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>3983</v>
+        <v>4095</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>3925</v>
+        <v>4058</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>5813700</v>
+        <v>11924200</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2464,27 +2448,27 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>2732.5</v>
+        <v>2795.5</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>2778</v>
+        <v>2747.5</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>-45.5</v>
+        <v>48</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>27347000</v>
+        <v>23658600</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2497,27 +2481,27 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.RssMarket($A12, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>_xll.RssMarket($A12, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E12" s="8">
         <f>_xll.RssMarket($A12, E$1)</f>
-        <v>1930</v>
+        <v>1735.5</v>
       </c>
       <c r="F12" s="8">
         <f>_xll.RssMarket($A12, F$1)</f>
-        <v>1955</v>
+        <v>1971.5</v>
       </c>
       <c r="G12" s="8">
         <f>_xll.RssMarket($A12, G$1)</f>
-        <v>-25</v>
+        <v>-236</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.RssMarket($A12, H$1)</f>
-        <v>8652700</v>
+        <v>49840800</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2530,27 +2514,27 @@
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.RssMarket($A13, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>_xll.RssMarket($A13, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E13" s="8">
         <f>_xll.RssMarket($A13, E$1)</f>
-        <v>1492</v>
+        <v>1503</v>
       </c>
       <c r="F13" s="8">
         <f>_xll.RssMarket($A13, F$1)</f>
-        <v>1473</v>
+        <v>1512.5</v>
       </c>
       <c r="G13" s="8">
         <f>_xll.RssMarket($A13, G$1)</f>
-        <v>19</v>
+        <v>-9.5</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.RssMarket($A13, H$1)</f>
-        <v>4636400</v>
+        <v>6626300</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2563,27 +2547,27 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.RssMarket($A14, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>_xll.RssMarket($A14, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E14" s="8">
         <f>_xll.RssMarket($A14, E$1)</f>
-        <v>2066</v>
+        <v>2118</v>
       </c>
       <c r="F14" s="8">
         <f>_xll.RssMarket($A14, F$1)</f>
-        <v>2050.5</v>
+        <v>2094</v>
       </c>
       <c r="G14" s="8">
         <f>_xll.RssMarket($A14, G$1)</f>
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.RssMarket($A14, H$1)</f>
-        <v>4375200</v>
+        <v>6121400</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2596,27 +2580,27 @@
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.RssMarket($A15, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>_xll.RssMarket($A15, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E15" s="8">
         <f>_xll.RssMarket($A15, E$1)</f>
-        <v>3440</v>
+        <v>3548</v>
       </c>
       <c r="F15" s="8">
         <f>_xll.RssMarket($A15, F$1)</f>
-        <v>3444</v>
+        <v>3435</v>
       </c>
       <c r="G15" s="8">
         <f>_xll.RssMarket($A15, G$1)</f>
-        <v>-4</v>
+        <v>113</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.RssMarket($A15, H$1)</f>
-        <v>33047900</v>
+        <v>38876600</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2629,27 +2613,27 @@
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.RssMarket($A16, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>_xll.RssMarket($A16, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E16" s="8">
         <f>_xll.RssMarket($A16, E$1)</f>
-        <v>2475.5</v>
+        <v>2456.5</v>
       </c>
       <c r="F16" s="8">
         <f>_xll.RssMarket($A16, F$1)</f>
-        <v>2493.5</v>
+        <v>2460.5</v>
       </c>
       <c r="G16" s="8">
         <f>_xll.RssMarket($A16, G$1)</f>
-        <v>-18</v>
+        <v>-4</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.RssMarket($A16, H$1)</f>
-        <v>15889800</v>
+        <v>27545800</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2662,27 +2646,27 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.RssMarket($A17, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>_xll.RssMarket($A17, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E17" s="8">
         <f>_xll.RssMarket($A17, E$1)</f>
-        <v>2791</v>
+        <v>2854</v>
       </c>
       <c r="F17" s="8">
         <f>_xll.RssMarket($A17, F$1)</f>
-        <v>2808</v>
+        <v>2771</v>
       </c>
       <c r="G17" s="8">
         <f>_xll.RssMarket($A17, G$1)</f>
-        <v>-17</v>
+        <v>83</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.RssMarket($A17, H$1)</f>
-        <v>5440600</v>
+        <v>11257600</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2695,27 +2679,27 @@
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.RssMarket($A18, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>_xll.RssMarket($A18, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E18" s="8">
         <f>_xll.RssMarket($A18, E$1)</f>
-        <v>1965.5</v>
+        <v>1976.5</v>
       </c>
       <c r="F18" s="8">
         <f>_xll.RssMarket($A18, F$1)</f>
-        <v>1939.5</v>
+        <v>1965</v>
       </c>
       <c r="G18" s="8">
         <f>_xll.RssMarket($A18, G$1)</f>
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.RssMarket($A18, H$1)</f>
-        <v>24261500</v>
+        <v>30161700</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2728,27 +2712,27 @@
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.RssMarket($A19, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>_xll.RssMarket($A19, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:30:00</v>
       </c>
       <c r="E19" s="8">
         <f>_xll.RssMarket($A19, E$1)</f>
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="F19" s="8">
         <f>_xll.RssMarket($A19, F$1)</f>
-        <v>1397</v>
+        <v>1374</v>
       </c>
       <c r="G19" s="8">
         <f>_xll.RssMarket($A19, G$1)</f>
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.RssMarket($A19, H$1)</f>
-        <v>3404000</v>
+        <v>6053500</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2761,27 +2745,27 @@
       </c>
       <c r="C20" s="7" t="str">
         <f>_xll.RssMarket($A20, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>_xll.RssMarket($A20, D$1)</f>
-        <v>15:24:57</v>
+        <v>15:30:00</v>
       </c>
       <c r="E20" s="8">
         <f>_xll.RssMarket($A20, E$1)</f>
-        <v>2008.5</v>
+        <v>2037</v>
       </c>
       <c r="F20" s="8">
         <f>_xll.RssMarket($A20, F$1)</f>
-        <v>2039</v>
+        <v>2018.5</v>
       </c>
       <c r="G20" s="8">
         <f>_xll.RssMarket($A20, G$1)</f>
-        <v>-30.5</v>
+        <v>18.5</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.RssMarket($A20, H$1)</f>
-        <v>5579100</v>
+        <v>4581500</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2794,27 +2778,27 @@
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.RssMarket($A21, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>_xll.RssMarket($A21, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E21" s="8">
         <f>_xll.RssMarket($A21, E$1)</f>
-        <v>220.3</v>
+        <v>216.6</v>
       </c>
       <c r="F21" s="8">
         <f>_xll.RssMarket($A21, F$1)</f>
-        <v>217.7</v>
+        <v>216.7</v>
       </c>
       <c r="G21" s="8">
         <f>_xll.RssMarket($A21, G$1)</f>
-        <v>2.6</v>
+        <v>-0.1</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.RssMarket($A21, H$1)</f>
-        <v>40497600</v>
+        <v>90073300</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2827,15 +2811,15 @@
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.RssMarket($A22, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>_xll.RssMarket($A22, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E22" s="8">
         <f>_xll.RssMarket($A22, E$1)</f>
-        <v>443.7</v>
+        <v>443</v>
       </c>
       <c r="F22" s="8">
         <f>_xll.RssMarket($A22, F$1)</f>
@@ -2843,11 +2827,11 @@
       </c>
       <c r="G22" s="8">
         <f>_xll.RssMarket($A22, G$1)</f>
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.RssMarket($A22, H$1)</f>
-        <v>50490200</v>
+        <v>50991800</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F21A562-5441-4E96-BDA6-C5A7BE2501DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019A57E4-0AA7-4805-9D99-0BB9611B39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13710" yWindow="180" windowWidth="15090" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -417,9 +417,109 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp t="s">
-        <v>2025/06/26</v>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>2025/06/27</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -427,8 +527,268 @@
         <stp>現在日付</stp>
         <tr r="C5" s="1"/>
       </tp>
-      <tp>
-        <v>83</v>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp>
+        <v>-23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+      <tp>
+        <v>96</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G15" s="1"/>
+      </tp>
+      <tp>
+        <v>70.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G16" s="1"/>
+      </tp>
+      <tp>
+        <v>185</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>-16</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>27.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日比</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>29.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日比</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>45.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日比</stp>
+        <tr r="G14" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>31.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>154</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>17</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>6.3</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>25.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日比</stp>
+        <tr r="G20" s="1"/>
+      </tp>
+      <tp>
+        <v>2.2000000000000002</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日比</stp>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>9.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>14</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -437,7 +797,7 @@
         <tr r="G17" s="1"/>
       </tp>
       <tp>
-        <v>11.5</v>
+        <v>7.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -454,352 +814,387 @@
         <stp>前日比</stp>
         <tr r="G19" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67230.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp>
+        <v>22272800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>19185100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>28765100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>出来高</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>9376600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67520.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
+        <stp>出来高</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>8148000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>出来高</stp>
+        <tr r="H14" s="1"/>
+      </tp>
+      <tp>
+        <v>60835100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H15" s="1"/>
+      </tp>
+      <tp>
+        <v>33017800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp>
+        <v>7295900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>6485600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>11512000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>47550.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp>
-        <v>15.8</v>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>11471000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>10179800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>5936300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>16838100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>3189100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+      <tp>
+        <v>12901900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp>
+        <v>55914400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>6433200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H19" s="1"/>
+      </tp>
+      <tp>
+        <v>5988200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>出来高</stp>
+        <tr r="H20" s="1"/>
+      </tp>
+      <tp>
+        <v>49764800</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>95010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日比</stp>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>18.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日比</stp>
-        <tr r="G20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-      <tp>
-        <v>-21.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日比</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>7.7</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>1.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>2.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>-5.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>10.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>258</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp>
-        <v>48</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>37</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>-9.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日比</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>-236</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日比</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日比</stp>
-        <tr r="G14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-      <tp>
-        <v>113</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G15" s="1"/>
-      </tp>
-      <tp>
-        <v>-4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp>
-        <v>90073300</v>
+        <stp>出来高</stp>
+        <tr r="H22" s="1"/>
+      </tp>
+      <tp>
+        <v>98486600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -808,187 +1203,469 @@
         <tr r="H21" s="1"/>
       </tp>
       <tp>
-        <v>50991800</v>
+        <v>2674</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp>
+        <v>515.20000000000005</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp>
+        <v>1735.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>785.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp>
+        <v>1503</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp>
+        <v>216.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>2697</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>2692.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp>
+        <v>2795.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>1385</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>4095</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>443</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>95010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H22" s="1"/>
-      </tp>
-      <tp>
-        <v>4581500</v>
+        <stp>前日終値</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp>
+        <v>1530.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値</stp>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>1765</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値</stp>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>4280</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>2779.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp>
+        <v>2163.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値</stp>
+        <tr r="E14" s="1"/>
+      </tp>
+      <tp>
+        <v>2456.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp>
+        <v>2527</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E16" s="1"/>
+      </tp>
+      <tp>
+        <v>3644</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E15" s="1"/>
+      </tp>
+      <tp>
+        <v>1976.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F18" s="1"/>
+      </tp>
+      <tp>
+        <v>516.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>791.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>1402</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>344.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>フジクラ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp>
+        <v>712.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>3548</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>341.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2854</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F17" s="1"/>
+      </tp>
+      <tp>
+        <v>2724</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>709.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp>
+        <v>7599</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>村田製作所</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+      <tp>
+        <v>2037</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>91070.T</stp>
-        <stp>出来高</stp>
-        <tr r="H20" s="1"/>
-      </tp>
-      <tp>
-        <v>11257600</v>
+        <stp>前日終値</stp>
+        <tr r="F20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>ＬＩＮＥヤフー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>パナソニックホールディンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>楽天グループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ルネサスエレクトロニクス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp>
+        <v>1984</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E18" s="1"/>
+      </tp>
+      <tp>
+        <v>2868</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H17" s="1"/>
-      </tp>
-      <tp>
-        <v>30161700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H18" s="1"/>
-      </tp>
-      <tp>
-        <v>6053500</v>
+        <stp>現在値</stp>
+        <tr r="E17" s="1"/>
+      </tp>
+      <tp>
+        <v>1386</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H19" s="1"/>
-      </tp>
-      <tp>
-        <v>6535500</v>
+        <stp>現在値</stp>
+        <tr r="E19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>日本製鉄</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>54010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>9923600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>17765600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>3986000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>10960900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>12933400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>5852400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>出来高</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>38876600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H15" s="1"/>
-      </tp>
-      <tp>
-        <v>27545800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H16" s="1"/>
-      </tp>
-      <tp>
-        <v>23658600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>11924200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>49840800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>出来高</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>6626300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>出来高</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>6121400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>出来高</stp>
-        <tr r="H14" s="1"/>
-      </tp>
-      <tp>
-        <v>2945600</v>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24320.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-      <tp>
-        <v>2037</v>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソフトバンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp>
+        <v>218.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>452.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>2062.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -996,467 +1673,57 @@
         <stp>現在値</stp>
         <tr r="E20" s="1"/>
       </tp>
-      <tp>
-        <v>443</v>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>アステラス製薬</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日立</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>東京電力ＨＤ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>95010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>216.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp>
-        <v>1976.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E18" s="1"/>
-      </tp>
-      <tp>
-        <v>2854</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp>
-        <v>1380</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp>
-        <v>2697</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp>
-        <v>712.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>2692.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>7445</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp>
-        <v>341.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>785.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>515.20000000000005</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>1385</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp>
-        <v>2456.5</v>
+        <stp>銘柄名称</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E16" s="1"/>
-      </tp>
-      <tp>
-        <v>3548</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp>
-        <v>1503</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-      <tp>
-        <v>1735.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>2795.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>4095</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>2118</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp>
-        <v>1965</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp>
-        <v>2460.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp>
-        <v>2018.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>村田製作所</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-      <tp>
-        <v>3435</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F15" s="1"/>
-      </tp>
-      <tp>
-        <v>338.9</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>701.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>2771</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>フジクラ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp>
-        <v>1971.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>777.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp>
-        <v>1512.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F13" s="1"/>
-      </tp>
-      <tp>
-        <v>513.79999999999995</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp>
-        <v>427.2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>4058</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>1383</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2747.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D21" s="1"/>
-      </tp>
-      <tp>
-        <v>2698</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp>
-        <v>216.7</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>2718.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D15" s="1"/>
-      </tp>
+        <tr r="B16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
       <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
@@ -1466,312 +1733,81 @@
         <stp>銘柄名称</stp>
         <tr r="B18" s="1"/>
       </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B16" s="1"/>
-      </tp>
-      <tp>
-        <v>2094</v>
+        <tr r="B17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>住友化学</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ＥＮＥＯＳホールディングス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp>
+        <v>7445</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>1380</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>川崎汽船</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B20" s="1"/>
+      </tp>
+      <tp>
+        <v>2118</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>69810.T</stp>
         <stp>前日終値</stp>
         <tr r="F14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>川崎汽船</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B20" s="1"/>
-      </tp>
-      <tp>
-        <v>1374</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F19" s="1"/>
-      </tp>
-      <tp>
-        <v>7187</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ＥＮＥＯＳホールディングス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>住友化学</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp t="s">
-        <v>パナソニックホールディンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>楽天グループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ルネサスエレクトロニクス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp t="s">
-        <v>ＬＩＮＥヤフー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>東京電力ＨＤ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日立</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>アステラス製薬</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a43518373aac47b2af7636de2a912a61">
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソフトバンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日本製鉄</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2151,7 +2187,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -2159,19 +2195,19 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2697</v>
+        <v>2674</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2718.5</v>
+        <v>2697</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-21.5</v>
+        <v>-23</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>2945600</v>
+        <v>3189100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -2184,7 +2220,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -2192,19 +2228,19 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>341.4</v>
+        <v>344.4</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>338.9</v>
+        <v>341.4</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>5852400</v>
+        <v>7295900</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -2217,7 +2253,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -2225,19 +2261,19 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1385</v>
+        <v>1402</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>3986000</v>
+        <v>6485600</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2250,7 +2286,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
@@ -2258,19 +2294,19 @@
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>515.20000000000005</v>
+        <v>516.5</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>513.79999999999995</v>
+        <v>515.20000000000005</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>10960900</v>
+        <v>11471000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2283,7 +2319,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
@@ -2291,19 +2327,19 @@
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>785.5</v>
+        <v>791.8</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>777.8</v>
+        <v>785.5</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>12933400</v>
+        <v>11512000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2316,7 +2352,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -2324,19 +2360,19 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>712.1</v>
+        <v>709.6</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>701.5</v>
+        <v>712.1</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>10.6</v>
+        <v>-2.5</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>9923600</v>
+        <v>10179800</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2349,7 +2385,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
@@ -2357,19 +2393,19 @@
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>2692.5</v>
+        <v>2724</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>2698</v>
+        <v>2692.5</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>-5.5</v>
+        <v>31.5</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>6535500</v>
+        <v>5936300</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2382,7 +2418,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
@@ -2390,19 +2426,19 @@
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>7445</v>
+        <v>7599</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>7187</v>
+        <v>7445</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>258</v>
+        <v>154</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>17765600</v>
+        <v>16838100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2415,7 +2451,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
@@ -2423,19 +2459,19 @@
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>4095</v>
+        <v>4280</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>4058</v>
+        <v>4095</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>11924200</v>
+        <v>22272800</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2448,7 +2484,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
@@ -2456,19 +2492,19 @@
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>2795.5</v>
+        <v>2779.5</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>2747.5</v>
+        <v>2795.5</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>48</v>
+        <v>-16</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>23658600</v>
+        <v>19185100</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2481,7 +2517,7 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.RssMarket($A12, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>_xll.RssMarket($A12, D$1)</f>
@@ -2489,19 +2525,19 @@
       </c>
       <c r="E12" s="8">
         <f>_xll.RssMarket($A12, E$1)</f>
-        <v>1735.5</v>
+        <v>1765</v>
       </c>
       <c r="F12" s="8">
         <f>_xll.RssMarket($A12, F$1)</f>
-        <v>1971.5</v>
+        <v>1735.5</v>
       </c>
       <c r="G12" s="8">
         <f>_xll.RssMarket($A12, G$1)</f>
-        <v>-236</v>
+        <v>29.5</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.RssMarket($A12, H$1)</f>
-        <v>49840800</v>
+        <v>28765100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2514,7 +2550,7 @@
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.RssMarket($A13, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>_xll.RssMarket($A13, D$1)</f>
@@ -2522,19 +2558,19 @@
       </c>
       <c r="E13" s="8">
         <f>_xll.RssMarket($A13, E$1)</f>
-        <v>1503</v>
+        <v>1530.5</v>
       </c>
       <c r="F13" s="8">
         <f>_xll.RssMarket($A13, F$1)</f>
-        <v>1512.5</v>
+        <v>1503</v>
       </c>
       <c r="G13" s="8">
         <f>_xll.RssMarket($A13, G$1)</f>
-        <v>-9.5</v>
+        <v>27.5</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.RssMarket($A13, H$1)</f>
-        <v>6626300</v>
+        <v>9376600</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2547,7 +2583,7 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.RssMarket($A14, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>_xll.RssMarket($A14, D$1)</f>
@@ -2555,19 +2591,19 @@
       </c>
       <c r="E14" s="8">
         <f>_xll.RssMarket($A14, E$1)</f>
-        <v>2118</v>
+        <v>2163.5</v>
       </c>
       <c r="F14" s="8">
         <f>_xll.RssMarket($A14, F$1)</f>
-        <v>2094</v>
+        <v>2118</v>
       </c>
       <c r="G14" s="8">
         <f>_xll.RssMarket($A14, G$1)</f>
-        <v>24</v>
+        <v>45.5</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.RssMarket($A14, H$1)</f>
-        <v>6121400</v>
+        <v>8148000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2580,7 +2616,7 @@
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.RssMarket($A15, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>_xll.RssMarket($A15, D$1)</f>
@@ -2588,19 +2624,19 @@
       </c>
       <c r="E15" s="8">
         <f>_xll.RssMarket($A15, E$1)</f>
-        <v>3548</v>
+        <v>3644</v>
       </c>
       <c r="F15" s="8">
         <f>_xll.RssMarket($A15, F$1)</f>
-        <v>3435</v>
+        <v>3548</v>
       </c>
       <c r="G15" s="8">
         <f>_xll.RssMarket($A15, G$1)</f>
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.RssMarket($A15, H$1)</f>
-        <v>38876600</v>
+        <v>60835100</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2613,7 +2649,7 @@
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.RssMarket($A16, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>_xll.RssMarket($A16, D$1)</f>
@@ -2621,19 +2657,19 @@
       </c>
       <c r="E16" s="8">
         <f>_xll.RssMarket($A16, E$1)</f>
-        <v>2456.5</v>
+        <v>2527</v>
       </c>
       <c r="F16" s="8">
         <f>_xll.RssMarket($A16, F$1)</f>
-        <v>2460.5</v>
+        <v>2456.5</v>
       </c>
       <c r="G16" s="8">
         <f>_xll.RssMarket($A16, G$1)</f>
-        <v>-4</v>
+        <v>70.5</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.RssMarket($A16, H$1)</f>
-        <v>27545800</v>
+        <v>33017800</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2646,7 +2682,7 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.RssMarket($A17, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>_xll.RssMarket($A17, D$1)</f>
@@ -2654,19 +2690,19 @@
       </c>
       <c r="E17" s="8">
         <f>_xll.RssMarket($A17, E$1)</f>
-        <v>2854</v>
+        <v>2868</v>
       </c>
       <c r="F17" s="8">
         <f>_xll.RssMarket($A17, F$1)</f>
-        <v>2771</v>
+        <v>2854</v>
       </c>
       <c r="G17" s="8">
         <f>_xll.RssMarket($A17, G$1)</f>
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.RssMarket($A17, H$1)</f>
-        <v>11257600</v>
+        <v>12901900</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2679,7 +2715,7 @@
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.RssMarket($A18, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>_xll.RssMarket($A18, D$1)</f>
@@ -2687,19 +2723,19 @@
       </c>
       <c r="E18" s="8">
         <f>_xll.RssMarket($A18, E$1)</f>
-        <v>1976.5</v>
+        <v>1984</v>
       </c>
       <c r="F18" s="8">
         <f>_xll.RssMarket($A18, F$1)</f>
-        <v>1965</v>
+        <v>1976.5</v>
       </c>
       <c r="G18" s="8">
         <f>_xll.RssMarket($A18, G$1)</f>
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.RssMarket($A18, H$1)</f>
-        <v>30161700</v>
+        <v>55914400</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2712,7 +2748,7 @@
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.RssMarket($A19, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>_xll.RssMarket($A19, D$1)</f>
@@ -2720,11 +2756,11 @@
       </c>
       <c r="E19" s="8">
         <f>_xll.RssMarket($A19, E$1)</f>
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="F19" s="8">
         <f>_xll.RssMarket($A19, F$1)</f>
-        <v>1374</v>
+        <v>1380</v>
       </c>
       <c r="G19" s="8">
         <f>_xll.RssMarket($A19, G$1)</f>
@@ -2732,7 +2768,7 @@
       </c>
       <c r="H19" s="8">
         <f>_xll.RssMarket($A19, H$1)</f>
-        <v>6053500</v>
+        <v>6433200</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2745,7 +2781,7 @@
       </c>
       <c r="C20" s="7" t="str">
         <f>_xll.RssMarket($A20, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>_xll.RssMarket($A20, D$1)</f>
@@ -2753,19 +2789,19 @@
       </c>
       <c r="E20" s="8">
         <f>_xll.RssMarket($A20, E$1)</f>
-        <v>2037</v>
+        <v>2062.5</v>
       </c>
       <c r="F20" s="8">
         <f>_xll.RssMarket($A20, F$1)</f>
-        <v>2018.5</v>
+        <v>2037</v>
       </c>
       <c r="G20" s="8">
         <f>_xll.RssMarket($A20, G$1)</f>
-        <v>18.5</v>
+        <v>25.5</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.RssMarket($A20, H$1)</f>
-        <v>4581500</v>
+        <v>5988200</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2778,7 +2814,7 @@
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.RssMarket($A21, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>_xll.RssMarket($A21, D$1)</f>
@@ -2786,19 +2822,19 @@
       </c>
       <c r="E21" s="8">
         <f>_xll.RssMarket($A21, E$1)</f>
-        <v>216.6</v>
+        <v>218.8</v>
       </c>
       <c r="F21" s="8">
         <f>_xll.RssMarket($A21, F$1)</f>
-        <v>216.7</v>
+        <v>216.6</v>
       </c>
       <c r="G21" s="8">
         <f>_xll.RssMarket($A21, G$1)</f>
-        <v>-0.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.RssMarket($A21, H$1)</f>
-        <v>90073300</v>
+        <v>98486600</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2811,7 +2847,7 @@
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.RssMarket($A22, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>_xll.RssMarket($A22, D$1)</f>
@@ -2819,19 +2855,19 @@
       </c>
       <c r="E22" s="8">
         <f>_xll.RssMarket($A22, E$1)</f>
-        <v>443</v>
+        <v>452.4</v>
       </c>
       <c r="F22" s="8">
         <f>_xll.RssMarket($A22, F$1)</f>
-        <v>427.2</v>
+        <v>443</v>
       </c>
       <c r="G22" s="8">
         <f>_xll.RssMarket($A22, G$1)</f>
-        <v>15.8</v>
+        <v>9.4</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.RssMarket($A22, H$1)</f>
-        <v>50991800</v>
+        <v>49764800</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019A57E4-0AA7-4805-9D99-0BB9611B39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41655C1-AC2B-4635-9CCC-C9EE41158FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13710" yWindow="180" windowWidth="15090" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="11505" yWindow="450" windowWidth="15735" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -417,9 +417,313 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>2025/06/27</v>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>-127</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>-37</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日比</stp>
+        <tr r="G14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>-17</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日比</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>-11</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日比</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>-31.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>-15</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>-40</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>0.3</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>-11.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>8.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>-25.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>309</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>2.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>-19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G19" s="1"/>
+      </tp>
+      <tp>
+        <v>-14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G18" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G17" s="1"/>
+      </tp>
+      <tp>
+        <v>-19.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日比</stp>
+        <tr r="G20" s="1"/>
+      </tp>
+      <tp>
+        <v>47.9</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>1.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日比</stp>
+        <tr r="G21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>2025/07/01</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -428,69 +732,105 @@
         <tr r="C18" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>2025/06/27</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
         <stp>現在日付</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>2025/06/27</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
         <stp>現在日付</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>2025/06/27</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
         <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
         <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
         <stp>現在日付</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
         <stp>現在日付</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>2025/06/27</v>
+        <tr r="C22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>2025/07/01</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -498,324 +838,891 @@
         <stp>現在日付</stp>
         <tr r="C12" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>24298200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp>
+        <v>38509500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>4857600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>出来高</stp>
+        <tr r="H14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>6465600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67520.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
+        <stp>出来高</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>13665800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>出来高</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>21879600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>8931900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>23319200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>9405800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>4878800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>7906300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>15051700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>11243600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>47550.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>2025/06/27</v>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>4970800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>7473300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>3151900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>出来高</stp>
+        <tr r="H20" s="1"/>
+      </tp>
+      <tp>
+        <v>61728100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>出来高</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>182867000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H22" s="1"/>
+      </tp>
+      <tp>
+        <v>7752900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H19" s="1"/>
+      </tp>
+      <tp>
+        <v>37538500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>8141600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>アステラス製薬</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日立</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>東京電力ＨＤ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>2545</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソフトバンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日本製鉄</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>ルネサスエレクトロニクス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>楽天グループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>パナソニックホールディンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>ＬＩＮＥヤフー</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>46890.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>2025/06/27</v>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>2154</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>3634</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E15" s="1"/>
+      </tp>
+      <tp>
+        <v>2453</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>川崎汽船</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>7571</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>1395</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F19" s="1"/>
+      </tp>
+      <tp>
+        <v>2117</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値</stp>
+        <tr r="E14" s="1"/>
+      </tp>
+      <tp>
+        <v>2744.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>4190</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>1772</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値</stp>
+        <tr r="E12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>1544.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値</stp>
+        <tr r="E13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>ＥＮＥＯＳホールディングス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>住友化学</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>7880</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>2714</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>717.2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>1391</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>45030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>785</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>538.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>348.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>1416.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>4205</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>480.1</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>95010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>2025/06/27</v>
+        <stp>前日終値</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>2776</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>2733</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>2672</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>223</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>94340.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
+        <stp>前日終値</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>1555.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>796.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp>
+        <v>1789</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>528</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>224.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>2024.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値</stp>
+        <tr r="E20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>530.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>1399</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E19" s="1"/>
+      </tp>
+      <tp>
+        <v>2887</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E17" s="1"/>
+      </tp>
+      <tp>
+        <v>1969</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E18" s="1"/>
+      </tp>
+      <tp>
+        <v>2044</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>村田製作所</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>2888</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F17" s="1"/>
+      </tp>
+      <tp>
+        <v>3610</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>348.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>715.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>フジクラ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>1983</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp>
+        <v>2493</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>54010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>2025/06/27</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp>
-        <v>-23</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日比</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-      <tp>
-        <v>96</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G15" s="1"/>
-      </tp>
-      <tp>
-        <v>70.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G16" s="1"/>
-      </tp>
-      <tp>
-        <v>185</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>-16</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>27.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日比</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>29.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日比</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>45.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日比</stp>
-        <tr r="G14" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.5</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>50200.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>31.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>154</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>17</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>45030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>1.3</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>6.3</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>47550.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>25.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日比</stp>
-        <tr r="G20" s="1"/>
-      </tp>
-      <tp>
-        <v>2.2000000000000002</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日比</stp>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>9.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-      <tp>
-        <v>14</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G17" s="1"/>
-      </tp>
-      <tp>
-        <v>7.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G18" s="1"/>
-      </tp>
-      <tp>
-        <v>6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -825,24 +1732,8 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -853,33 +1744,62 @@
         <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
         <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
         <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
+        <tr r="D16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
         <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D12" s="1"/>
       </tp>
       <tp t="s">
         <v>15:30:00</v>
@@ -890,60 +1810,8 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D13" s="1"/>
       </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D15" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.6de108c93b0448de913c76e67220c566">
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -953,8 +1821,51 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D17" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -963,851 +1874,6 @@
         <stp>83060.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp>
-        <v>22272800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>19185100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>28765100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>出来高</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>9376600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>出来高</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>8148000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>出来高</stp>
-        <tr r="H14" s="1"/>
-      </tp>
-      <tp>
-        <v>60835100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H15" s="1"/>
-      </tp>
-      <tp>
-        <v>33017800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H16" s="1"/>
-      </tp>
-      <tp>
-        <v>7295900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>出来高</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>6485600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>11512000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>11471000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>10179800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>5936300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>16838100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>3189100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-      <tp>
-        <v>12901900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H17" s="1"/>
-      </tp>
-      <tp>
-        <v>55914400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H18" s="1"/>
-      </tp>
-      <tp>
-        <v>6433200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H19" s="1"/>
-      </tp>
-      <tp>
-        <v>5988200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>出来高</stp>
-        <tr r="H20" s="1"/>
-      </tp>
-      <tp>
-        <v>49764800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H22" s="1"/>
-      </tp>
-      <tp>
-        <v>98486600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>出来高</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>2674</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp>
-        <v>515.20000000000005</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp>
-        <v>1735.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>785.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp>
-        <v>1503</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp>
-        <v>216.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>2697</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2692.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp>
-        <v>2795.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>1385</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>4095</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>443</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp>
-        <v>1530.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-      <tp>
-        <v>1765</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>4280</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>2779.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp>
-        <v>2163.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-      <tp>
-        <v>2456.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp>
-        <v>2527</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E16" s="1"/>
-      </tp>
-      <tp>
-        <v>3644</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E15" s="1"/>
-      </tp>
-      <tp>
-        <v>1976.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F18" s="1"/>
-      </tp>
-      <tp>
-        <v>516.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>791.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>1402</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>344.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>フジクラ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-      <tp>
-        <v>712.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>3548</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F15" s="1"/>
-      </tp>
-      <tp>
-        <v>341.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>2854</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F17" s="1"/>
-      </tp>
-      <tp>
-        <v>2724</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>709.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp>
-        <v>7599</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>村田製作所</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-      <tp>
-        <v>2037</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>ＬＩＮＥヤフー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>パナソニックホールディンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>楽天グループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ルネサスエレクトロニクス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp>
-        <v>1984</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E18" s="1"/>
-      </tp>
-      <tp>
-        <v>2868</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E17" s="1"/>
-      </tp>
-      <tp>
-        <v>1386</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>日本製鉄</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソフトバンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp>
-        <v>218.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>452.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>2062.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値</stp>
-        <tr r="E20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>アステラス製薬</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日立</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>東京電力ＨＤ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>住友化学</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ＥＮＥＯＳホールディングス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp>
-        <v>7445</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp>
-        <v>1380</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.598c676e667d40e3abd27711c5f04829">
-      <tp t="s">
-        <v>川崎汽船</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B20" s="1"/>
-      </tp>
-      <tp>
-        <v>2118</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F14" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2136,7 +2202,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
@@ -2187,7 +2253,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -2195,19 +2261,19 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2674</v>
+        <v>2545</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2697</v>
+        <v>2672</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-23</v>
+        <v>-127</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>3189100</v>
+        <v>7473300</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -2220,7 +2286,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -2228,19 +2294,19 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>344.4</v>
+        <v>348.8</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>341.4</v>
+        <v>348.5</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>7295900</v>
+        <v>7906300</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -2253,7 +2319,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -2261,19 +2327,19 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1402</v>
+        <v>1391</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1385</v>
+        <v>1416.5</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>17</v>
+        <v>-25.5</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>6485600</v>
+        <v>4970800</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2286,7 +2352,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
@@ -2294,19 +2360,19 @@
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>516.5</v>
+        <v>538.5</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>515.20000000000005</v>
+        <v>530.4</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>1.3</v>
+        <v>8.1</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>11471000</v>
+        <v>15051700</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2319,7 +2385,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
@@ -2327,19 +2393,19 @@
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>791.8</v>
+        <v>785</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>785.5</v>
+        <v>796.4</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>6.3</v>
+        <v>-11.4</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>11512000</v>
+        <v>11243600</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2352,7 +2418,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -2360,19 +2426,19 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>709.6</v>
+        <v>717.2</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>712.1</v>
+        <v>715.1</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>-2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>10179800</v>
+        <v>9405800</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2385,7 +2451,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
@@ -2393,19 +2459,19 @@
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>2724</v>
+        <v>2714</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>2692.5</v>
+        <v>2733</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>31.5</v>
+        <v>-19</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>5936300</v>
+        <v>4878800</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2418,7 +2484,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
@@ -2426,19 +2492,19 @@
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>7599</v>
+        <v>7880</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>7445</v>
+        <v>7571</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>154</v>
+        <v>309</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>16838100</v>
+        <v>23319200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2451,7 +2517,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
@@ -2459,19 +2525,19 @@
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>4280</v>
+        <v>4190</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>4095</v>
+        <v>4205</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>185</v>
+        <v>-15</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>22272800</v>
+        <v>8931900</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2484,7 +2550,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
@@ -2492,19 +2558,19 @@
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>2779.5</v>
+        <v>2744.5</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>2795.5</v>
+        <v>2776</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>-16</v>
+        <v>-31.5</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>19185100</v>
+        <v>21879600</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2517,7 +2583,7 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.RssMarket($A12, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>_xll.RssMarket($A12, D$1)</f>
@@ -2525,19 +2591,19 @@
       </c>
       <c r="E12" s="8">
         <f>_xll.RssMarket($A12, E$1)</f>
-        <v>1765</v>
+        <v>1772</v>
       </c>
       <c r="F12" s="8">
         <f>_xll.RssMarket($A12, F$1)</f>
-        <v>1735.5</v>
+        <v>1789</v>
       </c>
       <c r="G12" s="8">
         <f>_xll.RssMarket($A12, G$1)</f>
-        <v>29.5</v>
+        <v>-17</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.RssMarket($A12, H$1)</f>
-        <v>28765100</v>
+        <v>13665800</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2550,7 +2616,7 @@
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.RssMarket($A13, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>_xll.RssMarket($A13, D$1)</f>
@@ -2558,19 +2624,19 @@
       </c>
       <c r="E13" s="8">
         <f>_xll.RssMarket($A13, E$1)</f>
-        <v>1530.5</v>
+        <v>1544.5</v>
       </c>
       <c r="F13" s="8">
         <f>_xll.RssMarket($A13, F$1)</f>
-        <v>1503</v>
+        <v>1555.5</v>
       </c>
       <c r="G13" s="8">
         <f>_xll.RssMarket($A13, G$1)</f>
-        <v>27.5</v>
+        <v>-11</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.RssMarket($A13, H$1)</f>
-        <v>9376600</v>
+        <v>6465600</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2583,7 +2649,7 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.RssMarket($A14, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>_xll.RssMarket($A14, D$1)</f>
@@ -2591,19 +2657,19 @@
       </c>
       <c r="E14" s="8">
         <f>_xll.RssMarket($A14, E$1)</f>
-        <v>2163.5</v>
+        <v>2117</v>
       </c>
       <c r="F14" s="8">
         <f>_xll.RssMarket($A14, F$1)</f>
-        <v>2118</v>
+        <v>2154</v>
       </c>
       <c r="G14" s="8">
         <f>_xll.RssMarket($A14, G$1)</f>
-        <v>45.5</v>
+        <v>-37</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.RssMarket($A14, H$1)</f>
-        <v>8148000</v>
+        <v>4857600</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2616,7 +2682,7 @@
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.RssMarket($A15, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>_xll.RssMarket($A15, D$1)</f>
@@ -2624,19 +2690,19 @@
       </c>
       <c r="E15" s="8">
         <f>_xll.RssMarket($A15, E$1)</f>
-        <v>3644</v>
+        <v>3634</v>
       </c>
       <c r="F15" s="8">
         <f>_xll.RssMarket($A15, F$1)</f>
-        <v>3548</v>
+        <v>3610</v>
       </c>
       <c r="G15" s="8">
         <f>_xll.RssMarket($A15, G$1)</f>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.RssMarket($A15, H$1)</f>
-        <v>60835100</v>
+        <v>38509500</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2649,7 +2715,7 @@
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.RssMarket($A16, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>_xll.RssMarket($A16, D$1)</f>
@@ -2657,19 +2723,19 @@
       </c>
       <c r="E16" s="8">
         <f>_xll.RssMarket($A16, E$1)</f>
-        <v>2527</v>
+        <v>2453</v>
       </c>
       <c r="F16" s="8">
         <f>_xll.RssMarket($A16, F$1)</f>
-        <v>2456.5</v>
+        <v>2493</v>
       </c>
       <c r="G16" s="8">
         <f>_xll.RssMarket($A16, G$1)</f>
-        <v>70.5</v>
+        <v>-40</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.RssMarket($A16, H$1)</f>
-        <v>33017800</v>
+        <v>24298200</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2682,7 +2748,7 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.RssMarket($A17, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>_xll.RssMarket($A17, D$1)</f>
@@ -2690,19 +2756,19 @@
       </c>
       <c r="E17" s="8">
         <f>_xll.RssMarket($A17, E$1)</f>
-        <v>2868</v>
+        <v>2887</v>
       </c>
       <c r="F17" s="8">
         <f>_xll.RssMarket($A17, F$1)</f>
-        <v>2854</v>
+        <v>2888</v>
       </c>
       <c r="G17" s="8">
         <f>_xll.RssMarket($A17, G$1)</f>
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.RssMarket($A17, H$1)</f>
-        <v>12901900</v>
+        <v>8141600</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2715,7 +2781,7 @@
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.RssMarket($A18, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>_xll.RssMarket($A18, D$1)</f>
@@ -2723,19 +2789,19 @@
       </c>
       <c r="E18" s="8">
         <f>_xll.RssMarket($A18, E$1)</f>
-        <v>1984</v>
+        <v>1969</v>
       </c>
       <c r="F18" s="8">
         <f>_xll.RssMarket($A18, F$1)</f>
-        <v>1976.5</v>
+        <v>1983</v>
       </c>
       <c r="G18" s="8">
         <f>_xll.RssMarket($A18, G$1)</f>
-        <v>7.5</v>
+        <v>-14</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.RssMarket($A18, H$1)</f>
-        <v>55914400</v>
+        <v>37538500</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2748,7 +2814,7 @@
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.RssMarket($A19, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>_xll.RssMarket($A19, D$1)</f>
@@ -2756,19 +2822,19 @@
       </c>
       <c r="E19" s="8">
         <f>_xll.RssMarket($A19, E$1)</f>
-        <v>1386</v>
+        <v>1399</v>
       </c>
       <c r="F19" s="8">
         <f>_xll.RssMarket($A19, F$1)</f>
-        <v>1380</v>
+        <v>1395</v>
       </c>
       <c r="G19" s="8">
         <f>_xll.RssMarket($A19, G$1)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.RssMarket($A19, H$1)</f>
-        <v>6433200</v>
+        <v>7752900</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2781,7 +2847,7 @@
       </c>
       <c r="C20" s="7" t="str">
         <f>_xll.RssMarket($A20, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>_xll.RssMarket($A20, D$1)</f>
@@ -2789,19 +2855,19 @@
       </c>
       <c r="E20" s="8">
         <f>_xll.RssMarket($A20, E$1)</f>
-        <v>2062.5</v>
+        <v>2024.5</v>
       </c>
       <c r="F20" s="8">
         <f>_xll.RssMarket($A20, F$1)</f>
-        <v>2037</v>
+        <v>2044</v>
       </c>
       <c r="G20" s="8">
         <f>_xll.RssMarket($A20, G$1)</f>
-        <v>25.5</v>
+        <v>-19.5</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.RssMarket($A20, H$1)</f>
-        <v>5988200</v>
+        <v>3151900</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2814,7 +2880,7 @@
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.RssMarket($A21, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>_xll.RssMarket($A21, D$1)</f>
@@ -2822,19 +2888,19 @@
       </c>
       <c r="E21" s="8">
         <f>_xll.RssMarket($A21, E$1)</f>
-        <v>218.8</v>
+        <v>224.5</v>
       </c>
       <c r="F21" s="8">
         <f>_xll.RssMarket($A21, F$1)</f>
-        <v>216.6</v>
+        <v>223</v>
       </c>
       <c r="G21" s="8">
         <f>_xll.RssMarket($A21, G$1)</f>
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.RssMarket($A21, H$1)</f>
-        <v>98486600</v>
+        <v>61728100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2847,7 +2913,7 @@
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.RssMarket($A22, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>_xll.RssMarket($A22, D$1)</f>
@@ -2855,19 +2921,19 @@
       </c>
       <c r="E22" s="8">
         <f>_xll.RssMarket($A22, E$1)</f>
-        <v>452.4</v>
+        <v>528</v>
       </c>
       <c r="F22" s="8">
         <f>_xll.RssMarket($A22, F$1)</f>
-        <v>443</v>
+        <v>480.1</v>
       </c>
       <c r="G22" s="8">
         <f>_xll.RssMarket($A22, G$1)</f>
-        <v>9.4</v>
+        <v>47.9</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.RssMarket($A22, H$1)</f>
-        <v>49764800</v>
+        <v>182867000</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEBAF66-4438-45FA-87FA-8E097BB3C9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B00ED56-77A5-4948-8C66-98C0A3AB1B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13035" yWindow="270" windowWidth="15735" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -417,9 +417,132 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>-1.5</v>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C18" s="1"/>
+      </tp>
+      <tp>
+        <v>11.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G18" s="1"/>
+      </tp>
+      <tp>
+        <v>32.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G17" s="1"/>
+      </tp>
+      <tp>
+        <v>-14.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp>
+        <v>11</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -428,7 +551,16 @@
         <tr r="G20" s="1"/>
       </tp>
       <tp>
-        <v>-0.5</v>
+        <v>10.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.2999999999999998</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -436,48 +568,165 @@
         <stp>前日比</stp>
         <tr r="G21" s="1"/>
       </tp>
-      <tp>
-        <v>-13.2</v>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>95010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp>
+        <v>5.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
         <stp>前日比</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>21</v>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.9</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>-6.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>2025/07/03</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
         <stp>前日比</stp>
-        <tr r="G19" s="1"/>
-      </tp>
-      <tp>
-        <v>29</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>124</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
         <stp>前日比</stp>
-        <tr r="G17" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>120</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
         <stp>前日比</stp>
-        <tr r="G18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp t="s">
-        <v>2025/07/02</v>
+        <tr r="G9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>2025/07/03</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -485,59 +734,75 @@
         <stp>現在日付</stp>
         <tr r="C14" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp t="s">
-        <v>2025/07/02</v>
+      <tp>
+        <v>89.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日比</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>-16</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日比</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>-73</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>76</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>50</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日比</stp>
+        <tr r="G14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>39.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>-75</v>
+        <stp>前日比</stp>
+        <tr r="G16" s="1"/>
+      </tp>
+      <tp>
+        <v>-38</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>-37</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -545,279 +810,374 @@
         <stp>前日比</stp>
         <tr r="G2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>2672</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>516.29999999999995</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>4148</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>1391.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>2470</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>223.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>2731</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>1531</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>776.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp>
+        <v>1815</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>525.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:56</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>2025</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>村田製作所</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>2908</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F17" s="1"/>
+      </tp>
+      <tp>
+        <v>724.9</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>50200.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>352.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>40050.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3504</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>-301</v>
+        <stp>前日終値</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>フジクラ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>58030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp>
-        <v>9.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>20</v>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>1973.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>2465.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>東京電力ＨＤ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日立</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>アステラス製薬</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>日本製鉄</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>54010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソフトバンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>ルネサスエレクトロニクス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>楽天グループ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>47550.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>パナソニックホールディンク</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67520.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>3.2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>4.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>-13.2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>-7.9</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>-111</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G15" s="1"/>
-      </tp>
-      <tp>
-        <v>14.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp>
-        <v>-13</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日比</stp>
-        <tr r="G14" s="1"/>
-      </tp>
-      <tp>
-        <v>-26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>-70</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>46.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日比</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>-7.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日比</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
+        <stp>銘柄名称</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
       <tp t="s">
         <v>ＬＩＮＥヤフー</v>
         <stp/>
@@ -827,104 +1187,223 @@
         <stp>銘柄名称</stp>
         <tr r="B5" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp t="s">
-        <v>ルネサスエレクトロニクス</v>
+      <tp>
+        <v>2101</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>川崎汽船</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B20" s="1"/>
+      </tp>
+      <tp>
+        <v>1421.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F19" s="1"/>
+      </tp>
+      <tp>
+        <v>7565</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67230.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>住友化学</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>楽天グループ</v>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ＥＮＥＯＳホールディングス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>47550.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>パナソニックホールディンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp t="s">
-        <v>日本製鉄</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソフトバンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>アステラス製薬</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>東京電力ＨＤ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日立</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
       <tp t="s">
         <v>トヨタ自動車</v>
         <stp/>
@@ -935,488 +1414,54 @@
         <tr r="B16" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>2679700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>出来高</stp>
+        <tr r="H20" s="1"/>
+      </tp>
+      <tp>
+        <v>30574400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>出来高</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>100446100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H22" s="1"/>
+      </tp>
+      <tp>
+        <v>23067700</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B18" s="1"/>
-      </tp>
-      <tp>
-        <v>7880</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp>
-        <v>1399</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
+        <stp>出来高</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>10103600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>住友化学</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ＥＮＥＯＳホールディングス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B17" s="1"/>
-      </tp>
-      <tp>
-        <v>2117</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp t="s">
-        <v>川崎汽船</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>538.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>1544.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F13" s="1"/>
-      </tp>
-      <tp>
-        <v>785</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp>
-        <v>1772</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>2545</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>224.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>2714</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:57</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>2744.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>1391</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>528</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>4190</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>2453</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>1969</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>2887</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F17" s="1"/>
-      </tp>
-      <tp>
-        <v>717.2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>3634</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F15" s="1"/>
-      </tp>
-      <tp>
-        <v>348.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>フジクラ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>2024.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>村田製作所</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-      <tp>
-        <v>5437000</v>
+        <stp>出来高</stp>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp>
+        <v>6017200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1424,53 +1469,48 @@
         <stp>出来高</stp>
         <tr r="H19" s="1"/>
       </tp>
-      <tp>
-        <v>7834300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>4432400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
         <stp>出来高</stp>
-        <tr r="H17" s="1"/>
-      </tp>
-      <tp>
-        <v>28621200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>7626700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
         <stp>出来高</stp>
-        <tr r="H18" s="1"/>
-      </tp>
-      <tp>
-        <v>2650500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>12004900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
         <stp>出来高</stp>
-        <tr r="H20" s="1"/>
-      </tp>
-      <tp>
-        <v>116998100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>19537900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
         <stp>出来高</stp>
-        <tr r="H22" s="1"/>
-      </tp>
-      <tp>
-        <v>34493900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>出来高</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>6735200</v>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>10727600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1479,7 +1519,25 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>3285500</v>
+        <v>8922900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>7840100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>2983100</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1488,52 +1546,63 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>8465000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
+        <v>28645700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
         <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>13343900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp>
+        <v>25060900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
         <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>24726900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
+        <tr r="H15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>5110800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
         <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>8109000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>13052000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
         <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>3049200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>6120600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
         <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>4082500</v>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>17514900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>4818000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1541,73 +1610,55 @@
         <stp>出来高</stp>
         <tr r="H14" s="1"/>
       </tp>
-      <tp>
-        <v>6661900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>21061000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>3918800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>出来高</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>19021400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>出来高</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>37459400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H15" s="1"/>
-      </tp>
-      <tp>
-        <v>18473600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H16" s="1"/>
-      </tp>
-      <tp>
-        <v>6957000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>1420</v>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>526.70000000000005</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>221.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>2036</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値</stp>
+        <tr r="E20" s="1"/>
+      </tp>
+      <tp>
+        <v>2940.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E17" s="1"/>
+      </tp>
+      <tp>
+        <v>1985</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E18" s="1"/>
+      </tp>
+      <tp>
+        <v>1407</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1616,192 +1667,143 @@
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>1972</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
+        <v>2855</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
         <stp>現在値</stp>
-        <tr r="E18" s="1"/>
-      </tp>
-      <tp>
-        <v>2916</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>726.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
         <stp>現在値</stp>
-        <tr r="E17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>224</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>7685</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
         <stp>現在値</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>514.79999999999995</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>1390.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
         <stp>現在値</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>2023</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>777.3</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
         <stp>現在値</stp>
-        <tr r="E20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>2470</v>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>519.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>357.9</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3466</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E15" s="1"/>
+      </tp>
+      <tp>
+        <v>2505</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>4075</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>2748</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>1904.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値</stp>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>1515</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値</stp>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>2151</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値</stp>
+        <tr r="E14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
+      <tp>
+        <v>2433</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24320.T</stp>
         <stp>現在値</stp>
         <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>525.29999999999995</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>777.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>1395.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>352</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c978045fe8494ca795401483193acb8c">
-      <tp>
-        <v>7579</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>2734</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>726.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>2104</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-      <tp>
-        <v>1818.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>1537</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-      <tp>
-        <v>4164</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>2674.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>2467.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E16" s="1"/>
-      </tp>
-      <tp>
-        <v>3523</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E15" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2181,7 +2183,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -2189,19 +2191,19 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2470</v>
+        <v>2433</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2545</v>
+        <v>2470</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-75</v>
+        <v>-37</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>6957000</v>
+        <v>4432400</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -2214,7 +2216,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -2222,19 +2224,19 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>352</v>
+        <v>357.9</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>348.8</v>
+        <v>352.5</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>6735200</v>
+        <v>10727600</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -2247,27 +2249,27 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:57</v>
+        <v>15:24:59</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1395.5</v>
+        <v>1390.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1391</v>
+        <v>1391.5</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>3285500</v>
+        <v>2983100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2280,7 +2282,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
@@ -2288,19 +2290,19 @@
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>525.29999999999995</v>
+        <v>519.5</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>538.5</v>
+        <v>525.6</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>-13.2</v>
+        <v>-6.1</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>13343900</v>
+        <v>8922900</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2313,27 +2315,27 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>777.1</v>
+        <v>777.3</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>785</v>
+        <v>776.4</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>-7.9</v>
+        <v>0.9</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>8465000</v>
+        <v>7840100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2346,7 +2348,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -2354,19 +2356,19 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>726.8</v>
+        <v>726.6</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>717.2</v>
+        <v>724.9</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>9.6</v>
+        <v>1.7</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>8109000</v>
+        <v>7626700</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2379,7 +2381,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
@@ -2387,19 +2389,19 @@
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>2734</v>
+        <v>2855</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>2714</v>
+        <v>2731</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>3049200</v>
+        <v>12004900</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2412,7 +2414,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
@@ -2420,19 +2422,19 @@
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>7579</v>
+        <v>7685</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>7880</v>
+        <v>7565</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>-301</v>
+        <v>120</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>24726900</v>
+        <v>19537900</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2445,7 +2447,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
@@ -2453,19 +2455,19 @@
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>4164</v>
+        <v>4075</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>4190</v>
+        <v>4148</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>-26</v>
+        <v>-73</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>6661900</v>
+        <v>6120600</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2478,7 +2480,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
@@ -2486,19 +2488,19 @@
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>2674.5</v>
+        <v>2748</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>2744.5</v>
+        <v>2672</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>-70</v>
+        <v>76</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>21061000</v>
+        <v>17514900</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2511,7 +2513,7 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.RssMarket($A12, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>_xll.RssMarket($A12, D$1)</f>
@@ -2519,19 +2521,19 @@
       </c>
       <c r="E12" s="8">
         <f>_xll.RssMarket($A12, E$1)</f>
-        <v>1818.5</v>
+        <v>1904.5</v>
       </c>
       <c r="F12" s="8">
         <f>_xll.RssMarket($A12, F$1)</f>
-        <v>1772</v>
+        <v>1815</v>
       </c>
       <c r="G12" s="8">
         <f>_xll.RssMarket($A12, G$1)</f>
-        <v>46.5</v>
+        <v>89.5</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.RssMarket($A12, H$1)</f>
-        <v>19021400</v>
+        <v>13052000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2544,7 +2546,7 @@
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.RssMarket($A13, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>_xll.RssMarket($A13, D$1)</f>
@@ -2552,19 +2554,19 @@
       </c>
       <c r="E13" s="8">
         <f>_xll.RssMarket($A13, E$1)</f>
-        <v>1537</v>
+        <v>1515</v>
       </c>
       <c r="F13" s="8">
         <f>_xll.RssMarket($A13, F$1)</f>
-        <v>1544.5</v>
+        <v>1531</v>
       </c>
       <c r="G13" s="8">
         <f>_xll.RssMarket($A13, G$1)</f>
-        <v>-7.5</v>
+        <v>-16</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.RssMarket($A13, H$1)</f>
-        <v>3918800</v>
+        <v>5110800</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2577,7 +2579,7 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.RssMarket($A14, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>_xll.RssMarket($A14, D$1)</f>
@@ -2585,19 +2587,19 @@
       </c>
       <c r="E14" s="8">
         <f>_xll.RssMarket($A14, E$1)</f>
-        <v>2104</v>
+        <v>2151</v>
       </c>
       <c r="F14" s="8">
         <f>_xll.RssMarket($A14, F$1)</f>
-        <v>2117</v>
+        <v>2101</v>
       </c>
       <c r="G14" s="8">
         <f>_xll.RssMarket($A14, G$1)</f>
-        <v>-13</v>
+        <v>50</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.RssMarket($A14, H$1)</f>
-        <v>4082500</v>
+        <v>4818000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2610,7 +2612,7 @@
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.RssMarket($A15, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>_xll.RssMarket($A15, D$1)</f>
@@ -2618,19 +2620,19 @@
       </c>
       <c r="E15" s="8">
         <f>_xll.RssMarket($A15, E$1)</f>
-        <v>3523</v>
+        <v>3466</v>
       </c>
       <c r="F15" s="8">
         <f>_xll.RssMarket($A15, F$1)</f>
-        <v>3634</v>
+        <v>3504</v>
       </c>
       <c r="G15" s="8">
         <f>_xll.RssMarket($A15, G$1)</f>
-        <v>-111</v>
+        <v>-38</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.RssMarket($A15, H$1)</f>
-        <v>37459400</v>
+        <v>25060900</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2643,7 +2645,7 @@
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.RssMarket($A16, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>_xll.RssMarket($A16, D$1)</f>
@@ -2651,19 +2653,19 @@
       </c>
       <c r="E16" s="8">
         <f>_xll.RssMarket($A16, E$1)</f>
-        <v>2467.5</v>
+        <v>2505</v>
       </c>
       <c r="F16" s="8">
         <f>_xll.RssMarket($A16, F$1)</f>
-        <v>2453</v>
+        <v>2465.5</v>
       </c>
       <c r="G16" s="8">
         <f>_xll.RssMarket($A16, G$1)</f>
-        <v>14.5</v>
+        <v>39.5</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.RssMarket($A16, H$1)</f>
-        <v>18473600</v>
+        <v>28645700</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2676,27 +2678,27 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.RssMarket($A17, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>_xll.RssMarket($A17, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E17" s="8">
         <f>_xll.RssMarket($A17, E$1)</f>
-        <v>2916</v>
+        <v>2940.5</v>
       </c>
       <c r="F17" s="8">
         <f>_xll.RssMarket($A17, F$1)</f>
-        <v>2887</v>
+        <v>2908</v>
       </c>
       <c r="G17" s="8">
         <f>_xll.RssMarket($A17, G$1)</f>
-        <v>29</v>
+        <v>32.5</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.RssMarket($A17, H$1)</f>
-        <v>7834300</v>
+        <v>10103600</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2709,7 +2711,7 @@
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.RssMarket($A18, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>_xll.RssMarket($A18, D$1)</f>
@@ -2717,19 +2719,19 @@
       </c>
       <c r="E18" s="8">
         <f>_xll.RssMarket($A18, E$1)</f>
-        <v>1972</v>
+        <v>1985</v>
       </c>
       <c r="F18" s="8">
         <f>_xll.RssMarket($A18, F$1)</f>
-        <v>1969</v>
+        <v>1973.5</v>
       </c>
       <c r="G18" s="8">
         <f>_xll.RssMarket($A18, G$1)</f>
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.RssMarket($A18, H$1)</f>
-        <v>28621200</v>
+        <v>23067700</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2742,27 +2744,27 @@
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.RssMarket($A19, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>_xll.RssMarket($A19, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:56</v>
       </c>
       <c r="E19" s="8">
         <f>_xll.RssMarket($A19, E$1)</f>
-        <v>1420</v>
+        <v>1407</v>
       </c>
       <c r="F19" s="8">
         <f>_xll.RssMarket($A19, F$1)</f>
-        <v>1399</v>
+        <v>1421.5</v>
       </c>
       <c r="G19" s="8">
         <f>_xll.RssMarket($A19, G$1)</f>
-        <v>21</v>
+        <v>-14.5</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.RssMarket($A19, H$1)</f>
-        <v>5437000</v>
+        <v>6017200</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2775,27 +2777,27 @@
       </c>
       <c r="C20" s="7" t="str">
         <f>_xll.RssMarket($A20, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>_xll.RssMarket($A20, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E20" s="8">
         <f>_xll.RssMarket($A20, E$1)</f>
-        <v>2023</v>
+        <v>2036</v>
       </c>
       <c r="F20" s="8">
         <f>_xll.RssMarket($A20, F$1)</f>
-        <v>2024.5</v>
+        <v>2025</v>
       </c>
       <c r="G20" s="8">
         <f>_xll.RssMarket($A20, G$1)</f>
-        <v>-1.5</v>
+        <v>11</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.RssMarket($A20, H$1)</f>
-        <v>2650500</v>
+        <v>2679700</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2808,7 +2810,7 @@
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.RssMarket($A21, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>_xll.RssMarket($A21, D$1)</f>
@@ -2816,19 +2818,19 @@
       </c>
       <c r="E21" s="8">
         <f>_xll.RssMarket($A21, E$1)</f>
-        <v>224</v>
+        <v>221.1</v>
       </c>
       <c r="F21" s="8">
         <f>_xll.RssMarket($A21, F$1)</f>
-        <v>224.5</v>
+        <v>223.4</v>
       </c>
       <c r="G21" s="8">
         <f>_xll.RssMarket($A21, G$1)</f>
-        <v>-0.5</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.RssMarket($A21, H$1)</f>
-        <v>34493900</v>
+        <v>30574400</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2841,7 +2843,7 @@
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.RssMarket($A22, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>_xll.RssMarket($A22, D$1)</f>
@@ -2849,19 +2851,19 @@
       </c>
       <c r="E22" s="8">
         <f>_xll.RssMarket($A22, E$1)</f>
-        <v>514.79999999999995</v>
+        <v>526.70000000000005</v>
       </c>
       <c r="F22" s="8">
         <f>_xll.RssMarket($A22, F$1)</f>
-        <v>528</v>
+        <v>516.29999999999995</v>
       </c>
       <c r="G22" s="8">
         <f>_xll.RssMarket($A22, G$1)</f>
-        <v>-13.2</v>
+        <v>10.4</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.RssMarket($A22, H$1)</f>
-        <v>116998100</v>
+        <v>100446100</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B00ED56-77A5-4948-8C66-98C0A3AB1B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9367C672-C129-4304-BE77-DC56C517E071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13035" yWindow="270" windowWidth="15735" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -417,9 +417,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>2025/07/03</v>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+      <tp>
+        <v>-12.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -428,7 +446,7 @@
         <tr r="C17" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -437,7 +455,16 @@
         <tr r="C7" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -446,29 +473,16 @@
         <tr r="C15" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/03</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
         <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>2025/07/03</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>2025/07/03</v>
+        <tr r="C18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -476,19 +490,260 @@
         <stp>現在日付</stp>
         <tr r="C16" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>2025/07/03</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
         <stp>現在日付</stp>
-        <tr r="C18" s="1"/>
-      </tp>
-      <tp>
-        <v>11.5</v>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp>
+        <v>-14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日比</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日比</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>-62</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>-87.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>-22</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日比</stp>
+        <tr r="G14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp>
+        <v>-29.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G16" s="1"/>
+      </tp>
+      <tp>
+        <v>-67</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp>
+        <v>-5.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>-4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>6.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>-62</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>-185</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp>
+        <v>29</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -497,7 +752,7 @@
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>32.5</v>
+        <v>-35.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -506,7 +761,7 @@
         <tr r="G17" s="1"/>
       </tp>
       <tp>
-        <v>-14.5</v>
+        <v>-29</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -514,35 +769,8 @@
         <stp>前日比</stp>
         <tr r="G19" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp>
-        <v>11</v>
+      <tp>
+        <v>-38.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -551,7 +779,16 @@
         <tr r="G20" s="1"/>
       </tp>
       <tp>
-        <v>10.4</v>
+        <v>0.2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日比</stp>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>13.9</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -559,261 +796,500 @@
         <stp>前日比</stp>
         <tr r="G22" s="1"/>
       </tp>
-      <tp>
-        <v>-2.2999999999999998</v>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>16615700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp>
+        <v>27815000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H15" s="1"/>
+      </tp>
+      <tp>
+        <v>3130500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>出来高</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>7786100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>出来高</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>7996200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>15451100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>3069900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>出来高</stp>
+        <tr r="H14" s="1"/>
+      </tp>
+      <tp>
+        <v>6156600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>6000200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>16084100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>5307500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>8450700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>6122400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>3285400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>3349700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+      <tp>
+        <v>3661200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>出来高</stp>
+        <tr r="H20" s="1"/>
+      </tp>
+      <tp>
+        <v>115389700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H22" s="1"/>
+      </tp>
+      <tp>
+        <v>20419200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>94340.T</stp>
-        <stp>前日比</stp>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
+        <stp>出来高</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>45090900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>6241200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp>
+        <v>3929000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>2427.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>3396</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>2482</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>4016</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>2670.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>1888</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値</stp>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>1519</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値</stp>
+        <tr r="E13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>2134.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値</stp>
+        <tr r="E14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>2788</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>724.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>7520</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>1398</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>525.29999999999995</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>774.2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>352.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>221.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>540.70000000000005</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>95010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
+        <stp>現在値</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>2002</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値</stp>
+        <tr r="E20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>2911</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E17" s="1"/>
+      </tp>
+      <tp>
+        <v>2015.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E18" s="1"/>
+      </tp>
+      <tp>
+        <v>1379</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp>
+        <v>2440</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>221.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>2850</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>45030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:57</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>46890.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>47550.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp>
-        <v>5.4</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>40050.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>0.9</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>-6.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>2025/07/03</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp>
-        <v>1.7</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>124</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>120</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>2025/07/03</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-      <tp>
-        <v>89.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日比</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>-16</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日比</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>-73</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>76</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>50</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日比</stp>
-        <tr r="G14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>39.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G16" s="1"/>
-      </tp>
-      <tp>
-        <v>-38</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>-37</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日比</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>2672</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>2758</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -822,7 +1298,16 @@
         <tr r="F11" s="1"/>
       </tp>
       <tp>
-        <v>516.29999999999995</v>
+        <v>4078</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>526.79999999999995</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -831,15 +1316,6 @@
         <tr r="F22" s="1"/>
       </tp>
       <tp>
-        <v>4148</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
         <v>1391.5</v>
         <stp/>
         <stp>Market</stp>
@@ -848,39 +1324,80 @@
         <stp>前日終値</stp>
         <tr r="F4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>2470</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D16" s="1"/>
+      </tp>
+      <tp>
+        <v>520.29999999999995</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
         <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>223.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>2731</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>1531</v>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp>
+        <v>1518.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -889,7 +1406,7 @@
         <tr r="F13" s="1"/>
       </tp>
       <tp>
-        <v>776.4</v>
+        <v>778.2</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -898,7 +1415,7 @@
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>1815</v>
+        <v>1902</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -907,6 +1424,225 @@
         <tr r="F12" s="1"/>
       </tp>
       <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>フジクラ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>2946.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F17" s="1"/>
+      </tp>
+      <tp>
+        <v>725.9</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>3463</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>358.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>村田製作所</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp>
+        <v>2040.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F20" s="1"/>
+      </tp>
+      <tp>
+        <v>2511.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp>
+        <v>1986.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日本製鉄</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソフトバンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp t="s">
+        <v>日立</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>東京電力ＨＤ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>アステラス製薬</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp t="s">
+        <v>ＬＩＮＥヤフー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp t="s">
+        <v>ルネサスエレクトロニクス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>楽天グループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>パナソニックホールディンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
+      <tp t="s">
+        <v>15:24:57</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D21" s="1"/>
+      </tp>
+      <tp t="s">
         <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
@@ -920,32 +1656,66 @@
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
         <stp>91070.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D20" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>525.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>住友化学</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ＥＮＥＯＳホールディングス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+      <tp>
+        <v>1408</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
         <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
+        <tr r="F19" s="1"/>
+      </tp>
+      <tp>
+        <v>7705</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -963,7 +1733,7 @@
         <tr r="D18" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:24:56</v>
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -971,224 +1741,17 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D19" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>2025</v>
+      <tp t="s">
+        <v>川崎汽船</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>91070.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>村田製作所</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>2908</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F17" s="1"/>
-      </tp>
-      <tp>
-        <v>724.9</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>352.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3504</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>フジクラ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>1973.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>2465.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>東京電力ＨＤ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日立</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>アステラス製薬</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>日本製鉄</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソフトバンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>ルネサスエレクトロニクス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>楽天グループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>パナソニックホールディンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>ＬＩＮＥヤフー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp>
-        <v>2101</v>
+        <tr r="B20" s="1"/>
+      </tp>
+      <tp>
+        <v>2156.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1196,166 +1759,14 @@
         <stp>前日終値</stp>
         <tr r="F14" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>川崎汽船</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B20" s="1"/>
-      </tp>
-      <tp>
-        <v>1421.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F19" s="1"/>
-      </tp>
-      <tp>
-        <v>7565</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>住友化学</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ＥＮＥＯＳホールディングス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
+        <tr r="B16" s="1"/>
       </tp>
       <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
@@ -1365,445 +1776,6 @@
         <stp>83060.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>2679700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>出来高</stp>
-        <tr r="H20" s="1"/>
-      </tp>
-      <tp>
-        <v>30574400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>出来高</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>100446100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H22" s="1"/>
-      </tp>
-      <tp>
-        <v>23067700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H18" s="1"/>
-      </tp>
-      <tp>
-        <v>10103600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H17" s="1"/>
-      </tp>
-      <tp>
-        <v>6017200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>4432400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>7626700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>12004900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>19537900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>10727600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>出来高</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>8922900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>7840100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>2983100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>28645700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H16" s="1"/>
-      </tp>
-      <tp>
-        <v>25060900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>5110800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>出来高</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>13052000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>出来高</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>6120600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>17514900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>4818000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>出来高</stp>
-        <tr r="H14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>526.70000000000005</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>221.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>2036</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値</stp>
-        <tr r="E20" s="1"/>
-      </tp>
-      <tp>
-        <v>2940.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E17" s="1"/>
-      </tp>
-      <tp>
-        <v>1985</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E18" s="1"/>
-      </tp>
-      <tp>
-        <v>1407</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E19" s="1"/>
-      </tp>
-      <tp>
-        <v>2855</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>726.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>7685</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>1390.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>777.3</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>519.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>357.9</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3466</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E15" s="1"/>
-      </tp>
-      <tp>
-        <v>2505</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>4075</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>2748</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>1904.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>1515</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-      <tp>
-        <v>2151</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3ff4f28d63294ee8a41770627f75ee25">
-      <tp>
-        <v>2433</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2183,27 +2155,27 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2433</v>
+        <v>2427.5</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2470</v>
+        <v>2440</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-37</v>
+        <v>-12.5</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>4432400</v>
+        <v>3349700</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -2216,7 +2188,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -2224,19 +2196,19 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>357.9</v>
+        <v>352.8</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>352.5</v>
+        <v>358.4</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>5.4</v>
+        <v>-5.6</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>10727600</v>
+        <v>5307500</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -2249,15 +2221,15 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1390.5</v>
+        <v>1398</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
@@ -2265,11 +2237,11 @@
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>2983100</v>
+        <v>3285400</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2282,27 +2254,27 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:57</v>
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>519.5</v>
+        <v>525.29999999999995</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>525.6</v>
+        <v>520.29999999999995</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>-6.1</v>
+        <v>5</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>8922900</v>
+        <v>6122400</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2315,27 +2287,27 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>777.3</v>
+        <v>774.2</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>776.4</v>
+        <v>778.2</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>0.9</v>
+        <v>-4</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>7840100</v>
+        <v>8450700</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2348,7 +2320,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -2356,19 +2328,19 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>726.6</v>
+        <v>724.5</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>724.9</v>
+        <v>725.9</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>1.7</v>
+        <v>-1.4</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>7626700</v>
+        <v>6156600</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2381,7 +2353,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
@@ -2389,19 +2361,19 @@
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>2855</v>
+        <v>2788</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>2731</v>
+        <v>2850</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>124</v>
+        <v>-62</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>12004900</v>
+        <v>6000200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2414,7 +2386,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
@@ -2422,19 +2394,19 @@
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>7685</v>
+        <v>7520</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>7565</v>
+        <v>7705</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>120</v>
+        <v>-185</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>19537900</v>
+        <v>16084100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2447,27 +2419,27 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>4075</v>
+        <v>4016</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>4148</v>
+        <v>4078</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>-73</v>
+        <v>-62</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>6120600</v>
+        <v>7996200</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2480,7 +2452,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
@@ -2488,19 +2460,19 @@
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>2748</v>
+        <v>2670.5</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>2672</v>
+        <v>2758</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>76</v>
+        <v>-87.5</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>17514900</v>
+        <v>15451100</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2513,7 +2485,7 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.RssMarket($A12, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>_xll.RssMarket($A12, D$1)</f>
@@ -2521,19 +2493,19 @@
       </c>
       <c r="E12" s="8">
         <f>_xll.RssMarket($A12, E$1)</f>
-        <v>1904.5</v>
+        <v>1888</v>
       </c>
       <c r="F12" s="8">
         <f>_xll.RssMarket($A12, F$1)</f>
-        <v>1815</v>
+        <v>1902</v>
       </c>
       <c r="G12" s="8">
         <f>_xll.RssMarket($A12, G$1)</f>
-        <v>89.5</v>
+        <v>-14</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.RssMarket($A12, H$1)</f>
-        <v>13052000</v>
+        <v>7786100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2546,7 +2518,7 @@
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.RssMarket($A13, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>_xll.RssMarket($A13, D$1)</f>
@@ -2554,19 +2526,19 @@
       </c>
       <c r="E13" s="8">
         <f>_xll.RssMarket($A13, E$1)</f>
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="F13" s="8">
         <f>_xll.RssMarket($A13, F$1)</f>
-        <v>1531</v>
+        <v>1518.5</v>
       </c>
       <c r="G13" s="8">
         <f>_xll.RssMarket($A13, G$1)</f>
-        <v>-16</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.RssMarket($A13, H$1)</f>
-        <v>5110800</v>
+        <v>3130500</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2579,7 +2551,7 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.RssMarket($A14, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>_xll.RssMarket($A14, D$1)</f>
@@ -2587,19 +2559,19 @@
       </c>
       <c r="E14" s="8">
         <f>_xll.RssMarket($A14, E$1)</f>
-        <v>2151</v>
+        <v>2134.5</v>
       </c>
       <c r="F14" s="8">
         <f>_xll.RssMarket($A14, F$1)</f>
-        <v>2101</v>
+        <v>2156.5</v>
       </c>
       <c r="G14" s="8">
         <f>_xll.RssMarket($A14, G$1)</f>
-        <v>50</v>
+        <v>-22</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.RssMarket($A14, H$1)</f>
-        <v>4818000</v>
+        <v>3069900</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2612,7 +2584,7 @@
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.RssMarket($A15, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>_xll.RssMarket($A15, D$1)</f>
@@ -2620,19 +2592,19 @@
       </c>
       <c r="E15" s="8">
         <f>_xll.RssMarket($A15, E$1)</f>
-        <v>3466</v>
+        <v>3396</v>
       </c>
       <c r="F15" s="8">
         <f>_xll.RssMarket($A15, F$1)</f>
-        <v>3504</v>
+        <v>3463</v>
       </c>
       <c r="G15" s="8">
         <f>_xll.RssMarket($A15, G$1)</f>
-        <v>-38</v>
+        <v>-67</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.RssMarket($A15, H$1)</f>
-        <v>25060900</v>
+        <v>27815000</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2645,7 +2617,7 @@
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.RssMarket($A16, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>_xll.RssMarket($A16, D$1)</f>
@@ -2653,19 +2625,19 @@
       </c>
       <c r="E16" s="8">
         <f>_xll.RssMarket($A16, E$1)</f>
-        <v>2505</v>
+        <v>2482</v>
       </c>
       <c r="F16" s="8">
         <f>_xll.RssMarket($A16, F$1)</f>
-        <v>2465.5</v>
+        <v>2511.5</v>
       </c>
       <c r="G16" s="8">
         <f>_xll.RssMarket($A16, G$1)</f>
-        <v>39.5</v>
+        <v>-29.5</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.RssMarket($A16, H$1)</f>
-        <v>28645700</v>
+        <v>16615700</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2678,27 +2650,27 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.RssMarket($A17, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>_xll.RssMarket($A17, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E17" s="8">
         <f>_xll.RssMarket($A17, E$1)</f>
-        <v>2940.5</v>
+        <v>2911</v>
       </c>
       <c r="F17" s="8">
         <f>_xll.RssMarket($A17, F$1)</f>
-        <v>2908</v>
+        <v>2946.5</v>
       </c>
       <c r="G17" s="8">
         <f>_xll.RssMarket($A17, G$1)</f>
-        <v>32.5</v>
+        <v>-35.5</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.RssMarket($A17, H$1)</f>
-        <v>10103600</v>
+        <v>6241200</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2711,7 +2683,7 @@
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.RssMarket($A18, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>_xll.RssMarket($A18, D$1)</f>
@@ -2719,19 +2691,19 @@
       </c>
       <c r="E18" s="8">
         <f>_xll.RssMarket($A18, E$1)</f>
-        <v>1985</v>
+        <v>2015.5</v>
       </c>
       <c r="F18" s="8">
         <f>_xll.RssMarket($A18, F$1)</f>
-        <v>1973.5</v>
+        <v>1986.5</v>
       </c>
       <c r="G18" s="8">
         <f>_xll.RssMarket($A18, G$1)</f>
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.RssMarket($A18, H$1)</f>
-        <v>23067700</v>
+        <v>45090900</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2744,27 +2716,27 @@
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.RssMarket($A19, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>_xll.RssMarket($A19, D$1)</f>
-        <v>15:24:56</v>
+        <v>15:24:58</v>
       </c>
       <c r="E19" s="8">
         <f>_xll.RssMarket($A19, E$1)</f>
-        <v>1407</v>
+        <v>1379</v>
       </c>
       <c r="F19" s="8">
         <f>_xll.RssMarket($A19, F$1)</f>
-        <v>1421.5</v>
+        <v>1408</v>
       </c>
       <c r="G19" s="8">
         <f>_xll.RssMarket($A19, G$1)</f>
-        <v>-14.5</v>
+        <v>-29</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.RssMarket($A19, H$1)</f>
-        <v>6017200</v>
+        <v>3929000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2777,7 +2749,7 @@
       </c>
       <c r="C20" s="7" t="str">
         <f>_xll.RssMarket($A20, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>_xll.RssMarket($A20, D$1)</f>
@@ -2785,19 +2757,19 @@
       </c>
       <c r="E20" s="8">
         <f>_xll.RssMarket($A20, E$1)</f>
-        <v>2036</v>
+        <v>2002</v>
       </c>
       <c r="F20" s="8">
         <f>_xll.RssMarket($A20, F$1)</f>
-        <v>2025</v>
+        <v>2040.5</v>
       </c>
       <c r="G20" s="8">
         <f>_xll.RssMarket($A20, G$1)</f>
-        <v>11</v>
+        <v>-38.5</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.RssMarket($A20, H$1)</f>
-        <v>2679700</v>
+        <v>3661200</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2810,27 +2782,27 @@
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.RssMarket($A21, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>_xll.RssMarket($A21, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:57</v>
       </c>
       <c r="E21" s="8">
         <f>_xll.RssMarket($A21, E$1)</f>
-        <v>221.1</v>
+        <v>221.8</v>
       </c>
       <c r="F21" s="8">
         <f>_xll.RssMarket($A21, F$1)</f>
-        <v>223.4</v>
+        <v>221.6</v>
       </c>
       <c r="G21" s="8">
         <f>_xll.RssMarket($A21, G$1)</f>
-        <v>-2.2999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.RssMarket($A21, H$1)</f>
-        <v>30574400</v>
+        <v>20419200</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2843,7 +2815,7 @@
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.RssMarket($A22, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>_xll.RssMarket($A22, D$1)</f>
@@ -2851,19 +2823,19 @@
       </c>
       <c r="E22" s="8">
         <f>_xll.RssMarket($A22, E$1)</f>
-        <v>526.70000000000005</v>
+        <v>540.70000000000005</v>
       </c>
       <c r="F22" s="8">
         <f>_xll.RssMarket($A22, F$1)</f>
-        <v>516.29999999999995</v>
+        <v>526.79999999999995</v>
       </c>
       <c r="G22" s="8">
         <f>_xll.RssMarket($A22, G$1)</f>
-        <v>10.4</v>
+        <v>13.9</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.RssMarket($A22, H$1)</f>
-        <v>100446100</v>
+        <v>115389700</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9367C672-C129-4304-BE77-DC56C517E071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763B9682-8EFC-4780-9F0F-5F6CB02DF7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13035" yWindow="270" windowWidth="15735" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -417,9 +417,87 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp t="s">
-        <v>2025/07/04</v>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>-24.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日比</stp>
+        <tr r="G20" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.3</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日比</stp>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>-23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>-21</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G17" s="1"/>
+      </tp>
+      <tp>
+        <v>-49</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G18" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -427,8 +505,186 @@
         <stp>現在日付</stp>
         <tr r="C20" s="1"/>
       </tp>
-      <tp>
-        <v>-12.5</v>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>-18</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -436,98 +692,109 @@
         <stp>前日比</stp>
         <tr r="G2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>-8.9</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>50200.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>-49</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>-130</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>-6.8</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>40050.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>-19.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>3.7</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>11</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
+        <stp>前日比</stp>
+        <tr r="G15" s="1"/>
+      </tp>
+      <tp>
+        <v>-37</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
+        <stp>前日比</stp>
+        <tr r="G16" s="1"/>
+      </tp>
+      <tp>
+        <v>-41</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>-54</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp>
-        <v>-14</v>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>-43</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -536,7 +803,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>0.5</v>
+        <v>-17</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -545,25 +812,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>-62</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>-87.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>-22</v>
+        <v>-47.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -571,235 +820,183 @@
         <stp>前日比</stp>
         <tr r="G14" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>4763200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp>
+        <v>37032000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>2409000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H19" s="1"/>
+      </tp>
+      <tp>
+        <v>3420400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>出来高</stp>
+        <tr r="H20" s="1"/>
+      </tp>
+      <tp>
+        <v>68895500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H22" s="1"/>
+      </tp>
+      <tp>
+        <v>24027900</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>94340.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
+        <stp>出来高</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>5164300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>3641100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>8479100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>6616200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>4733900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>3532200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>54010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp>
-        <v>-29.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G16" s="1"/>
-      </tp>
-      <tp>
-        <v>-67</v>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>12067400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>12482300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>7187600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>3660300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>出来高</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>6389600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>出来高</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>2917700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>出来高</stp>
+        <tr r="H14" s="1"/>
+      </tp>
+      <tp>
+        <v>25840400</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp>
-        <v>-5.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>-4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>6.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>-62</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>-185</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/04</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp>
-        <v>29</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G18" s="1"/>
-      </tp>
-      <tp>
-        <v>-35.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G17" s="1"/>
-      </tp>
-      <tp>
-        <v>-29</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G19" s="1"/>
-      </tp>
-      <tp>
-        <v>-38.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日比</stp>
-        <tr r="G20" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日比</stp>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>13.9</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>16615700</v>
+        <stp>出来高</stp>
+        <tr r="H15" s="1"/>
+      </tp>
+      <tp>
+        <v>17386900</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -807,125 +1004,10 @@
         <stp>出来高</stp>
         <tr r="H16" s="1"/>
       </tp>
-      <tp>
-        <v>27815000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H15" s="1"/>
-      </tp>
-      <tp>
-        <v>3130500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>出来高</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>7786100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>出来高</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>7996200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>15451100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>3069900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>出来高</stp>
-        <tr r="H14" s="1"/>
-      </tp>
-      <tp>
-        <v>6156600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>6000200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>16084100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>5307500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>出来高</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>8450700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>6122400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>3285400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>3349700</v>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>3799800</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -933,64 +1015,68 @@
         <stp>出来高</stp>
         <tr r="H2" s="1"/>
       </tp>
-      <tp>
-        <v>3661200</v>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>1966.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E18" s="1"/>
+      </tp>
+      <tp>
+        <v>2898.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E17" s="1"/>
+      </tp>
+      <tp>
+        <v>1376.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>221.9</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>518</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>1982.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>91070.T</stp>
-        <stp>出来高</stp>
-        <tr r="H20" s="1"/>
-      </tp>
-      <tp>
-        <v>115389700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H22" s="1"/>
-      </tp>
-      <tp>
-        <v>20419200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>出来高</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>45090900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H18" s="1"/>
-      </tp>
-      <tp>
-        <v>6241200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H17" s="1"/>
-      </tp>
-      <tp>
-        <v>3929000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>2427.5</v>
+        <stp>現在値</stp>
+        <tr r="E20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>2407</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -999,9 +1085,126 @@
         <tr r="E2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>3396</v>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>528.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>772.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>1382.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>346</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>2731.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>714.3</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>7390</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>1851.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値</stp>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>1495</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値</stp>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>2637</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>3972</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>2083</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値</stp>
+        <tr r="E14" s="1"/>
+      </tp>
+      <tp>
+        <v>2447.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E16" s="1"/>
+      </tp>
+      <tp>
+        <v>3406</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1009,197 +1212,437 @@
         <stp>現在値</stp>
         <tr r="E15" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>2482</v>
+      <tp>
+        <v>524.9</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>773</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp>
+        <v>1512</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>1894.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>2780.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>222.2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>2425</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>541</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>4026</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>1402</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2678</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>2484.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>4016</v>
+        <stp>前日終値</stp>
+        <tr r="F16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>2015.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp>
+        <v>2919.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F17" s="1"/>
+      </tp>
+      <tp>
+        <v>3395</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>352.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>723.2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:57</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>フジクラ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp>
+        <v>2007</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>村田製作所</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>2670.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>1888</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>ＬＩＮＥヤフー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>ルネサスエレクトロニクス</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67230.T</stp>
-        <stp>現在値</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>1519</v>
+        <stp>銘柄名称</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>パナソニックホールディンク</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67520.T</stp>
-        <stp>現在値</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>2134.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>2788</v>
+        <stp>銘柄名称</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>楽天グループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:56</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソフトバンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日本製鉄</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>54010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>724.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>7520</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>1398</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>525.29999999999995</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>774.2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>352.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>221.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>540.70000000000005</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>2002</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値</stp>
-        <tr r="E20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>2911</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E17" s="1"/>
-      </tp>
-      <tp>
-        <v>2015.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E18" s="1"/>
-      </tp>
-      <tp>
-        <v>1379</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp t="s">
-        <v>15:24:59</v>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1225,291 +1668,48 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D9" s="1"/>
       </tp>
-      <tp>
-        <v>2440</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>221.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>2850</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>東京電力ＨＤ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日立</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>アステラス製薬</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>45030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:57</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp>
-        <v>2758</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>4078</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>526.79999999999995</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>1391.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D16" s="1"/>
-      </tp>
-      <tp>
-        <v>520.29999999999995</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-      <tp>
-        <v>1518.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F13" s="1"/>
-      </tp>
-      <tp>
-        <v>778.2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp>
-        <v>1902</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>フジクラ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>2946.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F17" s="1"/>
-      </tp>
-      <tp>
-        <v>725.9</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>3463</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F15" s="1"/>
-      </tp>
-      <tp>
-        <v>358.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>村田製作所</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp>
-        <v>2040.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F20" s="1"/>
-      </tp>
-      <tp>
-        <v>2511.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1517,148 +1717,56 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D2" s="1"/>
       </tp>
-      <tp>
-        <v>1986.5</v>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B18" s="1"/>
+      </tp>
+      <tp>
+        <v>1378</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
         <stp>前日終値</stp>
-        <tr r="F18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日本製鉄</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
+        <tr r="F19" s="1"/>
+      </tp>
+      <tp>
+        <v>7520</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+      <tp t="s">
+        <v>ＥＮＥＯＳホールディングス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソフトバンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp t="s">
-        <v>日立</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>東京電力ＨＤ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>アステラス製薬</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp t="s">
-        <v>ＬＩＮＥヤフー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp t="s">
-        <v>ルネサスエレクトロニクス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>楽天グループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>パナソニックホールディンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f944d4d9f294404bac9ed020ac556c01">
-      <tp t="s">
-        <v>15:24:57</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D20" s="1"/>
+        <tr r="B7" s="1"/>
       </tp>
       <tp t="s">
         <v>三菱重工業</v>
@@ -1679,15 +1787,6 @@
         <tr r="B3" s="1"/>
       </tp>
       <tp t="s">
-        <v>ＥＮＥＯＳホールディングス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
         <v>三菱商事</v>
         <stp/>
         <stp>Market</stp>
@@ -1697,50 +1796,16 @@
         <tr r="B17" s="1"/>
       </tp>
       <tp>
-        <v>1408</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
+        <v>2130.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
         <stp>前日終値</stp>
-        <tr r="F19" s="1"/>
-      </tp>
-      <tp>
-        <v>7705</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D19" s="1"/>
-      </tp>
+        <tr r="F14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
       <tp t="s">
         <v>川崎汽船</v>
         <stp/>
@@ -1749,33 +1814,6 @@
         <stp>91070.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B20" s="1"/>
-      </tp>
-      <tp>
-        <v>2156.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B18" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2155,27 +2193,27 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2427.5</v>
+        <v>2407</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2440</v>
+        <v>2425</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-12.5</v>
+        <v>-18</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>3349700</v>
+        <v>3799800</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -2188,7 +2226,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -2196,19 +2234,19 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>352.8</v>
+        <v>346</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>358.4</v>
+        <v>352.8</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>-5.6</v>
+        <v>-6.8</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>5307500</v>
+        <v>5164300</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -2221,27 +2259,27 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1398</v>
+        <v>1382.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1391.5</v>
+        <v>1402</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>6.5</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>3285400</v>
+        <v>3641100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2254,27 +2292,27 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
-        <v>15:24:57</v>
+        <v>15:24:56</v>
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>525.29999999999995</v>
+        <v>528.6</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>520.29999999999995</v>
+        <v>524.9</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>6122400</v>
+        <v>6616200</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2287,7 +2325,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
@@ -2295,19 +2333,19 @@
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>774.2</v>
+        <v>772.6</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>778.2</v>
+        <v>773</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>-4</v>
+        <v>-0.4</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>8450700</v>
+        <v>8479100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2320,7 +2358,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -2328,19 +2366,19 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>724.5</v>
+        <v>714.3</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>725.9</v>
+        <v>723.2</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>-1.4</v>
+        <v>-8.9</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>6156600</v>
+        <v>4733900</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2353,27 +2391,27 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>2788</v>
+        <v>2731.5</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>2850</v>
+        <v>2780.5</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>-62</v>
+        <v>-49</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>6000200</v>
+        <v>3532200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2386,7 +2424,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
@@ -2394,19 +2432,19 @@
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>7520</v>
+        <v>7390</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>7705</v>
+        <v>7520</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>-185</v>
+        <v>-130</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>16084100</v>
+        <v>12067400</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2419,27 +2457,27 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>4016</v>
+        <v>3972</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>4078</v>
+        <v>4026</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>-62</v>
+        <v>-54</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>7996200</v>
+        <v>7187600</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2452,7 +2490,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
@@ -2460,19 +2498,19 @@
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>2670.5</v>
+        <v>2637</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>2758</v>
+        <v>2678</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>-87.5</v>
+        <v>-41</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>15451100</v>
+        <v>12482300</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2485,27 +2523,27 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.RssMarket($A12, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>_xll.RssMarket($A12, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E12" s="8">
         <f>_xll.RssMarket($A12, E$1)</f>
-        <v>1888</v>
+        <v>1851.5</v>
       </c>
       <c r="F12" s="8">
         <f>_xll.RssMarket($A12, F$1)</f>
-        <v>1902</v>
+        <v>1894.5</v>
       </c>
       <c r="G12" s="8">
         <f>_xll.RssMarket($A12, G$1)</f>
-        <v>-14</v>
+        <v>-43</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.RssMarket($A12, H$1)</f>
-        <v>7786100</v>
+        <v>6389600</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2518,7 +2556,7 @@
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.RssMarket($A13, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>_xll.RssMarket($A13, D$1)</f>
@@ -2526,19 +2564,19 @@
       </c>
       <c r="E13" s="8">
         <f>_xll.RssMarket($A13, E$1)</f>
-        <v>1519</v>
+        <v>1495</v>
       </c>
       <c r="F13" s="8">
         <f>_xll.RssMarket($A13, F$1)</f>
-        <v>1518.5</v>
+        <v>1512</v>
       </c>
       <c r="G13" s="8">
         <f>_xll.RssMarket($A13, G$1)</f>
-        <v>0.5</v>
+        <v>-17</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.RssMarket($A13, H$1)</f>
-        <v>3130500</v>
+        <v>3660300</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2551,27 +2589,27 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.RssMarket($A14, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>_xll.RssMarket($A14, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E14" s="8">
         <f>_xll.RssMarket($A14, E$1)</f>
-        <v>2134.5</v>
+        <v>2083</v>
       </c>
       <c r="F14" s="8">
         <f>_xll.RssMarket($A14, F$1)</f>
-        <v>2156.5</v>
+        <v>2130.5</v>
       </c>
       <c r="G14" s="8">
         <f>_xll.RssMarket($A14, G$1)</f>
-        <v>-22</v>
+        <v>-47.5</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.RssMarket($A14, H$1)</f>
-        <v>3069900</v>
+        <v>2917700</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2584,7 +2622,7 @@
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.RssMarket($A15, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>_xll.RssMarket($A15, D$1)</f>
@@ -2592,19 +2630,19 @@
       </c>
       <c r="E15" s="8">
         <f>_xll.RssMarket($A15, E$1)</f>
-        <v>3396</v>
+        <v>3406</v>
       </c>
       <c r="F15" s="8">
         <f>_xll.RssMarket($A15, F$1)</f>
-        <v>3463</v>
+        <v>3395</v>
       </c>
       <c r="G15" s="8">
         <f>_xll.RssMarket($A15, G$1)</f>
-        <v>-67</v>
+        <v>11</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.RssMarket($A15, H$1)</f>
-        <v>27815000</v>
+        <v>25840400</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2617,7 +2655,7 @@
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.RssMarket($A16, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>_xll.RssMarket($A16, D$1)</f>
@@ -2625,19 +2663,19 @@
       </c>
       <c r="E16" s="8">
         <f>_xll.RssMarket($A16, E$1)</f>
-        <v>2482</v>
+        <v>2447.5</v>
       </c>
       <c r="F16" s="8">
         <f>_xll.RssMarket($A16, F$1)</f>
-        <v>2511.5</v>
+        <v>2484.5</v>
       </c>
       <c r="G16" s="8">
         <f>_xll.RssMarket($A16, G$1)</f>
-        <v>-29.5</v>
+        <v>-37</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.RssMarket($A16, H$1)</f>
-        <v>16615700</v>
+        <v>17386900</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2650,7 +2688,7 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.RssMarket($A17, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>_xll.RssMarket($A17, D$1)</f>
@@ -2658,19 +2696,19 @@
       </c>
       <c r="E17" s="8">
         <f>_xll.RssMarket($A17, E$1)</f>
-        <v>2911</v>
+        <v>2898.5</v>
       </c>
       <c r="F17" s="8">
         <f>_xll.RssMarket($A17, F$1)</f>
-        <v>2946.5</v>
+        <v>2919.5</v>
       </c>
       <c r="G17" s="8">
         <f>_xll.RssMarket($A17, G$1)</f>
-        <v>-35.5</v>
+        <v>-21</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.RssMarket($A17, H$1)</f>
-        <v>6241200</v>
+        <v>4763200</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2683,7 +2721,7 @@
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.RssMarket($A18, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>_xll.RssMarket($A18, D$1)</f>
@@ -2691,19 +2729,19 @@
       </c>
       <c r="E18" s="8">
         <f>_xll.RssMarket($A18, E$1)</f>
-        <v>2015.5</v>
+        <v>1966.5</v>
       </c>
       <c r="F18" s="8">
         <f>_xll.RssMarket($A18, F$1)</f>
-        <v>1986.5</v>
+        <v>2015.5</v>
       </c>
       <c r="G18" s="8">
         <f>_xll.RssMarket($A18, G$1)</f>
-        <v>29</v>
+        <v>-49</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.RssMarket($A18, H$1)</f>
-        <v>45090900</v>
+        <v>37032000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2716,27 +2754,27 @@
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.RssMarket($A19, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>_xll.RssMarket($A19, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:57</v>
       </c>
       <c r="E19" s="8">
         <f>_xll.RssMarket($A19, E$1)</f>
-        <v>1379</v>
+        <v>1376.5</v>
       </c>
       <c r="F19" s="8">
         <f>_xll.RssMarket($A19, F$1)</f>
-        <v>1408</v>
+        <v>1378</v>
       </c>
       <c r="G19" s="8">
         <f>_xll.RssMarket($A19, G$1)</f>
-        <v>-29</v>
+        <v>-1.5</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.RssMarket($A19, H$1)</f>
-        <v>3929000</v>
+        <v>2409000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2749,7 +2787,7 @@
       </c>
       <c r="C20" s="7" t="str">
         <f>_xll.RssMarket($A20, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>_xll.RssMarket($A20, D$1)</f>
@@ -2757,19 +2795,19 @@
       </c>
       <c r="E20" s="8">
         <f>_xll.RssMarket($A20, E$1)</f>
-        <v>2002</v>
+        <v>1982.5</v>
       </c>
       <c r="F20" s="8">
         <f>_xll.RssMarket($A20, F$1)</f>
-        <v>2040.5</v>
+        <v>2007</v>
       </c>
       <c r="G20" s="8">
         <f>_xll.RssMarket($A20, G$1)</f>
-        <v>-38.5</v>
+        <v>-24.5</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.RssMarket($A20, H$1)</f>
-        <v>3661200</v>
+        <v>3420400</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2782,27 +2820,27 @@
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.RssMarket($A21, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>_xll.RssMarket($A21, D$1)</f>
-        <v>15:24:57</v>
+        <v>15:24:59</v>
       </c>
       <c r="E21" s="8">
         <f>_xll.RssMarket($A21, E$1)</f>
-        <v>221.8</v>
+        <v>221.9</v>
       </c>
       <c r="F21" s="8">
         <f>_xll.RssMarket($A21, F$1)</f>
-        <v>221.6</v>
+        <v>222.2</v>
       </c>
       <c r="G21" s="8">
         <f>_xll.RssMarket($A21, G$1)</f>
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.RssMarket($A21, H$1)</f>
-        <v>20419200</v>
+        <v>24027900</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2815,7 +2853,7 @@
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.RssMarket($A22, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>_xll.RssMarket($A22, D$1)</f>
@@ -2823,19 +2861,19 @@
       </c>
       <c r="E22" s="8">
         <f>_xll.RssMarket($A22, E$1)</f>
-        <v>540.70000000000005</v>
+        <v>518</v>
       </c>
       <c r="F22" s="8">
         <f>_xll.RssMarket($A22, F$1)</f>
-        <v>526.79999999999995</v>
+        <v>541</v>
       </c>
       <c r="G22" s="8">
         <f>_xll.RssMarket($A22, G$1)</f>
-        <v>13.9</v>
+        <v>-23</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.RssMarket($A22, H$1)</f>
-        <v>115389700</v>
+        <v>68895500</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763B9682-8EFC-4780-9F0F-5F6CB02DF7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FE2935-EA76-4CB2-A2DE-98BAD8CA4637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="270" windowWidth="15735" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="12975" yWindow="315" windowWidth="15735" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -417,9 +417,266 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>2025/07/07</v>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>11.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G16" s="1"/>
+      </tp>
+      <tp>
+        <v>-19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>56.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日比</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>-24.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日比</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>7.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>141</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>34.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日比</stp>
+        <tr r="G14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>6.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>33</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>410</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>1.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>6.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>-13.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日比</stp>
+        <tr r="G20" s="1"/>
+      </tp>
+      <tp>
+        <v>32.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.2000000000000002</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日比</stp>
+        <tr r="G21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>7.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G18" s="1"/>
+      </tp>
+      <tp>
+        <v>-13</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G17" s="1"/>
+      </tp>
+      <tp>
+        <v>-7</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -427,126 +684,89 @@
         <stp>現在日付</stp>
         <tr r="C18" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>-24.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日比</stp>
-        <tr r="G20" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.3</v>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>94340.T</stp>
-        <stp>前日比</stp>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>-23</v>
+        <stp>現在日付</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>95010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
         <stp>現在日付</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>-21</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G17" s="1"/>
-      </tp>
-      <tp>
-        <v>-49</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G18" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
         <stp>現在日付</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
         <stp>現在日付</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
         <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>2025/07/07</v>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -555,16 +775,7 @@
         <tr r="C13" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -572,88 +783,26 @@
         <stp>現在日付</stp>
         <tr r="C12" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
         <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
         <stp>現在日付</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>2025/07/07</v>
+        <tr r="C19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -661,169 +810,156 @@
         <stp>現在日付</stp>
         <tr r="C14" s="1"/>
       </tp>
+      <tp>
+        <v>7538800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>出来高</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>8954100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>出来高</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>14641800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>8352400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>2863200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>出来高</stp>
+        <tr r="H14" s="1"/>
+      </tp>
+      <tp>
+        <v>23264700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp>
+        <v>24078700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H15" s="1"/>
+      </tp>
+      <tp>
+        <v>4430700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>7309800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>10533300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>4185400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>7637500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>3372400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>16031500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/07</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>2526500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>-18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日比</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>-8.9</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>-49</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>-130</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp>
-        <v>-6.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>-19.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>3.7</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>11</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G15" s="1"/>
-      </tp>
-      <tp>
-        <v>-37</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G16" s="1"/>
-      </tp>
-      <tp>
-        <v>-41</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>-54</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>-43</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日比</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>-17</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日比</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>-47.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日比</stp>
-        <tr r="G14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>4763200</v>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>25122300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>7340500</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -832,16 +968,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>37032000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H18" s="1"/>
-      </tp>
-      <tp>
-        <v>2409000</v>
+        <v>3578400</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -850,7 +977,7 @@
         <tr r="H19" s="1"/>
       </tp>
       <tp>
-        <v>3420400</v>
+        <v>2936600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -859,7 +986,16 @@
         <tr r="H20" s="1"/>
       </tp>
       <tp>
-        <v>68895500</v>
+        <v>30165100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>出来高</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>139180000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -867,158 +1003,412 @@
         <stp>出来高</stp>
         <tr r="H22" s="1"/>
       </tp>
-      <tp>
-        <v>24027900</v>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>1382</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>3977</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>518.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>2637</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>2421</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>2736</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>2409.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>222.2</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>94340.T</stp>
-        <stp>出来高</stp>
-        <tr r="H21" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>1486</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>772</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp>
+        <v>1853.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>530.29999999999995</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp>
+        <v>1980</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F20" s="1"/>
+      </tp>
+      <tp>
+        <v>2644.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>4118</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>1910</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値</stp>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>1461.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値</stp>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>2120.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値</stp>
+        <tr r="E14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>村田製作所</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+      <tp>
+        <v>2903.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F17" s="1"/>
+      </tp>
+      <tp>
+        <v>345.4</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3408</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>713.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>3389</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E15" s="1"/>
+      </tp>
+      <tp>
+        <v>2472.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>フジクラ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp>
+        <v>1969</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F18" s="1"/>
+      </tp>
+      <tp>
+        <v>1368.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>778.1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>529.9</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>347</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>2453.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F16" s="1"/>
+      </tp>
+      <tp>
+        <v>2769</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>720.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>7820</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>アステラス製薬</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日立</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>東京電力ＨＤ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソフトバンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日本製鉄</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>5164300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>出来高</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>3641100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>8479100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>6616200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>4733900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>3532200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>12067400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>12482300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>7187600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>3660300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>出来高</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>6389600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>出来高</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>2917700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>出来高</stp>
-        <tr r="H14" s="1"/>
-      </tp>
-      <tp>
-        <v>25840400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H15" s="1"/>
-      </tp>
-      <tp>
-        <v>17386900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>3799800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>1966.5</v>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>2890.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E17" s="1"/>
+      </tp>
+      <tp>
+        <v>1976.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1027,16 +1417,7 @@
         <tr r="E18" s="1"/>
       </tp>
       <tp>
-        <v>2898.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E17" s="1"/>
-      </tp>
-      <tp>
-        <v>1376.5</v>
+        <v>1370.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1044,10 +1425,44 @@
         <stp>現在値</stp>
         <tr r="E19" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>221.9</v>
+      <tp t="s">
+        <v>ルネサスエレクトロニクス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>楽天グループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>パナソニックホールディンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp>
+        <v>550.70000000000005</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>220</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1056,16 +1471,7 @@
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>518</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>1982.5</v>
+        <v>2006</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1073,309 +1479,272 @@
         <stp>現在値</stp>
         <tr r="E20" s="1"/>
       </tp>
+      <tp t="s">
+        <v>ＬＩＮＥヤフー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>2407</v>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>2086</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp t="s">
+        <v>川崎汽船</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp>
+        <v>7410</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>1377.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp t="s">
+        <v>ＥＮＥＯＳホールディングス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>住友化学</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp t="s">
+        <v>15:24:57</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>528.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>772.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>1382.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>346</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>2731.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>714.3</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>7390</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>1851.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>1495</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-      <tp>
-        <v>2637</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>3972</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>2083</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-      <tp>
-        <v>2447.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E16" s="1"/>
-      </tp>
-      <tp>
-        <v>3406</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E15" s="1"/>
-      </tp>
-      <tp>
-        <v>524.9</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>773</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp>
-        <v>1512</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F13" s="1"/>
-      </tp>
-      <tp>
-        <v>1894.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>2780.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp>
-        <v>222.2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>2425</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>541</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>4026</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>1402</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2678</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>2484.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>2015.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp>
-        <v>2919.5</v>
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F17" s="1"/>
-      </tp>
-      <tp>
-        <v>3395</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F15" s="1"/>
-      </tp>
-      <tp>
-        <v>352.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>723.2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D17" s="1"/>
       </tp>
       <tp t="s">
         <v>15:24:59</v>
@@ -1391,50 +1760,21 @@
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:57</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
         <stp>88010.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D19" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>フジクラ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp>
-        <v>2007</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
+    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D22" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -1449,371 +1789,9 @@
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
         <stp>91070.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>村田製作所</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>ＬＩＮＥヤフー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>ルネサスエレクトロニクス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>パナソニックホールディンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>楽天グループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:56</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソフトバンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日本製鉄</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>東京電力ＨＤ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日立</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>アステラス製薬</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B18" s="1"/>
-      </tp>
-      <tp>
-        <v>1378</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F19" s="1"/>
-      </tp>
-      <tp>
-        <v>7520</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>ＥＮＥＯＳホールディングス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>住友化学</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B17" s="1"/>
-      </tp>
-      <tp>
-        <v>2130.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.dc360425323d4d88a891645635e8764a">
-      <tp t="s">
-        <v>川崎汽船</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B20" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2193,27 +2171,27 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:57</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2407</v>
+        <v>2421</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2425</v>
+        <v>2409.5</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-18</v>
+        <v>11.5</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>3799800</v>
+        <v>2526500</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -2226,7 +2204,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -2234,19 +2212,19 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>352.8</v>
+        <v>345.4</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>-6.8</v>
+        <v>1.6</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>5164300</v>
+        <v>4430700</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -2259,7 +2237,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -2267,19 +2245,19 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1382.5</v>
+        <v>1368.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1402</v>
+        <v>1382</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>-19.5</v>
+        <v>-13.5</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>3641100</v>
+        <v>4185400</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2292,27 +2270,27 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
-        <v>15:24:56</v>
+        <v>15:24:58</v>
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>528.6</v>
+        <v>529.9</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>524.9</v>
+        <v>530.29999999999995</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>3.7</v>
+        <v>-0.4</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>6616200</v>
+        <v>7309800</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2325,27 +2303,27 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>772.6</v>
+        <v>778.1</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>-0.4</v>
+        <v>6.1</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>8479100</v>
+        <v>10533300</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2358,7 +2336,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -2366,19 +2344,19 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>714.3</v>
+        <v>720.6</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>723.2</v>
+        <v>713.8</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>-8.9</v>
+        <v>6.8</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>4733900</v>
+        <v>7637500</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2391,27 +2369,27 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>2731.5</v>
+        <v>2769</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>2780.5</v>
+        <v>2736</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>-49</v>
+        <v>33</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>3532200</v>
+        <v>3372400</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2424,7 +2402,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
@@ -2432,19 +2410,19 @@
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>7390</v>
+        <v>7820</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>7520</v>
+        <v>7410</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>-130</v>
+        <v>410</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>12067400</v>
+        <v>16031500</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2457,7 +2435,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
@@ -2465,19 +2443,19 @@
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>3972</v>
+        <v>4118</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>4026</v>
+        <v>3977</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>-54</v>
+        <v>141</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>7187600</v>
+        <v>8352400</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2490,7 +2468,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
@@ -2498,19 +2476,19 @@
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>2637</v>
+        <v>2644.5</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>2678</v>
+        <v>2637</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>-41</v>
+        <v>7.5</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>12482300</v>
+        <v>14641800</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2523,27 +2501,27 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.RssMarket($A12, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>_xll.RssMarket($A12, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E12" s="8">
         <f>_xll.RssMarket($A12, E$1)</f>
-        <v>1851.5</v>
+        <v>1910</v>
       </c>
       <c r="F12" s="8">
         <f>_xll.RssMarket($A12, F$1)</f>
-        <v>1894.5</v>
+        <v>1853.5</v>
       </c>
       <c r="G12" s="8">
         <f>_xll.RssMarket($A12, G$1)</f>
-        <v>-43</v>
+        <v>56.5</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.RssMarket($A12, H$1)</f>
-        <v>6389600</v>
+        <v>8954100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2556,7 +2534,7 @@
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.RssMarket($A13, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>_xll.RssMarket($A13, D$1)</f>
@@ -2564,19 +2542,19 @@
       </c>
       <c r="E13" s="8">
         <f>_xll.RssMarket($A13, E$1)</f>
-        <v>1495</v>
+        <v>1461.5</v>
       </c>
       <c r="F13" s="8">
         <f>_xll.RssMarket($A13, F$1)</f>
-        <v>1512</v>
+        <v>1486</v>
       </c>
       <c r="G13" s="8">
         <f>_xll.RssMarket($A13, G$1)</f>
-        <v>-17</v>
+        <v>-24.5</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.RssMarket($A13, H$1)</f>
-        <v>3660300</v>
+        <v>7538800</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2589,7 +2567,7 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.RssMarket($A14, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>_xll.RssMarket($A14, D$1)</f>
@@ -2597,19 +2575,19 @@
       </c>
       <c r="E14" s="8">
         <f>_xll.RssMarket($A14, E$1)</f>
-        <v>2083</v>
+        <v>2120.5</v>
       </c>
       <c r="F14" s="8">
         <f>_xll.RssMarket($A14, F$1)</f>
-        <v>2130.5</v>
+        <v>2086</v>
       </c>
       <c r="G14" s="8">
         <f>_xll.RssMarket($A14, G$1)</f>
-        <v>-47.5</v>
+        <v>34.5</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.RssMarket($A14, H$1)</f>
-        <v>2917700</v>
+        <v>2863200</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2622,7 +2600,7 @@
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.RssMarket($A15, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>_xll.RssMarket($A15, D$1)</f>
@@ -2630,19 +2608,19 @@
       </c>
       <c r="E15" s="8">
         <f>_xll.RssMarket($A15, E$1)</f>
-        <v>3406</v>
+        <v>3389</v>
       </c>
       <c r="F15" s="8">
         <f>_xll.RssMarket($A15, F$1)</f>
-        <v>3395</v>
+        <v>3408</v>
       </c>
       <c r="G15" s="8">
         <f>_xll.RssMarket($A15, G$1)</f>
-        <v>11</v>
+        <v>-19</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.RssMarket($A15, H$1)</f>
-        <v>25840400</v>
+        <v>24078700</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2655,7 +2633,7 @@
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.RssMarket($A16, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>_xll.RssMarket($A16, D$1)</f>
@@ -2663,19 +2641,19 @@
       </c>
       <c r="E16" s="8">
         <f>_xll.RssMarket($A16, E$1)</f>
-        <v>2447.5</v>
+        <v>2472.5</v>
       </c>
       <c r="F16" s="8">
         <f>_xll.RssMarket($A16, F$1)</f>
-        <v>2484.5</v>
+        <v>2453.5</v>
       </c>
       <c r="G16" s="8">
         <f>_xll.RssMarket($A16, G$1)</f>
-        <v>-37</v>
+        <v>19</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.RssMarket($A16, H$1)</f>
-        <v>17386900</v>
+        <v>23264700</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2688,7 +2666,7 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.RssMarket($A17, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>_xll.RssMarket($A17, D$1)</f>
@@ -2696,19 +2674,19 @@
       </c>
       <c r="E17" s="8">
         <f>_xll.RssMarket($A17, E$1)</f>
-        <v>2898.5</v>
+        <v>2890.5</v>
       </c>
       <c r="F17" s="8">
         <f>_xll.RssMarket($A17, F$1)</f>
-        <v>2919.5</v>
+        <v>2903.5</v>
       </c>
       <c r="G17" s="8">
         <f>_xll.RssMarket($A17, G$1)</f>
-        <v>-21</v>
+        <v>-13</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.RssMarket($A17, H$1)</f>
-        <v>4763200</v>
+        <v>7340500</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2721,7 +2699,7 @@
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.RssMarket($A18, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>_xll.RssMarket($A18, D$1)</f>
@@ -2729,19 +2707,19 @@
       </c>
       <c r="E18" s="8">
         <f>_xll.RssMarket($A18, E$1)</f>
-        <v>1966.5</v>
+        <v>1976.5</v>
       </c>
       <c r="F18" s="8">
         <f>_xll.RssMarket($A18, F$1)</f>
-        <v>2015.5</v>
+        <v>1969</v>
       </c>
       <c r="G18" s="8">
         <f>_xll.RssMarket($A18, G$1)</f>
-        <v>-49</v>
+        <v>7.5</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.RssMarket($A18, H$1)</f>
-        <v>37032000</v>
+        <v>25122300</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2754,27 +2732,27 @@
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.RssMarket($A19, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>_xll.RssMarket($A19, D$1)</f>
-        <v>15:24:57</v>
+        <v>15:24:59</v>
       </c>
       <c r="E19" s="8">
         <f>_xll.RssMarket($A19, E$1)</f>
-        <v>1376.5</v>
+        <v>1370.5</v>
       </c>
       <c r="F19" s="8">
         <f>_xll.RssMarket($A19, F$1)</f>
-        <v>1378</v>
+        <v>1377.5</v>
       </c>
       <c r="G19" s="8">
         <f>_xll.RssMarket($A19, G$1)</f>
-        <v>-1.5</v>
+        <v>-7</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.RssMarket($A19, H$1)</f>
-        <v>2409000</v>
+        <v>3578400</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2787,7 +2765,7 @@
       </c>
       <c r="C20" s="7" t="str">
         <f>_xll.RssMarket($A20, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>_xll.RssMarket($A20, D$1)</f>
@@ -2795,19 +2773,19 @@
       </c>
       <c r="E20" s="8">
         <f>_xll.RssMarket($A20, E$1)</f>
-        <v>1982.5</v>
+        <v>2006</v>
       </c>
       <c r="F20" s="8">
         <f>_xll.RssMarket($A20, F$1)</f>
-        <v>2007</v>
+        <v>1980</v>
       </c>
       <c r="G20" s="8">
         <f>_xll.RssMarket($A20, G$1)</f>
-        <v>-24.5</v>
+        <v>26</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.RssMarket($A20, H$1)</f>
-        <v>3420400</v>
+        <v>2936600</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2820,7 +2798,7 @@
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.RssMarket($A21, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>_xll.RssMarket($A21, D$1)</f>
@@ -2828,7 +2806,7 @@
       </c>
       <c r="E21" s="8">
         <f>_xll.RssMarket($A21, E$1)</f>
-        <v>221.9</v>
+        <v>220</v>
       </c>
       <c r="F21" s="8">
         <f>_xll.RssMarket($A21, F$1)</f>
@@ -2836,11 +2814,11 @@
       </c>
       <c r="G21" s="8">
         <f>_xll.RssMarket($A21, G$1)</f>
-        <v>-0.3</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.RssMarket($A21, H$1)</f>
-        <v>24027900</v>
+        <v>30165100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2853,7 +2831,7 @@
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.RssMarket($A22, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>_xll.RssMarket($A22, D$1)</f>
@@ -2861,19 +2839,19 @@
       </c>
       <c r="E22" s="8">
         <f>_xll.RssMarket($A22, E$1)</f>
-        <v>518</v>
+        <v>550.70000000000005</v>
       </c>
       <c r="F22" s="8">
         <f>_xll.RssMarket($A22, F$1)</f>
-        <v>541</v>
+        <v>518.1</v>
       </c>
       <c r="G22" s="8">
         <f>_xll.RssMarket($A22, G$1)</f>
-        <v>-23</v>
+        <v>32.6</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.RssMarket($A22, H$1)</f>
-        <v>68895500</v>
+        <v>139180000</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FE2935-EA76-4CB2-A2DE-98BAD8CA4637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C71923F-082D-4538-B08D-6AC82D41169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12975" yWindow="315" windowWidth="15735" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="13065" yWindow="675" windowWidth="15735" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -417,9 +417,272 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>11.5</v>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G19" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G17" s="1"/>
+      </tp>
+      <tp>
+        <v>15</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G18" s="1"/>
+      </tp>
+      <tp>
+        <v>32.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>前日比</stp>
+        <tr r="G20" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.3</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>前日比</stp>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>-10.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -427,10 +690,62 @@
         <stp>前日比</stp>
         <tr r="G2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>19</v>
+      <tp>
+        <v>33</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日比</stp>
+        <tr r="G14" s="1"/>
+      </tp>
+      <tp>
+        <v>-34</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>-102</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>3.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日比</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>42.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日比</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>-99</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G15" s="1"/>
+      </tp>
+      <tp>
+        <v>18.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -439,65 +754,52 @@
         <tr r="G16" s="1"/>
       </tp>
       <tp>
-        <v>-19</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
+        <v>10.199999999999999</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
         <stp>前日比</stp>
-        <tr r="G15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>56.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>17</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
         <stp>前日比</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>-24.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>2.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
         <stp>前日比</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>7.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>5.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
         <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>141</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>-179</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
         <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>34.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日比</stp>
-        <tr r="G14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>6.8</v>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>19.2</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -506,7 +808,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>33</v>
+        <v>44</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -514,304 +816,311 @@
         <stp>前日比</stp>
         <tr r="G8" s="1"/>
       </tp>
-      <tp>
-        <v>410</v>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>12:50:44</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:44</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:44</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:44</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:43</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D18" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:35</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:43</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>58030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>1.6</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:38</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:44</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>12:50:40</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:44</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:42</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:43</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>40050.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>6.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>-13.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>26</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:45</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:43</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:39</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:27</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:44</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:35</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>12:50:44</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>12:50:36</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp>
+        <v>3004100</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>91070.T</stp>
-        <stp>前日比</stp>
-        <tr r="G20" s="1"/>
-      </tp>
-      <tp>
-        <v>32.6</v>
+        <stp>出来高</stp>
+        <tr r="H20" s="1"/>
+      </tp>
+      <tp>
+        <v>67988900</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>95010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-      <tp>
-        <v>-2.2000000000000002</v>
+        <stp>出来高</stp>
+        <tr r="H22" s="1"/>
+      </tp>
+      <tp>
+        <v>15005700</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>94340.T</stp>
-        <stp>前日比</stp>
-        <tr r="G21" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>7.5</v>
+        <stp>出来高</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>2553700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H19" s="1"/>
+      </tp>
+      <tp>
+        <v>3892000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp>
+        <v>14984200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G18" s="1"/>
-      </tp>
-      <tp>
-        <v>-13</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G17" s="1"/>
-      </tp>
-      <tp>
-        <v>-7</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
+        <stp>出来高</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp>
+        <v>20577000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
+        <stp>出来高</stp>
+        <tr r="H15" s="1"/>
+      </tp>
+      <tp>
+        <v>18128200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
+        <stp>出来高</stp>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp>
+        <v>2418900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>出来高</stp>
+        <tr r="H14" s="1"/>
+      </tp>
+      <tp>
+        <v>4633100</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>11281700</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>9546700</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67230.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-      <tp>
-        <v>7538800</v>
+        <stp>出来高</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>4791600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -820,61 +1129,34 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>8954100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
+        <v>12569400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
         <stp>出来高</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>14641800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>6987700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
         <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>8352400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>3155700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
         <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>2863200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>出来高</stp>
-        <tr r="H14" s="1"/>
-      </tp>
-      <tp>
-        <v>23264700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H16" s="1"/>
-      </tp>
-      <tp>
-        <v>24078700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H15" s="1"/>
-      </tp>
-      <tp>
-        <v>4430700</v>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>5472100</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -883,7 +1165,25 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>7309800</v>
+        <v>3111000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>6159900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>5814200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -892,54 +1192,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>10533300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>4185400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>7637500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>3372400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>16031500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>2526500</v>
+        <v>2105300</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -947,66 +1200,374 @@
         <stp>出来高</stp>
         <tr r="H2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>25122300</v>
+      <tp t="s">
+        <v>ＬＩＮＥヤフー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>楽天グループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>パナソニックホールディンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ルネサスエレクトロニクス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>219.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>現在値</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>546.79999999999995</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>2037</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>91070.T</stp>
+        <stp>現在値</stp>
+        <tr r="E20" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日本製鉄</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソフトバンク</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>94340.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>1372</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E19" s="1"/>
+      </tp>
+      <tp>
+        <v>1982</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H18" s="1"/>
-      </tp>
-      <tp>
-        <v>7340500</v>
+        <stp>現在値</stp>
+        <tr r="E18" s="1"/>
+      </tp>
+      <tp>
+        <v>2889.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H17" s="1"/>
-      </tp>
-      <tp>
-        <v>3578400</v>
+        <stp>現在値</stp>
+        <tr r="E17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>東京電力ＨＤ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>95010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B22" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>日立</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>アステラス製薬</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B17" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>住友化学</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ＥＮＥＯＳホールディングス</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp>
+        <v>1367</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H19" s="1"/>
-      </tp>
-      <tp>
-        <v>2936600</v>
+        <stp>前日終値</stp>
+        <tr r="F19" s="1"/>
+      </tp>
+      <tp>
+        <v>7815</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>川崎汽船</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>91070.T</stp>
-        <stp>出来高</stp>
-        <tr r="H20" s="1"/>
-      </tp>
-      <tp>
-        <v>30165100</v>
+        <stp>銘柄名称</stp>
+        <tr r="B20" s="1"/>
+      </tp>
+      <tp>
+        <v>2121.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>529</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>2408</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>1904</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>1463</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>778.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>47550.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>2418.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>219.9</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>94340.T</stp>
-        <stp>出来高</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>139180000</v>
+        <stp>前日終値</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>2761</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>2640.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>550</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>95010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>1382</v>
+        <stp>前日終値</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>4119</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>1365</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1014,784 +1575,233 @@
         <stp>前日終値</stp>
         <tr r="F4" s="1"/>
       </tp>
-      <tp>
-        <v>3977</v>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>2483.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E16" s="1"/>
+      </tp>
+      <tp>
+        <v>3280</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E15" s="1"/>
+      </tp>
+      <tp>
+        <v>2465</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F16" s="1"/>
+      </tp>
+      <tp>
+        <v>2154.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>現在値</stp>
+        <tr r="E14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>1466.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67520.T</stp>
+        <stp>現在値</stp>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>1946.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67230.T</stp>
+        <stp>現在値</stp>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>4085</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>2538.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>1967</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
         <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>518.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
+        <tr r="F18" s="1"/>
+      </tp>
+      <tp>
+        <v>7636</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>2805</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>54010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>739.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>フジクラ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>58030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp>
+        <v>720.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>50200.T</stp>
         <stp>前日終値</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>2637</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>3379</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
         <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>2421</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>347.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2893</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp>
+        <v>531.6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>46890.T</stp>
         <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>2736</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp>
-        <v>2409.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>222.2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>1486</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F13" s="1"/>
-      </tp>
-      <tp>
-        <v>772</v>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>784.1</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>47550.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp>
-        <v>1853.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>530.29999999999995</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp>
-        <v>1980</v>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>1382</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>45030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>357.8</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>40050.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c8707f0dba4146b2b36e9fd33bcdbf27">
+      <tp t="s">
+        <v>村田製作所</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>69810.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+      <tp>
+        <v>2004.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>91070.T</stp>
         <stp>前日終値</stp>
         <tr r="F20" s="1"/>
-      </tp>
-      <tp>
-        <v>2644.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>4118</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>1910</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>1461.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-      <tp>
-        <v>2120.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>村田製作所</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-      <tp>
-        <v>2903.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F17" s="1"/>
-      </tp>
-      <tp>
-        <v>345.4</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3408</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F15" s="1"/>
-      </tp>
-      <tp>
-        <v>713.8</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>3389</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E15" s="1"/>
-      </tp>
-      <tp>
-        <v>2472.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>フジクラ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B19" s="1"/>
-      </tp>
-      <tp>
-        <v>1969</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F18" s="1"/>
-      </tp>
-      <tp>
-        <v>1368.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>778.1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>529.9</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>347</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>2453.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F16" s="1"/>
-      </tp>
-      <tp>
-        <v>2769</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>720.6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>7820</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>アステラス製薬</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日立</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>東京電力ＨＤ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソフトバンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日本製鉄</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>2890.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E17" s="1"/>
-      </tp>
-      <tp>
-        <v>1976.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E18" s="1"/>
-      </tp>
-      <tp>
-        <v>1370.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ルネサスエレクトロニクス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>楽天グループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>パナソニックホールディンク</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-      <tp>
-        <v>550.70000000000005</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>220</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>2006</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値</stp>
-        <tr r="E20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ＬＩＮＥヤフー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>2086</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp t="s">
-        <v>川崎汽船</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp>
-        <v>7410</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp>
-        <v>1377.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp t="s">
-        <v>ＥＮＥＯＳホールディングス</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>住友化学</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>47550.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>46890.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>40050.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>50200.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>58030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67230.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67520.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp t="s">
-        <v>15:24:57</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b3885c86266240feadc52c5d0f3fa84e">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>95010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>94340.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D20" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2171,27 +2181,27 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:57</v>
+        <v>12:50:36</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2421</v>
+        <v>2408</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2409.5</v>
+        <v>2418.5</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>11.5</v>
+        <v>-10.5</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>2526500</v>
+        <v>2105300</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -2204,27 +2214,27 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:43</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>347</v>
+        <v>357.8</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>345.4</v>
+        <v>347.6</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>1.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>4430700</v>
+        <v>5472100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -2237,27 +2247,27 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:42</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1368.5</v>
+        <v>1382</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1382</v>
+        <v>1365</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>-13.5</v>
+        <v>17</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>4185400</v>
+        <v>3111000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2270,27 +2280,27 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
-        <v>15:24:58</v>
+        <v>12:50:40</v>
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>529.9</v>
+        <v>531.6</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>530.29999999999995</v>
+        <v>529</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>-0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>7309800</v>
+        <v>5814200</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2303,27 +2313,27 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:44</v>
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>778.1</v>
+        <v>784.1</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>772</v>
+        <v>778.5</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>10533300</v>
+        <v>6159900</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2336,27 +2346,27 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:44</v>
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>720.6</v>
+        <v>739.8</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>713.8</v>
+        <v>720.6</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>6.8</v>
+        <v>19.2</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>7637500</v>
+        <v>6987700</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2369,27 +2379,27 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:38</v>
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>2769</v>
+        <v>2805</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>2736</v>
+        <v>2761</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>3372400</v>
+        <v>3155700</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2402,27 +2412,27 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:43</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>7820</v>
+        <v>7636</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>7410</v>
+        <v>7815</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>410</v>
+        <v>-179</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>16031500</v>
+        <v>12569400</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2435,27 +2445,27 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:35</v>
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>4118</v>
+        <v>4085</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>3977</v>
+        <v>4119</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>141</v>
+        <v>-34</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>8352400</v>
+        <v>4633100</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2468,27 +2478,27 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:44</v>
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>2644.5</v>
+        <v>2538.5</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>2637</v>
+        <v>2640.5</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>7.5</v>
+        <v>-102</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>14641800</v>
+        <v>11281700</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2501,27 +2511,27 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.RssMarket($A12, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>_xll.RssMarket($A12, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:44</v>
       </c>
       <c r="E12" s="8">
         <f>_xll.RssMarket($A12, E$1)</f>
-        <v>1910</v>
+        <v>1946.5</v>
       </c>
       <c r="F12" s="8">
         <f>_xll.RssMarket($A12, F$1)</f>
-        <v>1853.5</v>
+        <v>1904</v>
       </c>
       <c r="G12" s="8">
         <f>_xll.RssMarket($A12, G$1)</f>
-        <v>56.5</v>
+        <v>42.5</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.RssMarket($A12, H$1)</f>
-        <v>8954100</v>
+        <v>9546700</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2534,27 +2544,27 @@
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.RssMarket($A13, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>_xll.RssMarket($A13, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:27</v>
       </c>
       <c r="E13" s="8">
         <f>_xll.RssMarket($A13, E$1)</f>
-        <v>1461.5</v>
+        <v>1466.5</v>
       </c>
       <c r="F13" s="8">
         <f>_xll.RssMarket($A13, F$1)</f>
-        <v>1486</v>
+        <v>1463</v>
       </c>
       <c r="G13" s="8">
         <f>_xll.RssMarket($A13, G$1)</f>
-        <v>-24.5</v>
+        <v>3.5</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.RssMarket($A13, H$1)</f>
-        <v>7538800</v>
+        <v>4791600</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2567,27 +2577,27 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.RssMarket($A14, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>_xll.RssMarket($A14, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:39</v>
       </c>
       <c r="E14" s="8">
         <f>_xll.RssMarket($A14, E$1)</f>
-        <v>2120.5</v>
+        <v>2154.5</v>
       </c>
       <c r="F14" s="8">
         <f>_xll.RssMarket($A14, F$1)</f>
-        <v>2086</v>
+        <v>2121.5</v>
       </c>
       <c r="G14" s="8">
         <f>_xll.RssMarket($A14, G$1)</f>
-        <v>34.5</v>
+        <v>33</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.RssMarket($A14, H$1)</f>
-        <v>2863200</v>
+        <v>2418900</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2600,27 +2610,27 @@
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.RssMarket($A15, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>_xll.RssMarket($A15, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:43</v>
       </c>
       <c r="E15" s="8">
         <f>_xll.RssMarket($A15, E$1)</f>
-        <v>3389</v>
+        <v>3280</v>
       </c>
       <c r="F15" s="8">
         <f>_xll.RssMarket($A15, F$1)</f>
-        <v>3408</v>
+        <v>3379</v>
       </c>
       <c r="G15" s="8">
         <f>_xll.RssMarket($A15, G$1)</f>
-        <v>-19</v>
+        <v>-99</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.RssMarket($A15, H$1)</f>
-        <v>24078700</v>
+        <v>20577000</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2633,27 +2643,27 @@
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.RssMarket($A16, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>_xll.RssMarket($A16, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:45</v>
       </c>
       <c r="E16" s="8">
         <f>_xll.RssMarket($A16, E$1)</f>
-        <v>2472.5</v>
+        <v>2483.5</v>
       </c>
       <c r="F16" s="8">
         <f>_xll.RssMarket($A16, F$1)</f>
-        <v>2453.5</v>
+        <v>2465</v>
       </c>
       <c r="G16" s="8">
         <f>_xll.RssMarket($A16, G$1)</f>
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.RssMarket($A16, H$1)</f>
-        <v>23264700</v>
+        <v>18128200</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2666,27 +2676,27 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.RssMarket($A17, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>_xll.RssMarket($A17, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:35</v>
       </c>
       <c r="E17" s="8">
         <f>_xll.RssMarket($A17, E$1)</f>
-        <v>2890.5</v>
+        <v>2889.5</v>
       </c>
       <c r="F17" s="8">
         <f>_xll.RssMarket($A17, F$1)</f>
-        <v>2903.5</v>
+        <v>2893</v>
       </c>
       <c r="G17" s="8">
         <f>_xll.RssMarket($A17, G$1)</f>
-        <v>-13</v>
+        <v>-3.5</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.RssMarket($A17, H$1)</f>
-        <v>7340500</v>
+        <v>3892000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2699,27 +2709,27 @@
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.RssMarket($A18, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>_xll.RssMarket($A18, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:43</v>
       </c>
       <c r="E18" s="8">
         <f>_xll.RssMarket($A18, E$1)</f>
-        <v>1976.5</v>
+        <v>1982</v>
       </c>
       <c r="F18" s="8">
         <f>_xll.RssMarket($A18, F$1)</f>
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="G18" s="8">
         <f>_xll.RssMarket($A18, G$1)</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.RssMarket($A18, H$1)</f>
-        <v>25122300</v>
+        <v>14984200</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2732,27 +2742,27 @@
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.RssMarket($A19, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>_xll.RssMarket($A19, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:44</v>
       </c>
       <c r="E19" s="8">
         <f>_xll.RssMarket($A19, E$1)</f>
-        <v>1370.5</v>
+        <v>1372</v>
       </c>
       <c r="F19" s="8">
         <f>_xll.RssMarket($A19, F$1)</f>
-        <v>1377.5</v>
+        <v>1367</v>
       </c>
       <c r="G19" s="8">
         <f>_xll.RssMarket($A19, G$1)</f>
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.RssMarket($A19, H$1)</f>
-        <v>3578400</v>
+        <v>2553700</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2765,27 +2775,27 @@
       </c>
       <c r="C20" s="7" t="str">
         <f>_xll.RssMarket($A20, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>_xll.RssMarket($A20, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:44</v>
       </c>
       <c r="E20" s="8">
         <f>_xll.RssMarket($A20, E$1)</f>
-        <v>2006</v>
+        <v>2037</v>
       </c>
       <c r="F20" s="8">
         <f>_xll.RssMarket($A20, F$1)</f>
-        <v>1980</v>
+        <v>2004.5</v>
       </c>
       <c r="G20" s="8">
         <f>_xll.RssMarket($A20, G$1)</f>
-        <v>26</v>
+        <v>32.5</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.RssMarket($A20, H$1)</f>
-        <v>2936600</v>
+        <v>3004100</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2798,27 +2808,27 @@
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.RssMarket($A21, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>_xll.RssMarket($A21, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:44</v>
       </c>
       <c r="E21" s="8">
         <f>_xll.RssMarket($A21, E$1)</f>
-        <v>220</v>
+        <v>219.6</v>
       </c>
       <c r="F21" s="8">
         <f>_xll.RssMarket($A21, F$1)</f>
-        <v>222.2</v>
+        <v>219.9</v>
       </c>
       <c r="G21" s="8">
         <f>_xll.RssMarket($A21, G$1)</f>
-        <v>-2.2000000000000002</v>
+        <v>-0.3</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.RssMarket($A21, H$1)</f>
-        <v>30165100</v>
+        <v>15005700</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2831,27 +2841,27 @@
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.RssMarket($A22, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>_xll.RssMarket($A22, D$1)</f>
-        <v>15:24:59</v>
+        <v>12:50:44</v>
       </c>
       <c r="E22" s="8">
         <f>_xll.RssMarket($A22, E$1)</f>
-        <v>550.70000000000005</v>
+        <v>546.79999999999995</v>
       </c>
       <c r="F22" s="8">
         <f>_xll.RssMarket($A22, F$1)</f>
-        <v>518.1</v>
+        <v>550</v>
       </c>
       <c r="G22" s="8">
         <f>_xll.RssMarket($A22, G$1)</f>
-        <v>32.6</v>
+        <v>-3.2</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.RssMarket($A22, H$1)</f>
-        <v>139180000</v>
+        <v>67988900</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635A5455-E362-47E8-BDE4-E408C9E78A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC0CB78-1999-43E3-AF3C-CE375906F9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16320" yWindow="195" windowWidth="12450" windowHeight="15330" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <volType type="realTimeData">
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -396,7 +396,7 @@
         <tr r="C10" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -405,7 +405,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -414,7 +414,7 @@
         <tr r="C12" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -423,7 +423,7 @@
         <tr r="C11" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -434,7 +434,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -445,7 +445,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>30</v>
+        <v>-166</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -454,7 +454,7 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>399</v>
+        <v>-42</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -463,7 +463,7 @@
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>28</v>
+        <v>45.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -472,7 +472,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>11</v>
+        <v>7</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -481,7 +481,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -490,7 +490,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -499,7 +499,7 @@
         <tr r="C5" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -508,7 +508,7 @@
         <tr r="C3" s="1"/>
       </tp>
       <tp>
-        <v>-35</v>
+        <v>-26</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -517,7 +517,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>-41</v>
+        <v>95</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -526,7 +526,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>-26</v>
+        <v>58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -535,7 +535,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -544,7 +544,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -553,7 +553,7 @@
         <tr r="C6" s="1"/>
       </tp>
       <tp>
-        <v>108.5</v>
+        <v>16.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -562,7 +562,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>45.5</v>
+        <v>49</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -573,7 +573,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>4</v>
+        <v>23.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -584,7 +584,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>-13</v>
+        <v>33</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -593,7 +593,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>38.5</v>
+        <v>13.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -602,7 +602,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>6.5</v>
+        <v>57.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -611,7 +611,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -622,7 +622,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp t="s">
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -633,7 +633,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>6450200</v>
+        <v>5799000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -642,7 +642,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>3877200</v>
+        <v>6002200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -651,7 +651,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>29563500</v>
+        <v>17035000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -660,7 +660,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>9274000</v>
+        <v>7063000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -669,7 +669,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>46001000</v>
+        <v>32384000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -678,7 +678,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>30969000</v>
+        <v>20819300</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -687,7 +687,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>55966800</v>
+        <v>47559300</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -696,7 +696,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>3760600</v>
+        <v>14849200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -705,7 +705,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>26678300</v>
+        <v>10963900</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -714,7 +714,7 @@
         <tr r="H2" s="1"/>
       </tp>
       <tp>
-        <v>9335400</v>
+        <v>9516300</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -723,7 +723,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>38214000</v>
+        <v>40777200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -732,7 +732,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>10158000</v>
+        <v>8556000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -741,7 +741,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>3821400</v>
+        <v>5387600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -750,7 +750,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>2441</v>
+        <v>2275</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -759,7 +759,7 @@
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>2210</v>
+        <v>2168</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -768,7 +768,7 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>1604.5</v>
+        <v>1611.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -779,7 +779,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>2937</v>
+        <v>2982.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -790,7 +790,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>2884</v>
+        <v>2900.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -799,7 +799,7 @@
         <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>2359</v>
+        <v>2408</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -808,7 +808,7 @@
         <tr r="E7" s="1"/>
       </tp>
       <tp>
-        <v>2680</v>
+        <v>2775</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -817,7 +817,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>1545.5</v>
+        <v>1603.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -826,7 +826,7 @@
         <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>3892</v>
+        <v>3866</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -835,7 +835,7 @@
         <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>2116</v>
+        <v>2129.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -844,7 +844,7 @@
         <tr r="E12" s="1"/>
       </tp>
       <tp>
-        <v>3082</v>
+        <v>3115</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -853,7 +853,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>1499</v>
+        <v>1556.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -864,7 +864,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>2181.5</v>
+        <v>2205</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -875,7 +875,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -884,7 +884,7 @@
         <tr r="D6" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -895,7 +895,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -904,7 +904,7 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -913,7 +913,7 @@
         <tr r="D10" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -924,7 +924,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>1593.5</v>
+        <v>1604.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -933,7 +933,7 @@
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>2775.5</v>
+        <v>2884</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -944,7 +944,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -955,7 +955,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>2909</v>
+        <v>2937</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -964,7 +964,7 @@
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>1811</v>
+        <v>2210</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -975,7 +975,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>2411</v>
+        <v>2441</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -984,7 +984,7 @@
         <tr r="F3" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -995,7 +995,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>2077.5</v>
+        <v>2116</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1004,7 +1004,7 @@
         <tr r="F12" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1013,7 +1013,7 @@
         <tr r="D3" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:56</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1024,7 +1024,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>1571.5</v>
+        <v>1545.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1033,7 +1033,7 @@
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>2721</v>
+        <v>2680</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1044,7 +1044,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>2177.5</v>
+        <v>2181.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1064,7 +1064,7 @@
         <tr r="B7" s="1"/>
       </tp>
       <tp>
-        <v>3095</v>
+        <v>3082</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1073,7 +1073,7 @@
         <tr r="F11" s="1"/>
       </tp>
       <tp>
-        <v>3927</v>
+        <v>3892</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1173,7 +1173,7 @@
         <tr r="B10" s="1"/>
       </tp>
       <tp>
-        <v>2313.5</v>
+        <v>2359</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1184,7 +1184,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1193,7 +1193,7 @@
         <tr r="D12" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1202,7 +1202,7 @@
         <tr r="D11" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1224,7 +1224,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
-        <v>1492.5</v>
+        <v>1499</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1235,7 +1235,7 @@
     </main>
     <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -1641,27 +1641,27 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:56</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2210</v>
+        <v>2168</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>1811</v>
+        <v>2210</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>399</v>
+        <v>-42</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>26678300</v>
+        <v>10963900</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1674,27 +1674,27 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2441</v>
+        <v>2275</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2411</v>
+        <v>2441</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>30</v>
+        <v>-166</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>3760600</v>
+        <v>14849200</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1707,27 +1707,27 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1604.5</v>
+        <v>1611.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1593.5</v>
+        <v>1604.5</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>6450200</v>
+        <v>5799000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1740,27 +1740,27 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:58</v>
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>2937</v>
+        <v>2982.5</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>2909</v>
+        <v>2937</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>28</v>
+        <v>45.5</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>3877200</v>
+        <v>6002200</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1773,27 +1773,27 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>2884</v>
+        <v>2900.5</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>2775.5</v>
+        <v>2884</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>108.5</v>
+        <v>16.5</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>29563500</v>
+        <v>17035000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1806,27 +1806,27 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>2359</v>
+        <v>2408</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>2313.5</v>
+        <v>2359</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>45.5</v>
+        <v>49</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>9274000</v>
+        <v>7063000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1839,27 +1839,27 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>3892</v>
+        <v>3866</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>3927</v>
+        <v>3892</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>-35</v>
+        <v>-26</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>46001000</v>
+        <v>32384000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1872,27 +1872,27 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>2680</v>
+        <v>2775</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>2721</v>
+        <v>2680</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>-41</v>
+        <v>95</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>55966800</v>
+        <v>47559300</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1905,27 +1905,27 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>1545.5</v>
+        <v>1603.5</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>1571.5</v>
+        <v>1545.5</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>-26</v>
+        <v>58</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>30969000</v>
+        <v>20819300</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1938,27 +1938,27 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>3082</v>
+        <v>3115</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>3095</v>
+        <v>3082</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>-13</v>
+        <v>33</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>9335400</v>
+        <v>9516300</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1971,27 +1971,27 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.RssMarket($A12, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>_xll.RssMarket($A12, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E12" s="8">
         <f>_xll.RssMarket($A12, E$1)</f>
-        <v>2116</v>
+        <v>2129.5</v>
       </c>
       <c r="F12" s="8">
         <f>_xll.RssMarket($A12, F$1)</f>
-        <v>2077.5</v>
+        <v>2116</v>
       </c>
       <c r="G12" s="8">
         <f>_xll.RssMarket($A12, G$1)</f>
-        <v>38.5</v>
+        <v>13.5</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.RssMarket($A12, H$1)</f>
-        <v>38214000</v>
+        <v>40777200</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2004,27 +2004,27 @@
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.RssMarket($A13, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>_xll.RssMarket($A13, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E13" s="8">
         <f>_xll.RssMarket($A13, E$1)</f>
-        <v>1499</v>
+        <v>1556.5</v>
       </c>
       <c r="F13" s="8">
         <f>_xll.RssMarket($A13, F$1)</f>
-        <v>1492.5</v>
+        <v>1499</v>
       </c>
       <c r="G13" s="8">
         <f>_xll.RssMarket($A13, G$1)</f>
-        <v>6.5</v>
+        <v>57.5</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.RssMarket($A13, H$1)</f>
-        <v>10158000</v>
+        <v>8556000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.RssMarket($A14, C$1)</f>
-        <v>2025/08/07</v>
+        <v>2025/08/08</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>_xll.RssMarket($A14, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E14" s="8">
         <f>_xll.RssMarket($A14, E$1)</f>
-        <v>2181.5</v>
+        <v>2205</v>
       </c>
       <c r="F14" s="8">
         <f>_xll.RssMarket($A14, F$1)</f>
-        <v>2177.5</v>
+        <v>2181.5</v>
       </c>
       <c r="G14" s="8">
         <f>_xll.RssMarket($A14, G$1)</f>
-        <v>4</v>
+        <v>23.5</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.RssMarket($A14, H$1)</f>
-        <v>3821400</v>
+        <v>5387600</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC0CB78-1999-43E3-AF3C-CE375906F9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02D71B-3A41-4BC8-A3D3-AB536DFE9B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="195" windowWidth="12450" windowHeight="15330" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="12930" yWindow="195" windowWidth="15840" windowHeight="15330" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>7011</t>
     <phoneticPr fontId="1"/>
@@ -131,22 +131,10 @@
     <t>前日終値</t>
   </si>
   <si>
-    <t>5401</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6526</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9107</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4503</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>8801</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -156,10 +144,6 @@
   </si>
   <si>
     <t>8058</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6981</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -182,6 +166,10 @@
   </si>
   <si>
     <t>2413</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6758</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -385,7 +373,96 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>2025/08/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>2025/08/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>2025/08/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>2025/08/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>2025/08/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/08</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
       <tp t="s">
         <v>2025/08/08</v>
         <stp/>
@@ -393,59 +470,55 @@
         <stp>STOCK</stp>
         <stp>72670.T</stp>
         <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp>
+        <v>61</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>93</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>-20</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>-166</v>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>135</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>27.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>-171</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -454,7 +527,7 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>-42</v>
+        <v>-41</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -463,240 +536,132 @@
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>45.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
+        <v>60</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
         <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>7</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>13.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
         <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>-26</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>95</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>44</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
         <stp>前日比</stp>
         <tr r="G9" s="1"/>
       </tp>
-      <tp>
-        <v>58</v>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72670.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp>
-        <v>16.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>49</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>23.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日比</stp>
-        <tr r="G14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>33</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>13.5</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>57.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>5799000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>6002200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>17035000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>7063000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>32384000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>20819300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>47559300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>14849200</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp>
+        <v>15423700</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -705,7 +670,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>10963900</v>
+        <v>11829500</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -714,43 +679,219 @@
         <tr r="H2" s="1"/>
       </tp>
       <tp>
-        <v>9516300</v>
+        <v>34056600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>17629400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>52683900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>26288800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>34016900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>11581800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>45279500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>11482200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
         <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>40777200</v>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>1499</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp>
+        <v>2911.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp>
+        <v>3995</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>本田技研</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp>
+        <v>3872</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>1606.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>2773</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>8556000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>5387600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>出来高</stp>
-        <tr r="H14" s="1"/>
-      </tp>
-      <tp>
-        <v>2275</v>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>エムスリー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp>
+        <v>2270</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -759,7 +900,7 @@
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>2168</v>
+        <v>2169</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -767,201 +908,85 @@
         <stp>現在値</stp>
         <tr r="E2" s="1"/>
       </tp>
-      <tp>
-        <v>1611.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>2982.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>2900.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>2408</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>2775</v>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp t="s">
+        <v>ソニーグループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp>
+        <v>3892</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp>
+        <v>3082</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp>
+        <v>2680</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>1603.5</v>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>1545.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72670.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>3866</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>2129.5</v>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp>
+        <v>2116</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>3115</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp>
+        <v>1559</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
         <stp>現在値</stp>
         <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>1556.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>2205</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>1604.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2884</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>2937</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
       </tp>
       <tp>
         <v>2210</v>
@@ -972,8 +997,6 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
       <tp>
         <v>2441</v>
         <stp/>
@@ -983,285 +1006,45 @@
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
       </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>2116</v>
+      <tp>
+        <v>3126</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>2129.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp>
+        <v>2884</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
         <stp>前日終値</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:56</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>1545.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+      <tp>
+        <v>3860</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
         <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>2680</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>2181.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>村田製作所</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp>
-        <v>3082</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>3892</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>アステラス製薬</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>45030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>日本製鉄</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>54010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>エムスリー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>本田技研</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp>
-        <v>2359</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>69810.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>川崎汽船</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp>
-        <v>1499</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>91070.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6368b27370848ccbaf18d146f2a4737">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
+        <tr r="F5" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1586,11 +1369,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EB8444-48DA-48DA-A81F-4EF7D3D3E7A0}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
@@ -1600,7 +1383,7 @@
     <col min="3" max="3" width="14.625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
@@ -1625,15 +1408,15 @@
         <v>9</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>_xll.RssMarket($A2, B$1)</f>
@@ -1645,11 +1428,11 @@
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:56</v>
+        <v>15:30:00</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
@@ -1657,16 +1440,16 @@
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>10963900</v>
+        <v>11829500</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="str">
         <f>_xll.RssMarket($A3, B$1)</f>
@@ -1678,11 +1461,11 @@
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
@@ -1690,20 +1473,20 @@
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>-166</v>
+        <v>-171</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>14849200</v>
+        <v>15423700</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="str">
         <f>_xll.RssMarket($A4, B$1)</f>
-        <v>アステラス製薬</v>
+        <v>ソシオネクスト</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
@@ -1711,32 +1494,32 @@
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1611.5</v>
+        <v>2911.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1604.5</v>
+        <v>2884</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>7</v>
+        <v>27.5</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>5799000</v>
+        <v>17629400</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="str">
         <f>_xll.RssMarket($A5, B$1)</f>
-        <v>日本製鉄</v>
+        <v>ソニーグループ</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
@@ -1744,32 +1527,32 @@
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:30:00</v>
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>2982.5</v>
+        <v>3995</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>2937</v>
+        <v>3860</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>45.5</v>
+        <v>135</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>6002200</v>
+        <v>34056600</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B6" s="6" t="str">
         <f>_xll.RssMarket($A6, B$1)</f>
-        <v>ソシオネクスト</v>
+        <v>三菱重工業</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
@@ -1777,32 +1560,32 @@
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>2900.5</v>
+        <v>3872</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>2884</v>
+        <v>3892</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>16.5</v>
+        <v>-20</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>17035000</v>
+        <v>34016900</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B7" s="6" t="str">
         <f>_xll.RssMarket($A7, B$1)</f>
-        <v>村田製作所</v>
+        <v>トヨタ自動車</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
@@ -1810,32 +1593,32 @@
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>2408</v>
+        <v>2773</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>2359</v>
+        <v>2680</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>7063000</v>
+        <v>52683900</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="str">
         <f>_xll.RssMarket($A8, B$1)</f>
-        <v>三菱重工業</v>
+        <v>本田技研</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
@@ -1843,32 +1626,32 @@
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>3866</v>
+        <v>1606.5</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>3892</v>
+        <v>1545.5</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>-26</v>
+        <v>61</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>32384000</v>
+        <v>26288800</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="str">
         <f>_xll.RssMarket($A9, B$1)</f>
-        <v>トヨタ自動車</v>
+        <v>三菱商事</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
@@ -1876,32 +1659,32 @@
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>2775</v>
+        <v>3126</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>2680</v>
+        <v>3082</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>47559300</v>
+        <v>11482200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>_xll.RssMarket($A10, B$1)</f>
-        <v>本田技研</v>
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
@@ -1909,32 +1692,32 @@
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>1603.5</v>
+        <v>2129.5</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>1545.5</v>
+        <v>2116</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>58</v>
+        <v>13.5</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>20819300</v>
+        <v>45279500</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="str">
         <f>_xll.RssMarket($A11, B$1)</f>
-        <v>三菱商事</v>
+        <v>三井不動産</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
@@ -1942,152 +1725,53 @@
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>3115</v>
+        <v>1559</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>3082</v>
+        <v>1499</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>9516300</v>
+        <v>11581800</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6" t="str">
-        <f>_xll.RssMarket($A12, B$1)</f>
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-      </c>
-      <c r="C12" s="7" t="str">
-        <f>_xll.RssMarket($A12, C$1)</f>
-        <v>2025/08/08</v>
-      </c>
-      <c r="D12" s="7" t="str">
-        <f>_xll.RssMarket($A12, D$1)</f>
-        <v>15:24:59</v>
-      </c>
-      <c r="E12" s="8">
-        <f>_xll.RssMarket($A12, E$1)</f>
-        <v>2129.5</v>
-      </c>
-      <c r="F12" s="8">
-        <f>_xll.RssMarket($A12, F$1)</f>
-        <v>2116</v>
-      </c>
-      <c r="G12" s="8">
-        <f>_xll.RssMarket($A12, G$1)</f>
-        <v>13.5</v>
-      </c>
-      <c r="H12" s="8">
-        <f>_xll.RssMarket($A12, H$1)</f>
-        <v>40777200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6" t="str">
-        <f>_xll.RssMarket($A13, B$1)</f>
-        <v>三井不動産</v>
-      </c>
-      <c r="C13" s="7" t="str">
-        <f>_xll.RssMarket($A13, C$1)</f>
-        <v>2025/08/08</v>
-      </c>
-      <c r="D13" s="7" t="str">
-        <f>_xll.RssMarket($A13, D$1)</f>
-        <v>15:24:59</v>
-      </c>
-      <c r="E13" s="8">
-        <f>_xll.RssMarket($A13, E$1)</f>
-        <v>1556.5</v>
-      </c>
-      <c r="F13" s="8">
-        <f>_xll.RssMarket($A13, F$1)</f>
-        <v>1499</v>
-      </c>
-      <c r="G13" s="8">
-        <f>_xll.RssMarket($A13, G$1)</f>
-        <v>57.5</v>
-      </c>
-      <c r="H13" s="8">
-        <f>_xll.RssMarket($A13, H$1)</f>
-        <v>8556000</v>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="str">
-        <f>_xll.RssMarket($A14, B$1)</f>
-        <v>川崎汽船</v>
-      </c>
-      <c r="C14" s="7" t="str">
-        <f>_xll.RssMarket($A14, C$1)</f>
-        <v>2025/08/08</v>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f>_xll.RssMarket($A14, D$1)</f>
-        <v>15:24:59</v>
-      </c>
-      <c r="E14" s="8">
-        <f>_xll.RssMarket($A14, E$1)</f>
-        <v>2205</v>
-      </c>
-      <c r="F14" s="8">
-        <f>_xll.RssMarket($A14, F$1)</f>
-        <v>2181.5</v>
-      </c>
-      <c r="G14" s="8">
-        <f>_xll.RssMarket($A14, G$1)</f>
-        <v>23.5</v>
-      </c>
-      <c r="H14" s="8">
-        <f>_xll.RssMarket($A14, H$1)</f>
-        <v>5387600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="15"/>
+      <c r="B14" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02D71B-3A41-4BC8-A3D3-AB536DFE9B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99250AB8-7BE1-46FA-8F06-7CCAE6FC94C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="195" windowWidth="15840" windowHeight="15330" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="12975" yWindow="150" windowWidth="15840" windowHeight="10155" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -373,9 +373,157 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp t="s">
-        <v>2025/08/08</v>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp t="s">
+        <v>2025/08/12</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/12</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/12</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/12</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp>
+        <v>72.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>35</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>83</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>104.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp t="s">
+        <v>2025/08/12</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/12</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/12</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/12</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/12</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp>
+        <v>43</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日比</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp t="s">
+        <v>2025/08/12</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -383,160 +531,26 @@
         <stp>現在日付</stp>
         <tr r="C11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
+      <tp>
+        <v>89.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>52</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/08</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp>
-        <v>61</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
         <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>93</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>-20</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>135</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>27.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>-171</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>-41</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>前日比</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-      <tp>
-        <v>60</v>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -544,28 +558,198 @@
         <stp>前日比</stp>
         <tr r="G11" s="1"/>
       </tp>
-      <tp>
-        <v>13.5</v>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp>
+        <v>7013600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>5874600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+      <tp>
+        <v>17307500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>22447700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>19843200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>35356400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>28645800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>81740800</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>44</v>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>9485200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp t="s">
-        <v>15:30:00</v>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>8442100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp>
+        <v>3016</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>3995</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>3955</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>2845.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>1641.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp>
+        <v>2313</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>2227</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp>
+        <v>3178</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>2219</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>1557</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -574,7 +758,7 @@
         <tr r="D3" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -582,10 +766,68 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp t="s">
-        <v>15:30:00</v>
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp>
+        <v>3126</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>3872</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp>
+        <v>1606.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>2773</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp>
+        <v>2129.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp t="s">
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -594,7 +836,7 @@
         <tr r="D4" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -602,10 +844,28 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D5" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp t="s">
-        <v>15:30:00</v>
+      <tp>
+        <v>2169</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>2270</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -614,7 +874,16 @@
         <tr r="D6" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -622,19 +891,77 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D8" s="1"/>
       </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
+      <tp>
+        <v>2911.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp>
+        <v>3995</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp>
+        <v>1559</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
         <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp t="s">
-        <v>15:30:00</v>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -643,166 +970,14 @@
         <tr r="D11" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp>
-        <v>15423700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>出来高</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>11829500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-      <tp>
-        <v>34056600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>17629400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>52683900</v>
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>26288800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>34016900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>11581800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>45279500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>11482200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>1499</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp>
-        <v>2911.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp>
-        <v>3995</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+        <tr r="B7" s="1"/>
+      </tp>
       <tp t="s">
         <v>本田技研</v>
         <stp/>
@@ -812,44 +987,8 @@
         <stp>銘柄名称</stp>
         <tr r="B8" s="1"/>
       </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp>
-        <v>3872</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>1606.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>2773</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
       <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
@@ -860,7 +999,7 @@
         <tr r="B10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
       <tp t="s">
         <v>ディー・エヌ・エー</v>
         <stp/>
@@ -880,7 +1019,7 @@
         <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
       <tp t="s">
         <v>ソシオネクスト</v>
         <stp/>
@@ -890,26 +1029,8 @@
         <stp>銘柄名称</stp>
         <tr r="B4" s="1"/>
       </tp>
-      <tp>
-        <v>2270</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>2169</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
+    </main>
+    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
       <tp t="s">
         <v>ソニーグループ</v>
         <stp/>
@@ -918,133 +1039,6 @@
         <stp>67580.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp>
-        <v>3892</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp>
-        <v>3082</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp>
-        <v>2680</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>1545.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp>
-        <v>2116</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp>
-        <v>1559</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>2210</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2441</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3126</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>2129.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp>
-        <v>2884</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.599c11f6b35d4131bdf8482d811d2d0e">
-      <tp>
-        <v>3860</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1424,27 +1418,27 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/08/08</v>
+        <v>2025/08/12</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2169</v>
+        <v>2227</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2210</v>
+        <v>2169</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-41</v>
+        <v>58</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>11829500</v>
+        <v>5874600</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1457,27 +1451,27 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/08/08</v>
+        <v>2025/08/12</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2270</v>
+        <v>2313</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2441</v>
+        <v>2270</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>-171</v>
+        <v>43</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>15423700</v>
+        <v>7013600</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1490,27 +1484,27 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/08/08</v>
+        <v>2025/08/12</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:58</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2911.5</v>
+        <v>3016</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2884</v>
+        <v>2911.5</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>27.5</v>
+        <v>104.5</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>17629400</v>
+        <v>22447700</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1523,11 +1517,11 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/08/08</v>
+        <v>2025/08/12</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
@@ -1535,15 +1529,15 @@
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>3860</v>
+        <v>3995</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>34056600</v>
+        <v>17307500</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1556,27 +1550,27 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/08/08</v>
+        <v>2025/08/12</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>3872</v>
+        <v>3955</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>3892</v>
+        <v>3872</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>-20</v>
+        <v>83</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>34016900</v>
+        <v>28645800</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1589,27 +1583,27 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/08/08</v>
+        <v>2025/08/12</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>2773</v>
+        <v>2845.5</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>2680</v>
+        <v>2773</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>93</v>
+        <v>72.5</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>52683900</v>
+        <v>35356400</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1622,27 +1616,27 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/08/08</v>
+        <v>2025/08/12</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>1606.5</v>
+        <v>1641.5</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>1545.5</v>
+        <v>1606.5</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>26288800</v>
+        <v>19843200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1655,27 +1649,27 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/08/08</v>
+        <v>2025/08/12</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>3126</v>
+        <v>3178</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>3082</v>
+        <v>3126</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>11482200</v>
+        <v>9485200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1688,27 +1682,27 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/08/08</v>
+        <v>2025/08/12</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>2129.5</v>
+        <v>2219</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>2116</v>
+        <v>2129.5</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>13.5</v>
+        <v>89.5</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>45279500</v>
+        <v>81740800</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1721,27 +1715,27 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/08/08</v>
+        <v>2025/08/12</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>1499</v>
+        <v>1559</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>60</v>
+        <v>-2</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>11581800</v>
+        <v>8442100</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99250AB8-7BE1-46FA-8F06-7CCAE6FC94C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5CB425-7E1D-45FD-A71C-190BBF1542A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12975" yWindow="150" windowWidth="15840" windowHeight="10155" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="12960" yWindow="150" windowWidth="15840" windowHeight="10155" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -373,9 +373,65 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp t="s">
-        <v>2025/08/12</v>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp t="s">
+        <v>2025/08/13</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp t="s">
+        <v>2025/08/13</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/13</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/13</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/13</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/13</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/13</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -384,7 +440,16 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/12</v>
+        <v>2025/08/13</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/13</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -392,17 +457,10 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/08/12</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/12</v>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp t="s">
+        <v>2025/08/13</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -411,7 +469,79 @@
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>72.5</v>
+        <v>-3</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>-35.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日比</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+      <tp>
+        <v>-51</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>154</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>187</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>-6</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>10</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -420,16 +550,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>35</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>83</v>
+        <v>149</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -437,131 +558,185 @@
         <stp>前日比</stp>
         <tr r="G6" s="1"/>
       </tp>
-      <tp>
-        <v>0</v>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>104.5</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>6164300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>49665300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>7026400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>31075300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>15501800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>44334200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>15093000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>19465900</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp t="s">
-        <v>2025/08/12</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/12</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/12</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/12</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/12</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp>
-        <v>43</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>58</v>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>3897800</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24130.T</stp>
-        <stp>前日比</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp t="s">
-        <v>2025/08/12</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>89.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>52</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp>
-        <v>-2</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp>
-        <v>7013600</v>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+      <tp>
+        <v>5232200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -569,91 +744,253 @@
         <stp>出来高</stp>
         <tr r="H3" s="1"/>
       </tp>
-      <tp>
-        <v>5874600</v>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp t="s">
+        <v>エムスリー</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24130.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-      <tp>
-        <v>17307500</v>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp>
+        <v>1564</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>3172</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>2220</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp t="s">
+        <v>ソニーグループ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>22447700</v>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp>
+        <v>1567</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp t="s">
+        <v>本田技研</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp>
+        <v>2320</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2236</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp>
+        <v>3026</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>19843200</v>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2200.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2269</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp>
+        <v>3992</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp>
+        <v>3960</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp>
+        <v>3173</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>4109</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>1642.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72670.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>35356400</v>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>2865</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>28645800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>81740800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>9485200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>8442100</v>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp t="s">
+        <v>三井不動産</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp>
-        <v>3016</v>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp>
+        <v>3213</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -662,7 +999,7 @@
         <tr r="E4" s="1"/>
       </tp>
       <tp>
-        <v>3995</v>
+        <v>4146</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -670,133 +1007,19 @@
         <stp>現在値</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp>
-        <v>3955</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>2845.5</v>
+    </main>
+    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
+      <tp>
+        <v>2855</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>1641.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp>
-        <v>2313</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>2227</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp>
-        <v>3178</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>2219</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>1557</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp>
-        <v>3126</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
         <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp>
-        <v>3872</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp>
-        <v>1606.5</v>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>1648.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -805,240 +1028,13 @@
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>2773</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp>
-        <v>2129.5</v>
+        <v>2223.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>前日終値</stp>
         <tr r="F10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp>
-        <v>2169</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2270</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp>
-        <v>2911.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp>
-        <v>3995</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp>
-        <v>1559</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>本田技研</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>エムスリー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.41e48eb356e847b692392638b0e0b7e5">
-      <tp t="s">
-        <v>ソニーグループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1418,7 +1414,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/08/12</v>
+        <v>2025/08/13</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -1426,19 +1422,19 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2227</v>
+        <v>2200.5</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2169</v>
+        <v>2236</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>58</v>
+        <v>-35.5</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>5874600</v>
+        <v>3897800</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1451,7 +1447,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/08/12</v>
+        <v>2025/08/13</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -1459,19 +1455,19 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2313</v>
+        <v>2269</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2270</v>
+        <v>2320</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>43</v>
+        <v>-51</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>7013600</v>
+        <v>5232200</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1484,27 +1480,27 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/08/12</v>
+        <v>2025/08/13</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>3016</v>
+        <v>3213</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2911.5</v>
+        <v>3026</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>104.5</v>
+        <v>187</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>22447700</v>
+        <v>19465900</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1517,7 +1513,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/08/12</v>
+        <v>2025/08/13</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
@@ -1525,19 +1521,19 @@
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>3995</v>
+        <v>4146</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>3995</v>
+        <v>3992</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>17307500</v>
+        <v>15093000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1550,7 +1546,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/08/12</v>
+        <v>2025/08/13</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
@@ -1558,19 +1554,19 @@
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>3955</v>
+        <v>4109</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>3872</v>
+        <v>3960</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>28645800</v>
+        <v>44334200</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1583,7 +1579,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/08/12</v>
+        <v>2025/08/13</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -1591,19 +1587,19 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>2845.5</v>
+        <v>2865</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>2773</v>
+        <v>2855</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>72.5</v>
+        <v>10</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>35356400</v>
+        <v>31075300</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1616,7 +1612,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/08/12</v>
+        <v>2025/08/13</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
@@ -1624,19 +1620,19 @@
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>1641.5</v>
+        <v>1642.5</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>1606.5</v>
+        <v>1648.5</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>35</v>
+        <v>-6</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>19843200</v>
+        <v>15501800</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1649,7 +1645,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/08/12</v>
+        <v>2025/08/13</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
@@ -1657,19 +1653,19 @@
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>3178</v>
+        <v>3172</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>3126</v>
+        <v>3173</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>9485200</v>
+        <v>7026400</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1682,7 +1678,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/08/12</v>
+        <v>2025/08/13</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
@@ -1690,19 +1686,19 @@
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>2129.5</v>
+        <v>2223.5</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>89.5</v>
+        <v>-3.5</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>81740800</v>
+        <v>49665300</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1715,27 +1711,27 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/08/12</v>
+        <v>2025/08/13</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>1557</v>
+        <v>1564</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>1559</v>
+        <v>1567</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>8442100</v>
+        <v>6164300</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5CB425-7E1D-45FD-A71C-190BBF1542A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE7640-C4A2-4C98-A77E-AB38DF67279C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12960" yWindow="150" windowWidth="15840" windowHeight="10155" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -373,9 +373,186 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp t="s">
-        <v>2025/08/13</v>
+    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+      <tp>
+        <v>63.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日比</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+      <tp>
+        <v>6.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>-67</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>-269.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>-67</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>-24</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>-233</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>12.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>-71</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>-10</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+      <tp t="s">
+        <v>2025/08/14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+      <tp t="s">
+        <v>2025/08/14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+      <tp t="s">
+        <v>2025/08/14</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -384,657 +561,470 @@
         <tr r="C11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp t="s">
-        <v>2025/08/13</v>
+    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+      <tp>
+        <v>9753600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>16326600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>44665100</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/13</v>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>10701300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>17208200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>5278000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+      <tp>
+        <v>3346200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>48379800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>6669200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/13</v>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>4181300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>2262.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>3217</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>4130</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp>
+        <v>2263.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2269</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3179</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>4110</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+      <tp>
+        <v>1644</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>2875</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>3877</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>2808</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>1620</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>2224</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/13</v>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>2947.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>4063</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>エムスリー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp>
+        <v>3108</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>2236.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>1551</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+      <tp t="s">
+        <v>ソニーグループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp>
+        <v>1561</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/13</v>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>本田技研</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72670.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/13</v>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/13</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+      <tp t="s">
+        <v>15:24:55</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:57</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/13</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp t="s">
-        <v>2025/08/13</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp>
-        <v>-3</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.5</v>
+    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp>
-        <v>-35.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>前日比</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-      <tp>
-        <v>-51</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>154</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>187</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>-6</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>10</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>149</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp t="s">
-        <v>15:24:58</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp>
-        <v>6164300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>49665300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>7026400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>31075300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>15501800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>44334200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>15093000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>19465900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>3897800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-      <tp>
-        <v>5232200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>出来高</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp t="s">
-        <v>エムスリー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp>
-        <v>1564</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>3172</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>2220</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp t="s">
-        <v>ソニーグループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp>
-        <v>1567</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp t="s">
-        <v>本田技研</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp>
-        <v>2320</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>2236</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp>
-        <v>3026</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2200.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2269</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp>
-        <v>3992</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp>
-        <v>3960</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp>
-        <v>3173</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp>
-        <v>4109</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>1642.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>2865</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp>
-        <v>3213</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>4146</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.91d0661d6f35401ebfb9bc03f5bdaaf8">
-      <tp>
-        <v>2855</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>1648.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp>
-        <v>2223.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1414,27 +1404,27 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/08/13</v>
+        <v>2025/08/14</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:55</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2200.5</v>
+        <v>2263.5</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2236</v>
+        <v>2200</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-35.5</v>
+        <v>63.5</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>3897800</v>
+        <v>5278000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1447,11 +1437,11 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/08/13</v>
+        <v>2025/08/14</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:57</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
@@ -1459,15 +1449,15 @@
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2320</v>
+        <v>2262.5</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>-51</v>
+        <v>6.5</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>5232200</v>
+        <v>3346200</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1480,7 +1470,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/08/13</v>
+        <v>2025/08/14</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -1488,19 +1478,19 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>3213</v>
+        <v>2947.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>3026</v>
+        <v>3217</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>187</v>
+        <v>-269.5</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>19465900</v>
+        <v>17208200</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1513,7 +1503,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/08/13</v>
+        <v>2025/08/14</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
@@ -1521,19 +1511,19 @@
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>4146</v>
+        <v>4063</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>3992</v>
+        <v>4130</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>154</v>
+        <v>-67</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>15093000</v>
+        <v>10701300</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1546,7 +1536,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/08/13</v>
+        <v>2025/08/14</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
@@ -1554,19 +1544,19 @@
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>4109</v>
+        <v>3877</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>3960</v>
+        <v>4110</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>149</v>
+        <v>-233</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>44334200</v>
+        <v>44665100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1579,7 +1569,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/08/13</v>
+        <v>2025/08/14</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -1587,19 +1577,19 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>2865</v>
+        <v>2808</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>2855</v>
+        <v>2875</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>10</v>
+        <v>-67</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>31075300</v>
+        <v>16326600</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1612,7 +1602,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/08/13</v>
+        <v>2025/08/14</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
@@ -1620,19 +1610,19 @@
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>1642.5</v>
+        <v>1620</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>1648.5</v>
+        <v>1644</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>-6</v>
+        <v>-24</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>15501800</v>
+        <v>9753600</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1645,27 +1635,27 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/08/13</v>
+        <v>2025/08/14</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>3172</v>
+        <v>3108</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>3173</v>
+        <v>3179</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>-1</v>
+        <v>-71</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>7026400</v>
+        <v>6669200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1678,7 +1668,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/08/13</v>
+        <v>2025/08/14</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
@@ -1686,19 +1676,19 @@
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>2220</v>
+        <v>2236.5</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>2223.5</v>
+        <v>2224</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>-3.5</v>
+        <v>12.5</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>49665300</v>
+        <v>48379800</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1711,27 +1701,27 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/08/13</v>
+        <v>2025/08/14</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>1564</v>
+        <v>1551</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>6164300</v>
+        <v>4181300</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE7640-C4A2-4C98-A77E-AB38DF67279C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B822091-5F58-4784-8E95-062B6A8BF726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12960" yWindow="150" windowWidth="15840" windowHeight="10155" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -373,9 +373,65 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
-      <tp>
-        <v>63.5</v>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp>
+        <v>33</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>49</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>12.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>228</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp>
+        <v>23.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>-14.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -383,62 +439,28 @@
         <stp>前日比</stp>
         <tr r="G2" s="1"/>
       </tp>
-      <tp>
-        <v>6.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp>
+        <v>28.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
         <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>-67</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>49</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
         <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>-269.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>-67</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>-24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>-233</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>12.5</v>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>132</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -446,28 +468,84 @@
         <stp>前日比</stp>
         <tr r="G10" s="1"/>
       </tp>
-      <tp>
-        <v>-71</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp>
-        <v>-10</v>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp t="s">
+        <v>2025/08/15</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
-      <tp t="s">
-        <v>2025/08/14</v>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp t="s">
+        <v>2025/08/15</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/15</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/15</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/15</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/15</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/15</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/15</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/15</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -476,7 +554,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/14</v>
+        <v>2025/08/15</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -484,86 +562,55 @@
         <stp>現在日付</stp>
         <tr r="C6" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/08/14</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
-      <tp t="s">
-        <v>2025/08/14</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/14</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/14</v>
+      <tp>
+        <v>2826800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>2831500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp>
+        <v>16234600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/14</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/14</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/14</v>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>14520000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
-      <tp t="s">
-        <v>2025/08/14</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
-      <tp>
-        <v>9753600</v>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>26400700</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>8545500</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -572,7 +619,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>16326600</v>
+        <v>16419000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -580,53 +627,28 @@
         <stp>出来高</stp>
         <tr r="H7" s="1"/>
       </tp>
-      <tp>
-        <v>44665100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp>
+        <v>7387300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
         <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>10701300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>7569800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
         <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>17208200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>5278000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-      <tp>
-        <v>3346200</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>出来高</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>48379800</v>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>89553800</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -634,26 +656,297 @@
         <stp>出来高</stp>
         <tr r="H10" s="1"/>
       </tp>
-      <tp>
-        <v>6669200</v>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp>
+        <v>4298</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>2973</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>本田技研</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp>
+        <v>2854</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>1636</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>3909</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱商事</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>4181300</v>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp>
+        <v>1551.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>2262.5</v>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp t="s">
+        <v>ソニーグループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp>
+        <v>2289.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>2249.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>エムスリー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp>
+        <v>2239.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp>
+        <v>1623.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp>
+        <v>2805</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp>
+        <v>3110</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>3876</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp>
+        <v>4070</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp>
+        <v>1580</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>2371.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>3159</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>2947</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp>
+        <v>2264</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>2266</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -661,275 +954,64 @@
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
       </tp>
-      <tp>
-        <v>2200</v>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24130.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>3217</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>4130</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp>
-        <v>2263.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2269</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3179</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp>
-        <v>4110</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
-      <tp>
-        <v>1644</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72670.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp>
-        <v>2875</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>3877</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>2808</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>1620</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>2224</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>2947.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>4063</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>エムスリー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp>
-        <v>3108</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>2236.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>1551</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
-      <tp t="s">
-        <v>ソニーグループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp>
-        <v>1561</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>本田技研</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -944,87 +1026,27 @@
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
-        <stp>72030.T</stp>
+        <stp>88010.T</stp>
         <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
         <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
-      <tp t="s">
-        <v>15:24:55</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:57</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2991c452e264410aa9c9bddfcf1d208e">
-      <tp t="s">
-        <v>15:24:58</v>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1404,27 +1426,27 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/08/14</v>
+        <v>2025/08/15</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:55</v>
+        <v>15:24:59</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2263.5</v>
+        <v>2249.5</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2200</v>
+        <v>2264</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>63.5</v>
+        <v>-14.5</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>5278000</v>
+        <v>2831500</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1437,27 +1459,27 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/08/14</v>
+        <v>2025/08/15</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:57</v>
+        <v>15:24:59</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2269</v>
+        <v>2289.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2262.5</v>
+        <v>2266</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>6.5</v>
+        <v>23.5</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>3346200</v>
+        <v>2826800</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1470,7 +1492,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/08/14</v>
+        <v>2025/08/15</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -1478,19 +1500,19 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2947.5</v>
+        <v>2973</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>3217</v>
+        <v>2947</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>-269.5</v>
+        <v>26</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>17208200</v>
+        <v>16234600</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1503,7 +1525,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/08/14</v>
+        <v>2025/08/15</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
@@ -1511,19 +1533,19 @@
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>4063</v>
+        <v>4298</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>4130</v>
+        <v>4070</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>-67</v>
+        <v>228</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>10701300</v>
+        <v>14520000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1536,7 +1558,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/08/14</v>
+        <v>2025/08/15</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
@@ -1544,19 +1566,19 @@
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>3877</v>
+        <v>3909</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>4110</v>
+        <v>3876</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>-233</v>
+        <v>33</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>44665100</v>
+        <v>26400700</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1569,7 +1591,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/08/14</v>
+        <v>2025/08/15</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -1577,19 +1599,19 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>2808</v>
+        <v>2854</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>2875</v>
+        <v>2805</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>-67</v>
+        <v>49</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>16326600</v>
+        <v>16419000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1602,7 +1624,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/08/14</v>
+        <v>2025/08/15</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
@@ -1610,19 +1632,19 @@
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>1620</v>
+        <v>1636</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>1644</v>
+        <v>1623.5</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>-24</v>
+        <v>12.5</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>9753600</v>
+        <v>8545500</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1635,27 +1657,27 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/08/14</v>
+        <v>2025/08/15</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>3108</v>
+        <v>3159</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>3179</v>
+        <v>3110</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>-71</v>
+        <v>49</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>6669200</v>
+        <v>7569800</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1668,7 +1690,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/08/14</v>
+        <v>2025/08/15</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
@@ -1676,19 +1698,19 @@
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>2236.5</v>
+        <v>2371.5</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>2224</v>
+        <v>2239.5</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>12.5</v>
+        <v>132</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>48379800</v>
+        <v>89553800</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1701,7 +1723,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/08/14</v>
+        <v>2025/08/15</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
@@ -1709,19 +1731,19 @@
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>1551</v>
+        <v>1580</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>1561</v>
+        <v>1551.5</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>-10</v>
+        <v>28.5</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>4181300</v>
+        <v>7387300</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B822091-5F58-4784-8E95-062B6A8BF726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791189CA-C1A7-4851-93E3-FB0D091E728A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="150" windowWidth="15840" windowHeight="10155" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="17685" yWindow="30" windowWidth="11115" windowHeight="9780" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>7011</t>
     <phoneticPr fontId="1"/>
@@ -172,6 +172,10 @@
     <t>6758</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -180,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,9 +377,47 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp>
-        <v>33</v>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>87</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日比</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+      <tp>
+        <v>24.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>45</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>24.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>36</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -384,25 +426,16 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>49</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
+        <v>-109</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
         <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>12.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>26</v>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>-47</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -411,38 +444,25 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>228</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
+        <v>-55.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
         <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp>
-        <v>23.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>36</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
         <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>-14.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>前日比</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp>
-        <v>28.5</v>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>8.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -450,28 +470,93 @@
         <stp>前日比</stp>
         <tr r="G11" s="1"/>
       </tp>
-      <tp>
-        <v>49</v>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp t="s">
+        <v>2025/08/18</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp>
-        <v>132</v>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/18</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/18</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp t="s">
-        <v>2025/08/15</v>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/18</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/18</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/18</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/18</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/18</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/18</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp t="s">
+        <v>2025/08/18</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -480,90 +565,65 @@
         <tr r="C11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp t="s">
-        <v>2025/08/15</v>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>13328200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/15</v>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>10639000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>13042400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>18875900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>31903600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>4105300</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24130.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/15</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/15</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/15</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/15</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/15</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/15</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/15</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp>
-        <v>2826800</v>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+      <tp>
+        <v>3055600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -571,66 +631,28 @@
         <stp>出来高</stp>
         <tr r="H3" s="1"/>
       </tp>
-      <tp>
-        <v>2831500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>48165900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
         <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp>
-        <v>16234600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>6798900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
         <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>14520000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>26400700</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>8545500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>16419000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp>
-        <v>7387300</v>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>4038000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -638,26 +660,293 @@
         <stp>出来高</stp>
         <tr r="H11" s="1"/>
       </tp>
-      <tp>
-        <v>7569800</v>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>2284.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>2243.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>2969</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2330.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2309</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>4292</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>3167</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>89553800</v>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>3910</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>2922</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>4183</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>1637.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>2854</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>3946</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>2899</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>1662</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>2374</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>エムスリー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp>
+        <v>3203</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>2318.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>1586</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp t="s">
+        <v>ソニーグループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp>
+        <v>1577.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>本田技研</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
       <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
@@ -667,297 +956,66 @@
         <stp>銘柄名称</stp>
         <tr r="B10" s="1"/>
       </tp>
-      <tp>
-        <v>4298</v>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>2973</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp t="s">
-        <v>トヨタ自動車</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>本田技研</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72670.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp>
-        <v>2854</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>1636</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>3909</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp>
-        <v>1551.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp t="s">
-        <v>ソニーグループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp>
-        <v>2289.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>2249.5</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24130.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>エムスリー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp>
-        <v>2239.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp>
-        <v>1623.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp>
-        <v>2805</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp>
-        <v>3110</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp>
-        <v>3876</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp>
-        <v>4070</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp>
-        <v>1580</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>2371.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>3159</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>2947</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp>
-        <v>2264</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2266</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp t="s">
-        <v>15:24:59</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -965,88 +1023,34 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
-        <stp>24130.T</stp>
+        <stp>83060.T</stp>
         <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d7d192a5d8464579a3cff3e5b5425b4e">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:56</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1375,10 +1379,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="10" bestFit="1" customWidth="1"/>
@@ -1390,7 +1394,7 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1426,7 +1430,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/08/15</v>
+        <v>2025/08/18</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -1434,22 +1438,22 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2249.5</v>
+        <v>2330.5</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2264</v>
+        <v>2243.5</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-14.5</v>
+        <v>87</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>2831500</v>
+        <v>4105300</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1459,30 +1463,30 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/08/15</v>
+        <v>2025/08/18</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2289.5</v>
+        <v>2309</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2266</v>
+        <v>2284.5</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>2826800</v>
+        <v>3055600</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1492,30 +1496,30 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/08/15</v>
+        <v>2025/08/18</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2973</v>
+        <v>2922</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2947</v>
+        <v>2969</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>26</v>
+        <v>-47</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>16234600</v>
+        <v>10639000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1525,7 +1529,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/08/15</v>
+        <v>2025/08/18</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
@@ -1533,22 +1537,22 @@
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>4298</v>
+        <v>4183</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>4070</v>
+        <v>4292</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>228</v>
+        <v>-109</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>14520000</v>
+        <v>13328200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1562,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/08/15</v>
+        <v>2025/08/18</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
@@ -1566,22 +1570,22 @@
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>3909</v>
+        <v>3946</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>3876</v>
+        <v>3910</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>26400700</v>
+        <v>31903600</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1591,7 +1595,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/08/15</v>
+        <v>2025/08/18</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -1599,22 +1603,22 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>2854</v>
+        <v>2899</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>2805</v>
+        <v>2854</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>16419000</v>
+        <v>18875900</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1628,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/08/15</v>
+        <v>2025/08/18</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
@@ -1632,22 +1636,22 @@
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>1636</v>
+        <v>1662</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>1623.5</v>
+        <v>1637.5</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>12.5</v>
+        <v>24.5</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>8545500</v>
+        <v>13042400</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1657,30 +1661,30 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/08/15</v>
+        <v>2025/08/18</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>3159</v>
+        <v>3203</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>3110</v>
+        <v>3167</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>7569800</v>
+        <v>6798900</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1690,7 +1694,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/08/15</v>
+        <v>2025/08/18</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
@@ -1698,22 +1702,22 @@
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>2371.5</v>
+        <v>2318.5</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>2239.5</v>
+        <v>2374</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>132</v>
+        <v>-55.5</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>89553800</v>
+        <v>48165900</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1723,30 +1727,30 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/08/15</v>
+        <v>2025/08/18</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:56</v>
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>1551.5</v>
+        <v>1577.5</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>28.5</v>
+        <v>8.5</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>7387300</v>
+        <v>4038000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="6" customFormat="1">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1776,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
+      <c r="A14" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="15"/>
     </row>
   </sheetData>

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791189CA-C1A7-4851-93E3-FB0D091E728A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4014B462-16DC-47F9-926D-642CA0805CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17685" yWindow="30" windowWidth="11115" windowHeight="9780" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="13065" yWindow="180" windowWidth="15840" windowHeight="10155" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,9 +377,134 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>87</v>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp t="s">
+        <v>2025/08/19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>-60</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>39</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp t="s">
+        <v>2025/08/19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp t="s">
+        <v>2025/08/19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp t="s">
+        <v>2025/08/19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -387,19 +512,17 @@
         <stp>前日比</stp>
         <tr r="G2" s="1"/>
       </tp>
-      <tp>
-        <v>24.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>45</v>
+      <tp t="s">
+        <v>2025/08/19</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>13.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -408,7 +531,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>24.5</v>
+        <v>1</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -417,7 +540,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>36</v>
+        <v>-38</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -426,7 +549,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>-109</v>
+        <v>-7</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -435,7 +558,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>-47</v>
+        <v>94</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -443,131 +566,39 @@
         <stp>前日比</stp>
         <tr r="G4" s="1"/>
       </tp>
-      <tp>
-        <v>-55.5</v>
+    </main>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp>
+        <v>47090200</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>36</v>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>5535100</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp>
-        <v>8.5</v>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>6706100</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp t="s">
-        <v>2025/08/18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp t="s">
-        <v>2025/08/18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>13328200</v>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp>
+        <v>6612700</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -576,7 +607,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>10639000</v>
+        <v>14442600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -585,7 +616,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>13042400</v>
+        <v>12095300</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -594,7 +625,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>18875900</v>
+        <v>23869000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -603,7 +634,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>31903600</v>
+        <v>25387300</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -612,9 +643,18 @@
         <tr r="H6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>4105300</v>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp>
+        <v>2243400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>2453800</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -623,47 +663,174 @@
         <tr r="H2" s="1"/>
       </tp>
       <tp>
-        <v>3055600</v>
+        <v>3204</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>2253.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
+      </tp>
+      <tp>
+        <v>1624</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp>
+        <v>2308</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24320.T</stp>
-        <stp>出来高</stp>
-        <tr r="H3" s="1"/>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>2323.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>48165900</v>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp>
+        <v>3021</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>4176</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp>
+        <v>3915</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>2916.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>1664</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp>
+        <v>3203</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>3953</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp>
+        <v>1663</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>2903</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>2313.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>6798900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>4038000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>2284.5</v>
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
+      <tp>
+        <v>2326</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>2306</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -671,21 +838,8 @@
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>2243.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>2969</v>
+      <tp>
+        <v>2927</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -693,28 +847,35 @@
         <stp>前日終値</stp>
         <tr r="F4" s="1"/>
       </tp>
-      <tp>
-        <v>2330.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2309</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>4292</v>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp>
+        <v>4183</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -722,112 +883,131 @@
         <stp>前日終値</stp>
         <tr r="F5" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp t="s">
-        <v>三井不動産</v>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp>
+        <v>1585</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>3167</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp>
-        <v>3910</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>2922</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>4183</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>1637.5</v>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>本田技研</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72670.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp>
-        <v>2854</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>3946</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>2899</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>1662</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>2374</v>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:57</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
       </tp>
       <tp t="s">
         <v>エムスリー</v>
@@ -839,44 +1019,6 @@
         <tr r="B2" s="1"/>
       </tp>
       <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp>
-        <v>3203</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>2318.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>1586</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp t="s">
         <v>ソシオネクスト</v>
         <stp/>
         <stp>Market</stp>
@@ -886,7 +1028,7 @@
         <tr r="B4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
+    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
       <tp t="s">
         <v>ソニーグループ</v>
         <stp/>
@@ -895,162 +1037,6 @@
         <stp>67580.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp>
-        <v>1577.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>本田技研</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4dc01a5bd8ae4b43abc00934da6028d9">
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:56</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1382,7 +1368,7 @@
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="10" bestFit="1" customWidth="1"/>
@@ -1394,7 +1380,7 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1430,30 +1416,30 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/08/18</v>
+        <v>2025/08/19</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2330.5</v>
+        <v>2323.5</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2243.5</v>
+        <v>2326</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>87</v>
+        <v>-2.5</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>4105300</v>
+        <v>2453800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1463,30 +1449,30 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/08/18</v>
+        <v>2025/08/19</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:57</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2284.5</v>
+        <v>2306</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>24.5</v>
+        <v>2</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>3055600</v>
+        <v>2243400</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1496,30 +1482,30 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/08/18</v>
+        <v>2025/08/19</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2922</v>
+        <v>3021</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2969</v>
+        <v>2927</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>-47</v>
+        <v>94</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>10639000</v>
+        <v>14442600</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1529,7 +1515,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/08/18</v>
+        <v>2025/08/19</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
@@ -1537,22 +1523,22 @@
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>4183</v>
+        <v>4176</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>4292</v>
+        <v>4183</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>-109</v>
+        <v>-7</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>13328200</v>
+        <v>6612700</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1548,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/08/18</v>
+        <v>2025/08/19</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
@@ -1570,22 +1556,22 @@
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>3946</v>
+        <v>3915</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>3910</v>
+        <v>3953</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>36</v>
+        <v>-38</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>31903600</v>
+        <v>25387300</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1581,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/08/18</v>
+        <v>2025/08/19</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -1603,22 +1589,22 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>2899</v>
+        <v>2916.5</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>2854</v>
+        <v>2903</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>45</v>
+        <v>13.5</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>18875900</v>
+        <v>23869000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1628,7 +1614,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/08/18</v>
+        <v>2025/08/19</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
@@ -1636,22 +1622,22 @@
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>1637.5</v>
+        <v>1663</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>24.5</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>13042400</v>
+        <v>12095300</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1661,30 +1647,30 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/08/18</v>
+        <v>2025/08/19</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>3167</v>
+        <v>3203</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>6798900</v>
+        <v>5535100</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1694,7 +1680,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/08/18</v>
+        <v>2025/08/19</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
@@ -1702,22 +1688,22 @@
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>2318.5</v>
+        <v>2253.5</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>2374</v>
+        <v>2313.5</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>-55.5</v>
+        <v>-60</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>48165900</v>
+        <v>47090200</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1727,30 +1713,30 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/08/18</v>
+        <v>2025/08/19</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
-        <v>15:24:56</v>
+        <v>15:24:58</v>
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>1586</v>
+        <v>1624</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>1577.5</v>
+        <v>1585</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>8.5</v>
+        <v>39</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>4038000</v>
+        <v>6706100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1">
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
@@ -1776,7 +1762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4014B462-16DC-47F9-926D-642CA0805CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FE9CF3-00F8-4595-991E-4232E12A5BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13065" yWindow="180" windowWidth="15840" windowHeight="10155" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="12960" yWindow="180" windowWidth="15840" windowHeight="10155" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -377,9 +377,58 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp t="s">
-        <v>2025/08/19</v>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp t="s">
+        <v>2025/08/21</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/21</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp t="s">
+        <v>2025/08/21</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp t="s">
+        <v>2025/08/21</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/21</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/21</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -388,7 +437,16 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/19</v>
+        <v>2025/08/21</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/21</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -396,17 +454,32 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/08/19</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp t="s">
+        <v>2025/08/21</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
         <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>-60</v>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp t="s">
+        <v>2025/08/21</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp>
+        <v>-3.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -415,7 +488,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>1</v>
+        <v>16</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -424,7 +497,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>39</v>
+        <v>-6.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -432,70 +505,17 @@
         <stp>前日比</stp>
         <tr r="G11" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/08/19</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp t="s">
-        <v>2025/08/19</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/19</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp t="s">
-        <v>2025/08/19</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp t="s">
-        <v>2025/08/19</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/19</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp>
-        <v>2</v>
+      <tp>
+        <v>16.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日比</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+      <tp>
+        <v>5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -504,25 +524,25 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>-2.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
+        <v>-23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
         <stp>前日比</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/19</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>13.5</v>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>-103</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>-37</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -531,7 +551,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>1</v>
+        <v>-31.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -540,7 +560,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>-38</v>
+        <v>-18</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -548,28 +568,104 @@
         <stp>前日比</stp>
         <tr r="G6" s="1"/>
       </tp>
-      <tp>
-        <v>-7</v>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>94</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp>
-        <v>47090200</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:55</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>21119600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -578,7 +674,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>5535100</v>
+        <v>4744900</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -587,7 +683,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>6706100</v>
+        <v>4088000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -595,10 +691,35 @@
         <stp>出来高</stp>
         <tr r="H11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp>
-        <v>6612700</v>
+      <tp>
+        <v>11494200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>11870900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>17053800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>6105600</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -607,7 +728,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>14442600</v>
+        <v>13795900</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -616,36 +737,16 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>12095300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
+        <v>1870400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
         <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>23869000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>25387300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp>
-        <v>2243400</v>
+        <tr r="H2" s="1"/>
+      </tp>
+      <tp>
+        <v>2057500</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -653,17 +754,39 @@
         <stp>出来高</stp>
         <tr r="H3" s="1"/>
       </tp>
-      <tp>
-        <v>2453800</v>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp>
+        <v>2267.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2332.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24130.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-      <tp>
-        <v>3204</v>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>2794.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp>
+        <v>3216</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -672,7 +795,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>2253.5</v>
+        <v>2258.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -690,9 +813,109 @@
         <tr r="E11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp>
-        <v>2308</v>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp>
+        <v>4128</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp>
+        <v>3200</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>3823</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp>
+        <v>1702.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>2937</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp>
+        <v>2262</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp t="s">
+        <v>エムスリー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp>
+        <v>2349</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2272.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -700,19 +923,86 @@
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
       </tp>
-      <tp>
-        <v>2323.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp t="s">
+        <v>ソニーグループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp>
+        <v>3805</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
         <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp>
-        <v>3021</v>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>2900</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>1671</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp>
+        <v>1630.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>2691.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -721,7 +1011,7 @@
         <tr r="E4" s="1"/>
       </tp>
       <tp>
-        <v>4176</v>
+        <v>4105</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -730,231 +1020,7 @@
         <tr r="E5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp>
-        <v>3915</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>2916.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>1664</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp>
-        <v>3203</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp>
-        <v>3953</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp>
-        <v>1663</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp>
-        <v>2903</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>2313.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp>
-        <v>2326</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2306</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>2927</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp>
-        <v>4183</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp>
-        <v>1585</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
       <tp t="s">
         <v>トヨタ自動車</v>
         <stp/>
@@ -973,6 +1039,8 @@
         <stp>銘柄名称</stp>
         <tr r="B8" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
       <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
@@ -981,62 +1049,6 @@
         <stp>83060.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:57</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>エムスリー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1d9a00df202a411c801c9c069f2d9645">
-      <tp t="s">
-        <v>ソニーグループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1416,7 +1428,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/08/19</v>
+        <v>2025/08/21</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -1424,19 +1436,19 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2323.5</v>
+        <v>2349</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2326</v>
+        <v>2332.5</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-2.5</v>
+        <v>16.5</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>2453800</v>
+        <v>1870400</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1449,27 +1461,27 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/08/19</v>
+        <v>2025/08/21</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:57</v>
+        <v>15:24:55</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2308</v>
+        <v>2272.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2306</v>
+        <v>2267.5</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>2243400</v>
+        <v>2057500</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1482,7 +1494,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/08/19</v>
+        <v>2025/08/21</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -1490,19 +1502,19 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>3021</v>
+        <v>2691.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2927</v>
+        <v>2794.5</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>94</v>
+        <v>-103</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>14442600</v>
+        <v>13795900</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1515,7 +1527,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/08/19</v>
+        <v>2025/08/21</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
@@ -1523,19 +1535,19 @@
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>4176</v>
+        <v>4105</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>4183</v>
+        <v>4128</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>-7</v>
+        <v>-23</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>6612700</v>
+        <v>6105600</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1548,7 +1560,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/08/19</v>
+        <v>2025/08/21</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
@@ -1556,19 +1568,19 @@
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>3915</v>
+        <v>3805</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>3953</v>
+        <v>3823</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>-38</v>
+        <v>-18</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>25387300</v>
+        <v>17053800</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1581,7 +1593,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/08/19</v>
+        <v>2025/08/21</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -1589,19 +1601,19 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>2916.5</v>
+        <v>2900</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>2903</v>
+        <v>2937</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>13.5</v>
+        <v>-37</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>23869000</v>
+        <v>11870900</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1614,7 +1626,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/08/19</v>
+        <v>2025/08/21</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
@@ -1622,19 +1634,19 @@
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>1664</v>
+        <v>1671</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>1663</v>
+        <v>1702.5</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>1</v>
+        <v>-31.5</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>12095300</v>
+        <v>11494200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1647,7 +1659,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/08/19</v>
+        <v>2025/08/21</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
@@ -1655,19 +1667,19 @@
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>3204</v>
+        <v>3216</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>5535100</v>
+        <v>4744900</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1680,7 +1692,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/08/19</v>
+        <v>2025/08/21</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
@@ -1688,19 +1700,19 @@
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>2253.5</v>
+        <v>2258.5</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>2313.5</v>
+        <v>2262</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>-60</v>
+        <v>-3.5</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>47090200</v>
+        <v>21119600</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1713,7 +1725,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/08/19</v>
+        <v>2025/08/21</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
@@ -1725,15 +1737,15 @@
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>1585</v>
+        <v>1630.5</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>39</v>
+        <v>-6.5</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>6706100</v>
+        <v>4088000</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FE9CF3-00F8-4595-991E-4232E12A5BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D19FAF9-B5E5-4FCA-AE01-A11161382F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12960" yWindow="180" windowWidth="15840" windowHeight="10155" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -377,9 +377,18 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp t="s">
-        <v>2025/08/21</v>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp t="s">
+        <v>2025/08/22</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/22</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -387,19 +396,30 @@
         <stp>現在日付</stp>
         <tr r="C9" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/08/21</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp t="s">
+        <v>2025/08/22</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
         <stp>現在日付</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp t="s">
-        <v>2025/08/21</v>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/22</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp t="s">
+        <v>2025/08/22</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -408,27 +428,29 @@
         <tr r="C10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp t="s">
-        <v>2025/08/21</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp t="s">
+        <v>2025/08/22</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
         <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/21</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/22</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
         <stp>現在日付</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/21</v>
+        <tr r="C2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp t="s">
+        <v>2025/08/22</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -436,28 +458,10 @@
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/08/21</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/21</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp t="s">
-        <v>2025/08/21</v>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp t="s">
+        <v>2025/08/22</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -465,10 +469,8 @@
         <stp>現在日付</stp>
         <tr r="C5" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp t="s">
-        <v>2025/08/21</v>
+      <tp t="s">
+        <v>2025/08/22</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -477,9 +479,9 @@
         <tr r="C11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp>
-        <v>-3.5</v>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp>
+        <v>33</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -488,7 +490,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>16</v>
+        <v>21</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -497,7 +499,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>-6.5</v>
+        <v>-12</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -505,8 +507,57 @@
         <stp>前日比</stp>
         <tr r="G11" s="1"/>
       </tp>
-      <tp>
-        <v>16.5</v>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp>
+        <v>112</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>32.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>10.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>29</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp>
+        <v>-96</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -515,7 +566,7 @@
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>5</v>
+        <v>15</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -523,55 +574,8 @@
         <stp>前日比</stp>
         <tr r="G3" s="1"/>
       </tp>
-      <tp>
-        <v>-23</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>-103</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>-37</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>-31.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>-18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp t="s">
-        <v>15:24:59</v>
+      <tp t="s">
+        <v>15:24:57</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -580,7 +584,7 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:24:59</v>
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -589,7 +593,7 @@
         <tr r="D10" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:24:58</v>
+        <v>15:24:57</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -598,7 +602,27 @@
         <tr r="D11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:55</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -609,6 +633,15 @@
         <tr r="D6" s="1"/>
       </tp>
       <tp t="s">
+        <v>15:24:58</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp t="s">
         <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
@@ -622,15 +655,6 @@
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
         <stp>65260.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D4" s="1"/>
@@ -645,27 +669,9 @@
         <tr r="D5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:55</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp>
-        <v>21119600</v>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp>
+        <v>26171800</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -674,7 +680,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>4744900</v>
+        <v>5297500</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -683,7 +689,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>4088000</v>
+        <v>2733900</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -691,8 +697,39 @@
         <stp>出来高</stp>
         <tr r="H11" s="1"/>
       </tp>
-      <tp>
-        <v>11494200</v>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp>
+        <v>4235800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+      <tp>
+        <v>1889600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp>
+        <v>13422500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>6888800</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -701,16 +738,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>11870900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>17053800</v>
+        <v>13781300</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -719,7 +747,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>6105600</v>
+        <v>8549300</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -728,7 +756,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>13795900</v>
+        <v>15298100</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -737,27 +765,18 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>1870400</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-      <tp>
-        <v>2057500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>出来高</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp>
-        <v>2267.5</v>
+        <v>2690</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp>
+        <v>2267</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -766,7 +785,7 @@
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>2332.5</v>
+        <v>2348</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -774,19 +793,21 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
-      <tp>
-        <v>2794.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp>
+        <v>4094</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
         <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp>
-        <v>3216</v>
+        <tr r="F5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp>
+        <v>3236</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -795,7 +816,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>2258.5</v>
+        <v>2287.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -804,7 +825,7 @@
         <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>1624</v>
+        <v>1611.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -812,17 +833,6 @@
         <stp>現在値</stp>
         <tr r="E11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp>
-        <v>4128</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
       <tp t="s">
         <v>三井不動産</v>
         <stp/>
@@ -832,10 +842,17 @@
         <stp>銘柄名称</stp>
         <tr r="B11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp>
-        <v>3200</v>
+      <tp>
+        <v>3807</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp>
+        <v>3215</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -844,18 +861,27 @@
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>3823</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
+        <v>2254.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
         <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp>
-        <v>1702.5</v>
+        <tr r="F10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp>
+        <v>2904</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>1669.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -863,28 +889,19 @@
         <stp>前日終値</stp>
         <tr r="F8" s="1"/>
       </tp>
-      <tp>
-        <v>2937</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp>
-        <v>2262</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
       <tp t="s">
         <v>エムスリー</v>
         <stp/>
@@ -904,9 +921,103 @@
         <tr r="B3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp>
-        <v>2349</v>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp>
+        <v>3821</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>1680</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>2933</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソニーグループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp>
+        <v>2722.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>4206</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp>
+        <v>1623.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
+      <tp>
+        <v>2252</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -915,7 +1026,7 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2272.5</v>
+        <v>2282</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -923,104 +1034,15 @@
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
+      <tp t="s">
+        <v>本田技研</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
         <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp t="s">
-        <v>ソニーグループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp>
-        <v>3805</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>2900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>1671</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp>
-        <v>1630.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>2691.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>4105</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
+        <tr r="B8" s="1"/>
+      </tp>
       <tp t="s">
         <v>トヨタ自動車</v>
         <stp/>
@@ -1029,26 +1051,6 @@
         <stp>72030.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>本田技研</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.223e3f14b9f84246ba142538d56bacac">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1428,27 +1430,27 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/08/21</v>
+        <v>2025/08/22</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2349</v>
+        <v>2252</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2332.5</v>
+        <v>2348</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>16.5</v>
+        <v>-96</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>1870400</v>
+        <v>4235800</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1461,7 +1463,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/08/21</v>
+        <v>2025/08/22</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -1469,19 +1471,19 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2272.5</v>
+        <v>2282</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2267.5</v>
+        <v>2267</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>2057500</v>
+        <v>1889600</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1494,7 +1496,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/08/21</v>
+        <v>2025/08/22</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -1502,19 +1504,19 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2691.5</v>
+        <v>2722.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2794.5</v>
+        <v>2690</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>-103</v>
+        <v>32.5</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>13795900</v>
+        <v>15298100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1527,7 +1529,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/08/21</v>
+        <v>2025/08/22</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
@@ -1535,19 +1537,19 @@
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>4105</v>
+        <v>4206</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>4128</v>
+        <v>4094</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>-23</v>
+        <v>112</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>6105600</v>
+        <v>8549300</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1560,7 +1562,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/08/21</v>
+        <v>2025/08/22</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
@@ -1568,19 +1570,19 @@
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>3805</v>
+        <v>3821</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
-        <v>3823</v>
+        <v>3807</v>
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>-18</v>
+        <v>14</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>17053800</v>
+        <v>13781300</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1593,7 +1595,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/08/21</v>
+        <v>2025/08/22</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -1601,19 +1603,19 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>2900</v>
+        <v>2933</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>2937</v>
+        <v>2904</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>-37</v>
+        <v>29</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>11870900</v>
+        <v>13422500</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1626,27 +1628,27 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/08/21</v>
+        <v>2025/08/22</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>1671</v>
+        <v>1680</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>1702.5</v>
+        <v>1669.5</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>-31.5</v>
+        <v>10.5</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>11494200</v>
+        <v>6888800</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1659,27 +1661,27 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/08/21</v>
+        <v>2025/08/22</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:57</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>3216</v>
+        <v>3236</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>3200</v>
+        <v>3215</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>4744900</v>
+        <v>5297500</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1692,27 +1694,27 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/08/21</v>
+        <v>2025/08/22</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>2258.5</v>
+        <v>2287.5</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>2262</v>
+        <v>2254.5</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>-3.5</v>
+        <v>33</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>21119600</v>
+        <v>26171800</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1725,27 +1727,27 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/08/21</v>
+        <v>2025/08/22</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:57</v>
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>1624</v>
+        <v>1611.5</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>1630.5</v>
+        <v>1623.5</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>-6.5</v>
+        <v>-12</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>4088000</v>
+        <v>2733900</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/collector.xlsx
+++ b/collector.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D19FAF9-B5E5-4FCA-AE01-A11161382F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F1C4FC-0F01-4653-8840-263C09FAE145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="180" windowWidth="15840" windowHeight="10155" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="15375" yWindow="0" windowWidth="13425" windowHeight="10350" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,9 +377,165 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp t="s">
-        <v>2025/08/22</v>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp>
+        <v>-35.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日比</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>-31.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日比</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>-35</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日比</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp>
+        <v>-87</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>44.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>前日比</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp>
+        <v>-34</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日比</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日比</stp>
+        <tr r="G2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp>
+        <v>-21</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日比</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>-14</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日比</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>-26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日比</stp>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp t="s">
+        <v>2025/08/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp t="s">
+        <v>2025/08/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp t="s">
+        <v>2025/08/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/26</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -388,18 +544,16 @@
         <tr r="C6" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/08/22</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
+        <v>2025/08/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
         <stp>現在日付</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp t="s">
-        <v>2025/08/22</v>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/08/26</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -407,19 +561,10 @@
         <stp>現在日付</stp>
         <tr r="C7" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/08/22</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C8" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp t="s">
-        <v>2025/08/22</v>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp t="s">
+        <v>2025/08/26</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -427,155 +572,456 @@
         <stp>現在日付</stp>
         <tr r="C10" s="1"/>
       </tp>
+      <tp>
+        <v>2559300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>出来高</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>2239600</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>出来高</stp>
+        <tr r="H2" s="1"/>
+      </tp>
+      <tp>
+        <v>7169000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp>
+        <v>17728400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>出来高</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp>
+        <v>11646800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>出来高</stp>
+        <tr r="H8" s="1"/>
+      </tp>
+      <tp>
+        <v>14760400</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>出来高</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp>
+        <v>14880500</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>出来高</stp>
+        <tr r="H6" s="1"/>
+      </tp>
+      <tp>
+        <v>2985100</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>出来高</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>23218300</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>出来高</stp>
+        <tr r="H10" s="1"/>
+      </tp>
+      <tp>
+        <v>5633800</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>出来高</stp>
+        <tr r="H9" s="1"/>
+      </tp>
+      <tp>
+        <v>2845.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>4087</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>1611.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>3772</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>2904.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>1664.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱商事</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B10" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp t="s">
-        <v>2025/08/22</v>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>本田技研</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp>
+        <v>2253.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24320.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/22</v>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>2268</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>24130.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソシオネクスト</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ディー・エヌ・エー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>エムスリー</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>ソニーグループ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp>
+        <v>3290</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>3807</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp t="s">
-        <v>2025/08/22</v>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp t="s">
+        <v>三井不動産</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>88010.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp>
+        <v>2288.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+      <tp>
+        <v>1696</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>2940</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>2801</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>65260.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp t="s">
-        <v>2025/08/22</v>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp>
+        <v>2248</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>2287.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp>
+        <v>4174</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>67580.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/08/22</v>
+        <stp>前日終値</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp>
+        <v>1590.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C11" s="1"/>
+        <stp>現在値</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>3264</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>80580.T</stp>
+        <stp>現在値</stp>
+        <tr r="E9" s="1"/>
+      </tp>
+      <tp>
+        <v>2274.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp>
-        <v>33</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日比</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>21</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp>
-        <v>-12</v>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24320.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>24130.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>65260.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>67580.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72670.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.726cf5750b584f1b93931dedaab5c27a">
+      <tp t="s">
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>88010.T</stp>
-        <stp>前日比</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp>
-        <v>112</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>前日比</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>32.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日比</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>10.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>前日比</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>29</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日比</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>14</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日比</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp>
-        <v>-96</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>前日比</stp>
-        <tr r="G2" s="1"/>
-      </tp>
-      <tp>
-        <v>15</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日比</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:57</v>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -584,473 +1030,13 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:24:58</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:57</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:55</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp>
-        <v>26171800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>出来高</stp>
-        <tr r="H10" s="1"/>
-      </tp>
-      <tp>
-        <v>5297500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H9" s="1"/>
-      </tp>
-      <tp>
-        <v>2733900</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>出来高</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp>
-        <v>4235800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>出来高</stp>
-        <tr r="H2" s="1"/>
-      </tp>
-      <tp>
-        <v>1889600</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>出来高</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp>
-        <v>13422500</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>出来高</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp>
-        <v>6888800</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>出来高</stp>
-        <tr r="H8" s="1"/>
-      </tp>
-      <tp>
-        <v>13781300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>出来高</stp>
-        <tr r="H6" s="1"/>
-      </tp>
-      <tp>
-        <v>8549300</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>出来高</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>15298100</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>出来高</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp>
-        <v>2690</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp>
-        <v>2267</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>2348</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp>
-        <v>4094</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp>
-        <v>3236</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E9" s="1"/>
-      </tp>
-      <tp>
-        <v>2287.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>1611.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>現在値</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三井不動産</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp>
-        <v>3807</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp>
-        <v>3215</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp>
-        <v>2254.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp>
-        <v>2904</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>1669.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp t="s">
-        <v>ソシオネクスト</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp t="s">
-        <v>エムスリー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ディー・エヌ・エー</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp>
-        <v>3821</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>1680</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>現在値</stp>
-        <tr r="E8" s="1"/>
-      </tp>
-      <tp>
-        <v>2933</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>ソニーグループ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp>
-        <v>2722.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>65260.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>4206</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>67580.T</stp>
-        <stp>現在値</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp t="s">
-        <v>三菱商事</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>80580.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp>
-        <v>1623.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>88010.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0a54766c0f0a4d459f938763307a2ea6">
-      <tp>
-        <v>2252</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24130.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2282</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>24320.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>本田技研</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72670.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1382,7 +1368,7 @@
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="10" bestFit="1" customWidth="1"/>
@@ -1394,7 +1380,7 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="23.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1430,7 +1416,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/08/22</v>
+        <v>2025/08/26</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -1438,22 +1424,22 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>2252</v>
+        <v>2268</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>2348</v>
+        <v>2248</v>
       </c>
       <c r="G2" s="8">
         <f>_xll.RssMarket($A2, G$1)</f>
-        <v>-96</v>
+        <v>20</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.RssMarket($A2, H$1)</f>
-        <v>4235800</v>
+        <v>2239600</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1463,30 +1449,30 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/08/22</v>
+        <v>2025/08/26</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:55</v>
+        <v>15:24:59</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2282</v>
+        <v>2253.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2267</v>
+        <v>2287.5</v>
       </c>
       <c r="G3" s="8">
         <f>_xll.RssMarket($A3, G$1)</f>
-        <v>15</v>
+        <v>-34</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.RssMarket($A3, H$1)</f>
-        <v>1889600</v>
+        <v>2559300</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1482,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/08/22</v>
+        <v>2025/08/26</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -1504,22 +1490,22 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2722.5</v>
+        <v>2845.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2690</v>
+        <v>2801</v>
       </c>
       <c r="G4" s="8">
         <f>_xll.RssMarket($A4, G$1)</f>
-        <v>32.5</v>
+        <v>44.5</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.RssMarket($A4, H$1)</f>
-        <v>15298100</v>
+        <v>17728400</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="23.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1529,7 +1515,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.RssMarket($A5, C$1)</f>
-        <v>2025/08/22</v>
+        <v>2025/08/26</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.RssMarket($A5, D$1)</f>
@@ -1537,22 +1523,22 @@
       </c>
       <c r="E5" s="8">
         <f>_xll.RssMarket($A5, E$1)</f>
-        <v>4206</v>
+        <v>4087</v>
       </c>
       <c r="F5" s="8">
         <f>_xll.RssMarket($A5, F$1)</f>
-        <v>4094</v>
+        <v>4174</v>
       </c>
       <c r="G5" s="8">
         <f>_xll.RssMarket($A5, G$1)</f>
-        <v>112</v>
+        <v>-87</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.RssMarket($A5, H$1)</f>
-        <v>8549300</v>
+        <v>7169000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="23.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1548,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.RssMarket($A6, C$1)</f>
-        <v>2025/08/22</v>
+        <v>2025/08/26</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>_xll.RssMarket($A6, D$1)</f>
@@ -1570,7 +1556,7 @@
       </c>
       <c r="E6" s="8">
         <f>_xll.RssMarket($A6, E$1)</f>
-        <v>3821</v>
+        <v>3772</v>
       </c>
       <c r="F6" s="8">
         <f>_xll.RssMarket($A6, F$1)</f>
@@ -1578,14 +1564,14 @@
       </c>
       <c r="G6" s="8">
         <f>_xll.RssMarket($A6, G$1)</f>
-        <v>14</v>
+        <v>-35</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.RssMarket($A6, H$1)</f>
-        <v>13781300</v>
+        <v>14880500</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="23.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1581,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.RssMarket($A7, C$1)</f>
-        <v>2025/08/22</v>
+        <v>2025/08/26</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.RssMarket($A7, D$1)</f>
@@ -1603,22 +1589,22 @@
       </c>
       <c r="E7" s="8">
         <f>_xll.RssMarket($A7, E$1)</f>
-        <v>2933</v>
+        <v>2904.5</v>
       </c>
       <c r="F7" s="8">
         <f>_xll.RssMarket($A7, F$1)</f>
-        <v>2904</v>
+        <v>2940</v>
       </c>
       <c r="G7" s="8">
         <f>_xll.RssMarket($A7, G$1)</f>
-        <v>29</v>
+        <v>-35.5</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.RssMarket($A7, H$1)</f>
-        <v>13422500</v>
+        <v>14760400</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="23.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1628,30 +1614,30 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.RssMarket($A8, C$1)</f>
-        <v>2025/08/22</v>
+        <v>2025/08/26</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>_xll.RssMarket($A8, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E8" s="8">
         <f>_xll.RssMarket($A8, E$1)</f>
-        <v>1680</v>
+        <v>1664.5</v>
       </c>
       <c r="F8" s="8">
         <f>_xll.RssMarket($A8, F$1)</f>
-        <v>1669.5</v>
+        <v>1696</v>
       </c>
       <c r="G8" s="8">
         <f>_xll.RssMarket($A8, G$1)</f>
-        <v>10.5</v>
+        <v>-31.5</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.RssMarket($A8, H$1)</f>
-        <v>6888800</v>
+        <v>11646800</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="23.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1661,30 +1647,30 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.RssMarket($A9, C$1)</f>
-        <v>2025/08/22</v>
+        <v>2025/08/26</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>_xll.RssMarket($A9, D$1)</f>
-        <v>15:24:57</v>
+        <v>15:24:59</v>
       </c>
       <c r="E9" s="8">
         <f>_xll.RssMarket($A9, E$1)</f>
-        <v>3236</v>
+        <v>3264</v>
       </c>
       <c r="F9" s="8">
         <f>_xll.RssMarket($A9, F$1)</f>
-        <v>3215</v>
+        <v>3290</v>
       </c>
       <c r="G9" s="8">
         <f>_xll.RssMarket($A9, G$1)</f>
-        <v>21</v>
+        <v>-26</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.RssMarket($A9, H$1)</f>
-        <v>5297500</v>
+        <v>5633800</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="23.25">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1694,30 +1680,30 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.RssMarket($A10, C$1)</f>
-        <v>2025/08/22</v>
+        <v>2025/08/26</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>_xll.RssMarket($A10, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E10" s="8">
         <f>_xll.RssMarket($A10, E$1)</f>
-        <v>2287.5</v>
+        <v>2274.5</v>
       </c>
       <c r="F10" s="8">
         <f>_xll.RssMarket($A10, F$1)</f>
-        <v>2254.5</v>
+        <v>2288.5</v>
       </c>
       <c r="G10" s="8">
         <f>_xll.RssMarket($A10, G$1)</f>
-        <v>33</v>
+        <v>-14</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.RssMarket($A10, H$1)</f>
-        <v>26171800</v>
+        <v>23218300</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="23.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1727,30 +1713,30 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.RssMarket($A11, C$1)</f>
-        <v>2025/08/22</v>
+        <v>2025/08/26</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>_xll.RssMarket($A11, D$1)</f>
-        <v>15:24:57</v>
+        <v>15:24:58</v>
       </c>
       <c r="E11" s="8">
         <f>_xll.RssMarket($A11, E$1)</f>
-        <v>1611.5</v>
+        <v>1590.5</v>
       </c>
       <c r="F11" s="8">
         <f>_xll.RssMarket($A11, F$1)</f>
-        <v>1623.5</v>
+        <v>1611.5</v>
       </c>
       <c r="G11" s="8">
         <f>_xll.RssMarket($A11, G$1)</f>
-        <v>-12</v>
+        <v>-21</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.RssMarket($A11, H$1)</f>
-        <v>2733900</v>
+        <v>2985100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="23.25">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
@@ -1776,7 +1762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="23.25">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
